--- a/results/results_full.xlsx
+++ b/results/results_full.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="107">
   <si>
     <t>id</t>
   </si>
@@ -232,6 +232,24 @@
     <t>RF0</t>
   </si>
   <si>
+    <t>MLP2aP3D1R</t>
+  </si>
+  <si>
+    <t>MLP2aP3D0R</t>
+  </si>
+  <si>
+    <t>MLP2nP2D0R</t>
+  </si>
+  <si>
+    <t>CNN2nP2D0R</t>
+  </si>
+  <si>
+    <t>LSTM2nP2D0R</t>
+  </si>
+  <si>
+    <t>RF2</t>
+  </si>
+  <si>
     <t>MLP7D030P0</t>
   </si>
   <si>
@@ -256,7 +274,16 @@
     <t>MLP8D0100P0</t>
   </si>
   <si>
-    <t>preles2008</t>
+    <t>preles2008hy</t>
+  </si>
+  <si>
+    <t>preles2008bk</t>
+  </si>
+  <si>
+    <t>mlp0nP2D0Rbs</t>
+  </si>
+  <si>
+    <t>prelesbs</t>
   </si>
   <si>
     <t>mlp</t>
@@ -298,13 +325,16 @@
     <t>selected</t>
   </si>
   <si>
-    <t>randomforest</t>
+    <t>architecture_search</t>
   </si>
   <si>
     <t>pretraining</t>
   </si>
   <si>
     <t>processmodel</t>
+  </si>
+  <si>
+    <t>borealsitesprediction</t>
   </si>
 </sst>
 </file>
@@ -662,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,7 +747,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -729,7 +759,7 @@
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -741,13 +771,13 @@
         <v>10.38203207073011</v>
       </c>
       <c r="L2">
-        <v>6.229437798360602</v>
+        <v>6.229437798360603</v>
       </c>
       <c r="M2">
         <v>7.156459310618192</v>
       </c>
       <c r="N2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -758,7 +788,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -770,7 +800,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -788,7 +818,7 @@
         <v>0.7690979236193421</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -799,7 +829,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -811,7 +841,7 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -829,7 +859,7 @@
         <v>1.939582945501945</v>
       </c>
       <c r="N4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -840,7 +870,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -852,7 +882,7 @@
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -873,7 +903,7 @@
         <v>0.7466168809686057</v>
       </c>
       <c r="N5" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -884,7 +914,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -896,7 +926,7 @@
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -917,7 +947,7 @@
         <v>0.4874206483364105</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -928,7 +958,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -940,7 +970,7 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -961,7 +991,7 @@
         <v>0.8031153678894043</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -972,7 +1002,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -984,13 +1014,13 @@
         <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.742085295754011</v>
+        <v>8.742085295754013</v>
       </c>
       <c r="K8">
         <v>7.005193112891305</v>
@@ -999,10 +1029,10 @@
         <v>5.508570743702134</v>
       </c>
       <c r="M8">
-        <v>5.306436106149635</v>
+        <v>5.306436106149636</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1013,7 +1043,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -1025,7 +1055,7 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1043,7 +1073,7 @@
         <v>0.8332226603483276</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1054,7 +1084,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -1066,7 +1096,7 @@
         <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1084,7 +1114,7 @@
         <v>1.806866226519419</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1095,7 +1125,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -1107,7 +1137,7 @@
         <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1128,7 +1158,7 @@
         <v>0.7557077598964967</v>
       </c>
       <c r="N11" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1139,7 +1169,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -1151,7 +1181,7 @@
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1172,7 +1202,7 @@
         <v>0.4906741976737976</v>
       </c>
       <c r="N12" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1183,7 +1213,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -1195,7 +1225,7 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1216,7 +1246,7 @@
         <v>0.8993344306945801</v>
       </c>
       <c r="N13" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1227,7 +1257,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -1239,7 +1269,7 @@
         <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1251,13 +1281,13 @@
         <v>7.156006714489902</v>
       </c>
       <c r="L14">
-        <v>5.438984149459307</v>
+        <v>5.438984149459308</v>
       </c>
       <c r="M14">
         <v>5.243360452543156</v>
       </c>
       <c r="N14" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1268,7 +1298,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>7</v>
@@ -1280,7 +1310,7 @@
         <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1298,7 +1328,7 @@
         <v>0.7812450732794299</v>
       </c>
       <c r="N15" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1309,7 +1339,7 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -1321,7 +1351,7 @@
         <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1339,7 +1369,7 @@
         <v>1.818543136674192</v>
       </c>
       <c r="N16" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1350,7 +1380,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -1362,7 +1392,7 @@
         <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1383,7 +1413,7 @@
         <v>0.7008879307590117</v>
       </c>
       <c r="N17" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1394,7 +1424,7 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -1406,7 +1436,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1427,7 +1457,7 @@
         <v>0.492600679397583</v>
       </c>
       <c r="N18" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1438,7 +1468,7 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -1450,7 +1480,7 @@
         <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1471,7 +1501,7 @@
         <v>0.9060245752334596</v>
       </c>
       <c r="N19" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1482,7 +1512,7 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D20">
         <v>7</v>
@@ -1494,7 +1524,7 @@
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1506,13 +1536,13 @@
         <v>13.01063059834415</v>
       </c>
       <c r="L20">
-        <v>7.970917459785643</v>
+        <v>7.970917459785642</v>
       </c>
       <c r="M20">
-        <v>9.169138302429399</v>
+        <v>9.169138302429401</v>
       </c>
       <c r="N20" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1523,7 +1553,7 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D21">
         <v>7</v>
@@ -1535,25 +1565,25 @@
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.9971738669133645</v>
+        <v>0.9971738669133644</v>
       </c>
       <c r="K21">
-        <v>0.9692713886289193</v>
+        <v>0.9692713886289192</v>
       </c>
       <c r="L21">
         <v>0.7037051429335435</v>
       </c>
       <c r="M21">
-        <v>0.7307312767841569</v>
+        <v>0.7307312767841571</v>
       </c>
       <c r="N21" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1564,7 +1594,7 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -1576,7 +1606,7 @@
         <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1594,7 +1624,7 @@
         <v>1.61815399085998</v>
       </c>
       <c r="N22" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1605,7 +1635,7 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D23">
         <v>7</v>
@@ -1617,7 +1647,7 @@
         <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1638,7 +1668,7 @@
         <v>0.6944530102657764</v>
       </c>
       <c r="N23" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1649,7 +1679,7 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D24">
         <v>7</v>
@@ -1661,7 +1691,7 @@
         <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1682,7 +1712,7 @@
         <v>0.4953839182853699</v>
       </c>
       <c r="N24" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1693,7 +1723,7 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D25">
         <v>7</v>
@@ -1705,7 +1735,7 @@
         <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1726,7 +1756,7 @@
         <v>0.8256415128707886</v>
       </c>
       <c r="N25" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1737,7 +1767,7 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D26">
         <v>8</v>
@@ -1749,13 +1779,13 @@
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>4.076357498729775</v>
+        <v>4.076357498729776</v>
       </c>
       <c r="K26">
         <v>4.020282028847351</v>
@@ -1767,7 +1797,7 @@
         <v>2.94637327588741</v>
       </c>
       <c r="N26" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1778,7 +1808,7 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <v>8</v>
@@ -1790,16 +1820,16 @@
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.9155739817374503</v>
+        <v>0.9155739817374504</v>
       </c>
       <c r="K27">
-        <v>0.9761511657434759</v>
+        <v>0.976151165743476</v>
       </c>
       <c r="L27">
         <v>0.6350351691539158</v>
@@ -1808,7 +1838,7 @@
         <v>0.711501340255003</v>
       </c>
       <c r="N27" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1819,7 +1849,7 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D28">
         <v>8</v>
@@ -1831,13 +1861,13 @@
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2.237444441309334</v>
+        <v>2.237444441309333</v>
       </c>
       <c r="K28">
         <v>2.172132039603001</v>
@@ -1849,7 +1879,7 @@
         <v>1.621275420525324</v>
       </c>
       <c r="N28" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1860,7 +1890,7 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D29">
         <v>8</v>
@@ -1872,7 +1902,7 @@
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1893,7 +1923,7 @@
         <v>0.6597517434385272</v>
       </c>
       <c r="N29" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1904,7 +1934,7 @@
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -1916,7 +1946,7 @@
         <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1937,7 +1967,7 @@
         <v>0.4874206483364105</v>
       </c>
       <c r="N30" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1948,7 +1978,7 @@
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <v>8</v>
@@ -1960,7 +1990,7 @@
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1981,7 +2011,7 @@
         <v>0.8031153678894043</v>
       </c>
       <c r="N31" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1992,7 +2022,7 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D32">
         <v>8</v>
@@ -2004,7 +2034,7 @@
         <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2013,7 +2043,7 @@
         <v>5.338728458127044</v>
       </c>
       <c r="K32">
-        <v>4.849818498222812</v>
+        <v>4.849818498222811</v>
       </c>
       <c r="L32">
         <v>3.612886101434982</v>
@@ -2022,7 +2052,7 @@
         <v>3.706538223720009</v>
       </c>
       <c r="N32" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2033,7 +2063,7 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D33">
         <v>8</v>
@@ -2045,7 +2075,7 @@
         <v>50</v>
       </c>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2063,7 +2093,7 @@
         <v>0.7169104026314912</v>
       </c>
       <c r="N33" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2074,7 +2104,7 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D34">
         <v>8</v>
@@ -2086,7 +2116,7 @@
         <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2104,7 +2134,7 @@
         <v>1.593907146675113</v>
       </c>
       <c r="N34" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2115,7 +2145,7 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D35">
         <v>8</v>
@@ -2127,7 +2157,7 @@
         <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2148,7 +2178,7 @@
         <v>0.6834561486871692</v>
       </c>
       <c r="N35" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2159,7 +2189,7 @@
         <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D36">
         <v>8</v>
@@ -2171,7 +2201,7 @@
         <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2192,7 +2222,7 @@
         <v>0.4906741976737976</v>
       </c>
       <c r="N36" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2203,7 +2233,7 @@
         <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D37">
         <v>8</v>
@@ -2215,7 +2245,7 @@
         <v>50</v>
       </c>
       <c r="G37" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2236,7 +2266,7 @@
         <v>0.8993344306945801</v>
       </c>
       <c r="N37" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2247,7 +2277,7 @@
         <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D38">
         <v>8</v>
@@ -2259,7 +2289,7 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2268,7 +2298,7 @@
         <v>4.384159545696203</v>
       </c>
       <c r="K38">
-        <v>4.162281584407036</v>
+        <v>4.162281584407037</v>
       </c>
       <c r="L38">
         <v>3.181135376681208</v>
@@ -2277,7 +2307,7 @@
         <v>3.258335834263824</v>
       </c>
       <c r="N38" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2288,7 +2318,7 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D39">
         <v>8</v>
@@ -2300,7 +2330,7 @@
         <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2318,7 +2348,7 @@
         <v>0.6927480318783719</v>
       </c>
       <c r="N39" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2329,7 +2359,7 @@
         <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D40">
         <v>8</v>
@@ -2341,7 +2371,7 @@
         <v>70</v>
       </c>
       <c r="G40" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2359,7 +2389,7 @@
         <v>1.623729725666519</v>
       </c>
       <c r="N40" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2370,7 +2400,7 @@
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D41">
         <v>8</v>
@@ -2382,7 +2412,7 @@
         <v>70</v>
       </c>
       <c r="G41" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2403,7 +2433,7 @@
         <v>0.6781311475420246</v>
       </c>
       <c r="N41" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2414,7 +2444,7 @@
         <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D42">
         <v>8</v>
@@ -2426,7 +2456,7 @@
         <v>70</v>
       </c>
       <c r="G42" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2447,7 +2477,7 @@
         <v>0.492600679397583</v>
       </c>
       <c r="N42" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2458,7 +2488,7 @@
         <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>8</v>
@@ -2470,7 +2500,7 @@
         <v>70</v>
       </c>
       <c r="G43" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2491,7 +2521,7 @@
         <v>0.9060245752334596</v>
       </c>
       <c r="N43" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2502,7 +2532,7 @@
         <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D44">
         <v>8</v>
@@ -2514,25 +2544,25 @@
         <v>100</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>4.50628340310844</v>
+        <v>4.506283403108441</v>
       </c>
       <c r="K44">
-        <v>4.328067808803192</v>
+        <v>4.328067808803191</v>
       </c>
       <c r="L44">
-        <v>3.212188387619715</v>
+        <v>3.212188387619716</v>
       </c>
       <c r="M44">
         <v>3.312440959487002</v>
       </c>
       <c r="N44" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2543,7 +2573,7 @@
         <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D45">
         <v>8</v>
@@ -2555,25 +2585,25 @@
         <v>100</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.9610679781078867</v>
+        <v>0.9610679781078868</v>
       </c>
       <c r="K45">
-        <v>0.9746878827125223</v>
+        <v>0.9746878827125224</v>
       </c>
       <c r="L45">
-        <v>0.66444439348795</v>
+        <v>0.6644443934879499</v>
       </c>
       <c r="M45">
         <v>0.6919813381530229</v>
       </c>
       <c r="N45" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2584,7 +2614,7 @@
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D46">
         <v>8</v>
@@ -2596,7 +2626,7 @@
         <v>100</v>
       </c>
       <c r="G46" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2614,7 +2644,7 @@
         <v>1.664348337943026</v>
       </c>
       <c r="N46" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2625,7 +2655,7 @@
         <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D47">
         <v>8</v>
@@ -2637,7 +2667,7 @@
         <v>100</v>
       </c>
       <c r="G47" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2658,7 +2688,7 @@
         <v>0.6637042234937611</v>
       </c>
       <c r="N47" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2669,7 +2699,7 @@
         <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D48">
         <v>8</v>
@@ -2681,7 +2711,7 @@
         <v>100</v>
       </c>
       <c r="G48" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2702,7 +2732,7 @@
         <v>0.4953839182853699</v>
       </c>
       <c r="N48" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2713,7 +2743,7 @@
         <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D49">
         <v>8</v>
@@ -2725,7 +2755,7 @@
         <v>100</v>
       </c>
       <c r="G49" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2746,7 +2776,7 @@
         <v>0.8256415128707886</v>
       </c>
       <c r="N49" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2757,7 +2787,7 @@
         <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2784,7 +2814,7 @@
         <v>0.4867032170295715</v>
       </c>
       <c r="N50" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2795,7 +2825,7 @@
         <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2822,7 +2852,7 @@
         <v>0.475677102804184</v>
       </c>
       <c r="N51" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2833,7 +2863,7 @@
         <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2860,7 +2890,7 @@
         <v>0.4924018383026123</v>
       </c>
       <c r="N52" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2871,7 +2901,7 @@
         <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2898,7 +2928,7 @@
         <v>0.4637706279754639</v>
       </c>
       <c r="N53" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2909,7 +2939,7 @@
         <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2936,7 +2966,7 @@
         <v>0.4738454222679138</v>
       </c>
       <c r="N54" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2947,7 +2977,7 @@
         <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2974,7 +3004,7 @@
         <v>0.4912989139556885</v>
       </c>
       <c r="N55" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2985,7 +3015,7 @@
         <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3012,7 +3042,7 @@
         <v>0.4661184251308441</v>
       </c>
       <c r="N56" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3023,7 +3053,7 @@
         <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -3050,7 +3080,7 @@
         <v>0.4698392748832703</v>
       </c>
       <c r="N57" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3061,7 +3091,7 @@
         <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -3088,7 +3118,7 @@
         <v>0.8241565823554993</v>
       </c>
       <c r="N58" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3099,7 +3129,7 @@
         <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -3126,7 +3156,7 @@
         <v>0.7848275899887085</v>
       </c>
       <c r="N59" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3137,7 +3167,7 @@
         <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -3155,7 +3185,7 @@
         <v>0.471043460239115</v>
       </c>
       <c r="N60" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3166,37 +3196,34 @@
         <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D61">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <v>3</v>
       </c>
-      <c r="F61">
-        <v>30</v>
-      </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="J61">
-        <v>1.369324326515198</v>
+        <v>1.379218339920044</v>
       </c>
       <c r="K61">
-        <v>1.58485734462738</v>
+        <v>2.12820816040039</v>
       </c>
       <c r="L61">
-        <v>0.6471161842346191</v>
+        <v>1.576656341552734</v>
       </c>
       <c r="M61">
-        <v>0.6471161842346191</v>
+        <v>1.576656341552734</v>
       </c>
       <c r="N61" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3207,37 +3234,34 @@
         <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D62">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E62">
         <v>3</v>
       </c>
-      <c r="F62">
-        <v>50</v>
-      </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="J62">
-        <v>1.405500769615173</v>
+        <v>1.356328010559082</v>
       </c>
       <c r="K62">
-        <v>1.511763334274292</v>
+        <v>1.953316330909729</v>
       </c>
       <c r="L62">
-        <v>0.6225002408027649</v>
+        <v>1.425268888473511</v>
       </c>
       <c r="M62">
-        <v>0.6225002408027649</v>
+        <v>1.425268888473511</v>
       </c>
       <c r="N62" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3248,37 +3272,34 @@
         <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D63">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>3</v>
-      </c>
-      <c r="F63">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="J63">
-        <v>1.392964839935303</v>
+        <v>1.218623042106628</v>
       </c>
       <c r="K63">
-        <v>1.474447011947632</v>
+        <v>1.931608915328979</v>
       </c>
       <c r="L63">
-        <v>0.5971564054489136</v>
+        <v>1.40399432182312</v>
       </c>
       <c r="M63">
-        <v>0.5971564054489136</v>
+        <v>1.40399432182312</v>
       </c>
       <c r="N63" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3289,37 +3310,34 @@
         <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D64">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>3</v>
-      </c>
-      <c r="F64">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="J64">
-        <v>1.412371277809143</v>
+        <v>1.818891525268555</v>
       </c>
       <c r="K64">
-        <v>1.479416847229004</v>
+        <v>2.689780950546265</v>
       </c>
       <c r="L64">
-        <v>0.5784268975257874</v>
+        <v>2.058792591094971</v>
       </c>
       <c r="M64">
-        <v>0.5784268975257874</v>
+        <v>2.058792591094971</v>
       </c>
       <c r="N64" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3330,37 +3348,34 @@
         <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D65">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>3</v>
-      </c>
-      <c r="F65">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="J65">
-        <v>1.280858159065247</v>
+        <v>1.861822128295898</v>
       </c>
       <c r="K65">
-        <v>1.571866273880005</v>
+        <v>2.64080286026001</v>
       </c>
       <c r="L65">
-        <v>0.5715242624282837</v>
+        <v>2.015515565872192</v>
       </c>
       <c r="M65">
-        <v>0.5715242624282837</v>
+        <v>2.015515565872192</v>
       </c>
       <c r="N65" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3371,37 +3386,28 @@
         <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <v>3</v>
-      </c>
-      <c r="F66">
-        <v>50</v>
-      </c>
-      <c r="H66">
         <v>2</v>
       </c>
-      <c r="I66">
-        <v>50000</v>
-      </c>
       <c r="J66">
-        <v>1.381091356277466</v>
+        <v>0.460309834240309</v>
       </c>
       <c r="K66">
-        <v>1.577436804771423</v>
+        <v>0.7486888345094803</v>
       </c>
       <c r="L66">
-        <v>0.5808306336402893</v>
+        <v>0.2712954899951439</v>
       </c>
       <c r="M66">
-        <v>0.5808306336402893</v>
+        <v>0.4650816831083652</v>
       </c>
       <c r="N66" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3412,37 +3418,37 @@
         <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D67">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E67">
         <v>3</v>
       </c>
       <c r="F67">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="J67">
-        <v>1.424986124038696</v>
+        <v>1.369324326515198</v>
       </c>
       <c r="K67">
-        <v>1.523117899894714</v>
+        <v>1.58485734462738</v>
       </c>
       <c r="L67">
-        <v>0.5889738798141479</v>
+        <v>0.6471161842346191</v>
       </c>
       <c r="M67">
-        <v>0.5889738798141479</v>
+        <v>0.6471161842346191</v>
       </c>
       <c r="N67" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3453,37 +3459,37 @@
         <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E68">
         <v>3</v>
       </c>
       <c r="F68">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="J68">
-        <v>1.425348401069641</v>
+        <v>1.405500769615173</v>
       </c>
       <c r="K68">
-        <v>1.526179552078247</v>
+        <v>1.511763334274292</v>
       </c>
       <c r="L68">
-        <v>0.5742737054824829</v>
+        <v>0.6225002408027649</v>
       </c>
       <c r="M68">
-        <v>0.5742737054824829</v>
+        <v>0.6225002408027649</v>
       </c>
       <c r="N68" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3494,22 +3500,346 @@
         <v>80</v>
       </c>
       <c r="C69" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>70</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>60000</v>
+      </c>
+      <c r="J69">
+        <v>1.392964839935303</v>
+      </c>
+      <c r="K69">
+        <v>1.474447011947632</v>
+      </c>
+      <c r="L69">
+        <v>0.5971564054489136</v>
+      </c>
+      <c r="M69">
+        <v>0.5971564054489136</v>
+      </c>
+      <c r="N69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="1">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70">
+        <v>7</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>100</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <v>80000</v>
+      </c>
+      <c r="J70">
+        <v>1.412371277809143</v>
+      </c>
+      <c r="K70">
+        <v>1.479416847229004</v>
+      </c>
+      <c r="L70">
+        <v>0.5784268975257874</v>
+      </c>
+      <c r="M70">
+        <v>0.5784268975257874</v>
+      </c>
+      <c r="N70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="1">
+        <v>21</v>
+      </c>
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71">
+        <v>8</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>30</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>50000</v>
+      </c>
+      <c r="J71">
+        <v>1.280858159065247</v>
+      </c>
+      <c r="K71">
+        <v>1.571866273880005</v>
+      </c>
+      <c r="L71">
+        <v>0.5715242624282837</v>
+      </c>
+      <c r="M71">
+        <v>0.5715242624282837</v>
+      </c>
+      <c r="N71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="1">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72">
+        <v>8</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>50</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>50000</v>
+      </c>
+      <c r="J72">
+        <v>1.381091356277466</v>
+      </c>
+      <c r="K72">
+        <v>1.577436804771423</v>
+      </c>
+      <c r="L72">
+        <v>0.5808306336402893</v>
+      </c>
+      <c r="M72">
+        <v>0.5808306336402893</v>
+      </c>
+      <c r="N72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="1">
+        <v>23</v>
+      </c>
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73">
+        <v>8</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>70</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>60000</v>
+      </c>
+      <c r="J73">
+        <v>1.424986124038696</v>
+      </c>
+      <c r="K73">
+        <v>1.523117899894714</v>
+      </c>
+      <c r="L73">
+        <v>0.5889738798141479</v>
+      </c>
+      <c r="M73">
+        <v>0.5889738798141479</v>
+      </c>
+      <c r="N73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="1">
+        <v>24</v>
+      </c>
+      <c r="B74" t="s">
         <v>85</v>
       </c>
-      <c r="J69">
+      <c r="C74" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74">
+        <v>8</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>100</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
+        <v>80000</v>
+      </c>
+      <c r="J74">
+        <v>1.425348401069641</v>
+      </c>
+      <c r="K74">
+        <v>1.526179552078247</v>
+      </c>
+      <c r="L74">
+        <v>0.5742737054824829</v>
+      </c>
+      <c r="M74">
+        <v>0.5742737054824829</v>
+      </c>
+      <c r="N74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="1">
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="J75">
         <v>1.233824349729843</v>
       </c>
-      <c r="K69">
+      <c r="K75">
         <v>1.357822380127588</v>
       </c>
-      <c r="L69">
+      <c r="L75">
         <v>0.7645135423199171</v>
       </c>
-      <c r="M69">
+      <c r="M75">
         <v>0.8625358425384447</v>
       </c>
-      <c r="N69" t="s">
-        <v>96</v>
+      <c r="N75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="1">
+        <v>26</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>3.126886912605822</v>
+      </c>
+      <c r="K76">
+        <v>3.329463433960293</v>
+      </c>
+      <c r="L76">
+        <v>2.367208924018711</v>
+      </c>
+      <c r="M76">
+        <v>2.558613191546635</v>
+      </c>
+      <c r="N76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="1">
+        <v>27</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="K77">
+        <v>0.7071548871534311</v>
+      </c>
+      <c r="M77">
+        <v>0.5081766289410362</v>
+      </c>
+      <c r="N77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="1">
+        <v>28</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" t="s">
+        <v>94</v>
+      </c>
+      <c r="K78">
+        <v>0.6688095868566116</v>
+      </c>
+      <c r="M78">
+        <v>0.4229790817339437</v>
+      </c>
+      <c r="N78" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/results/results_full.xlsx
+++ b/results/results_full.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -55,6 +55,78 @@
     <t>task</t>
   </si>
   <si>
+    <t>MLP6D030FA</t>
+  </si>
+  <si>
+    <t>MLP6D030FC1</t>
+  </si>
+  <si>
+    <t>MLP6D030FC2</t>
+  </si>
+  <si>
+    <t>MLP6D030FD</t>
+  </si>
+  <si>
+    <t>MLP6D030FB1</t>
+  </si>
+  <si>
+    <t>MLP6D030FB2</t>
+  </si>
+  <si>
+    <t>MLP6D050FA</t>
+  </si>
+  <si>
+    <t>MLP6D050FC1</t>
+  </si>
+  <si>
+    <t>MLP6D050FC2</t>
+  </si>
+  <si>
+    <t>MLP6D050FD</t>
+  </si>
+  <si>
+    <t>MLP6D050FB1</t>
+  </si>
+  <si>
+    <t>MLP6D050FB2</t>
+  </si>
+  <si>
+    <t>MLP6D070FA</t>
+  </si>
+  <si>
+    <t>MLP6D070FC1</t>
+  </si>
+  <si>
+    <t>MLP6D070FC2</t>
+  </si>
+  <si>
+    <t>MLP6D070FD</t>
+  </si>
+  <si>
+    <t>MLP6D070FB1</t>
+  </si>
+  <si>
+    <t>MLP6D070FB2</t>
+  </si>
+  <si>
+    <t>MLP6D0100FA</t>
+  </si>
+  <si>
+    <t>MLP6D0100FC1</t>
+  </si>
+  <si>
+    <t>MLP6D0100FC2</t>
+  </si>
+  <si>
+    <t>MLP6D0100FD</t>
+  </si>
+  <si>
+    <t>MLP6D0100FB1</t>
+  </si>
+  <si>
+    <t>MLP6D0100FB2</t>
+  </si>
+  <si>
     <t>MLP7D030FA</t>
   </si>
   <si>
@@ -248,6 +320,30 @@
   </si>
   <si>
     <t>RF2</t>
+  </si>
+  <si>
+    <t>MLP6D030P0</t>
+  </si>
+  <si>
+    <t>MLP6D050P0</t>
+  </si>
+  <si>
+    <t>MLP6D070P0</t>
+  </si>
+  <si>
+    <t>MLP6D0100P0</t>
+  </si>
+  <si>
+    <t>MLP6D130P0</t>
+  </si>
+  <si>
+    <t>MLP6D150P0</t>
+  </si>
+  <si>
+    <t>MLP6D170P0</t>
+  </si>
+  <si>
+    <t>MLP6D1100P0</t>
   </si>
   <si>
     <t>MLP7D030P0</t>
@@ -692,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,10 +843,10 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -759,25 +855,25 @@
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.00438495730581</v>
+        <v>3.230053096731152</v>
       </c>
       <c r="K2">
-        <v>10.38203207073011</v>
+        <v>3.251677879309113</v>
       </c>
       <c r="L2">
-        <v>6.229437798360603</v>
+        <v>2.191071891219901</v>
       </c>
       <c r="M2">
-        <v>7.156459310618192</v>
+        <v>2.295948141760763</v>
       </c>
       <c r="N2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -788,10 +884,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -800,25 +896,25 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.024213017200579</v>
+        <v>0.7357715381433263</v>
       </c>
       <c r="K3">
-        <v>1.088744493830769</v>
+        <v>0.8669946263120136</v>
       </c>
       <c r="L3">
-        <v>0.7320699560549179</v>
+        <v>0.4878437061189052</v>
       </c>
       <c r="M3">
-        <v>0.7690979236193421</v>
+        <v>0.5930858485938422</v>
       </c>
       <c r="N3" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -829,10 +925,10 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -841,25 +937,25 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.544768190940791</v>
+        <v>1.559732172237704</v>
       </c>
       <c r="K4">
-        <v>2.448388180642767</v>
+        <v>1.51578419809028</v>
       </c>
       <c r="L4">
-        <v>1.987230862870438</v>
+        <v>1.137315122409585</v>
       </c>
       <c r="M4">
-        <v>1.939582945501945</v>
+        <v>1.150025090061045</v>
       </c>
       <c r="N4" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -870,10 +966,10 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -882,28 +978,28 @@
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J5">
-        <v>1.159082154418196</v>
+        <v>0.8830471775459149</v>
       </c>
       <c r="K5">
-        <v>1.15848033671324</v>
+        <v>0.9898385168982784</v>
       </c>
       <c r="L5">
-        <v>0.7279445011687906</v>
+        <v>0.5447231603314701</v>
       </c>
       <c r="M5">
-        <v>0.7466168809686057</v>
+        <v>0.6393130000067263</v>
       </c>
       <c r="N5" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -914,10 +1010,10 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -926,7 +1022,7 @@
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -935,19 +1031,19 @@
         <v>10000</v>
       </c>
       <c r="J6">
-        <v>0.5641677379608154</v>
+        <v>0.5381652116775513</v>
       </c>
       <c r="K6">
-        <v>0.7866249084472656</v>
+        <v>0.7479766607284546</v>
       </c>
       <c r="L6">
-        <v>0.3388946056365967</v>
+        <v>0.3178208768367767</v>
       </c>
       <c r="M6">
-        <v>0.4874206483364105</v>
+        <v>0.4812776446342468</v>
       </c>
       <c r="N6" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -958,10 +1054,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -970,7 +1066,7 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -979,19 +1075,19 @@
         <v>40000</v>
       </c>
       <c r="J7">
-        <v>1.226793766021728</v>
+        <v>1.024537563323975</v>
       </c>
       <c r="K7">
-        <v>1.124013423919678</v>
+        <v>1.116070747375489</v>
       </c>
       <c r="L7">
-        <v>0.8919517397880554</v>
+        <v>0.6652389764785767</v>
       </c>
       <c r="M7">
-        <v>0.8031153678894043</v>
+        <v>0.7414291501045227</v>
       </c>
       <c r="N7" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1002,10 +1098,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -1014,25 +1110,25 @@
         <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.742085295754013</v>
+        <v>3.356416513863075</v>
       </c>
       <c r="K8">
-        <v>7.005193112891305</v>
+        <v>3.352946416188861</v>
       </c>
       <c r="L8">
-        <v>5.508570743702134</v>
+        <v>2.247526177251049</v>
       </c>
       <c r="M8">
-        <v>5.306436106149636</v>
+        <v>2.340891752810381</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1043,10 +1139,10 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -1055,25 +1151,25 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.073110079746259</v>
+        <v>0.746921481759611</v>
       </c>
       <c r="K9">
-        <v>1.524892736118029</v>
+        <v>1.183868373303552</v>
       </c>
       <c r="L9">
-        <v>0.760928391182911</v>
+        <v>0.491420573083399</v>
       </c>
       <c r="M9">
-        <v>0.8332226603483276</v>
+        <v>0.6147918977557774</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1084,10 +1180,10 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -1096,25 +1192,25 @@
         <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2.39563593848303</v>
+        <v>1.536848431730197</v>
       </c>
       <c r="K10">
-        <v>2.39395333352028</v>
+        <v>1.510969920948903</v>
       </c>
       <c r="L10">
-        <v>1.80416292422677</v>
+        <v>1.094783689359843</v>
       </c>
       <c r="M10">
-        <v>1.806866226519419</v>
+        <v>1.118179583975027</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1125,10 +1221,10 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -1137,28 +1233,28 @@
         <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J11">
-        <v>1.274157232410373</v>
+        <v>0.8543376606714996</v>
       </c>
       <c r="K11">
-        <v>1.144000486287242</v>
+        <v>0.9430992053162346</v>
       </c>
       <c r="L11">
-        <v>0.8368238400344931</v>
+        <v>0.5500806632490095</v>
       </c>
       <c r="M11">
-        <v>0.7557077598964967</v>
+        <v>0.6204537620812471</v>
       </c>
       <c r="N11" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1169,10 +1265,10 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -1181,7 +1277,7 @@
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1190,19 +1286,19 @@
         <v>10000</v>
       </c>
       <c r="J12">
-        <v>0.5582820773124695</v>
+        <v>0.5408275723457336</v>
       </c>
       <c r="K12">
-        <v>0.7796034812927246</v>
+        <v>0.7603434920310974</v>
       </c>
       <c r="L12">
-        <v>0.3302969038486481</v>
+        <v>0.3185117542743683</v>
       </c>
       <c r="M12">
-        <v>0.4906741976737976</v>
+        <v>0.4907989501953125</v>
       </c>
       <c r="N12" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1213,10 +1309,10 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -1225,7 +1321,7 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1234,19 +1330,19 @@
         <v>40000</v>
       </c>
       <c r="J13">
-        <v>1.409807443618774</v>
+        <v>0.9555044174194336</v>
       </c>
       <c r="K13">
-        <v>1.280019998550415</v>
+        <v>1.03927481174469</v>
       </c>
       <c r="L13">
-        <v>1.020635366439819</v>
+        <v>0.6144633889198303</v>
       </c>
       <c r="M13">
-        <v>0.8993344306945801</v>
+        <v>0.7006610631942749</v>
       </c>
       <c r="N13" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1257,10 +1353,10 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -1269,25 +1365,25 @@
         <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.762072914433613</v>
+        <v>3.48095955264439</v>
       </c>
       <c r="K14">
-        <v>7.156006714489902</v>
+        <v>3.48770683535788</v>
       </c>
       <c r="L14">
-        <v>5.438984149459308</v>
+        <v>2.383105221291136</v>
       </c>
       <c r="M14">
-        <v>5.243360452543156</v>
+        <v>2.49624872574199</v>
       </c>
       <c r="N14" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1298,10 +1394,10 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -1310,25 +1406,25 @@
         <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.075192081739718</v>
+        <v>0.7416674017678698</v>
       </c>
       <c r="K15">
-        <v>1.067863340038893</v>
+        <v>0.9160327630852978</v>
       </c>
       <c r="L15">
-        <v>0.7691299407342849</v>
+        <v>0.4974054410864065</v>
       </c>
       <c r="M15">
-        <v>0.7812450732794299</v>
+        <v>0.6432635509771382</v>
       </c>
       <c r="N15" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1339,10 +1435,10 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -1351,25 +1447,25 @@
         <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2.489847703058245</v>
+        <v>1.693243174746808</v>
       </c>
       <c r="K16">
-        <v>2.408389040725606</v>
+        <v>1.613275557717597</v>
       </c>
       <c r="L16">
-        <v>1.895860299762089</v>
+        <v>1.201532556516386</v>
       </c>
       <c r="M16">
-        <v>1.818543136674192</v>
+        <v>1.193838636338288</v>
       </c>
       <c r="N16" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1380,10 +1476,10 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -1392,28 +1488,28 @@
         <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J17">
-        <v>1.202933038419213</v>
+        <v>0.8950830849704493</v>
       </c>
       <c r="K17">
-        <v>1.073148959577262</v>
+        <v>1.019830553541692</v>
       </c>
       <c r="L17">
-        <v>0.7657352502530212</v>
+        <v>0.5597591552662348</v>
       </c>
       <c r="M17">
-        <v>0.7008879307590117</v>
+        <v>0.6572426164878598</v>
       </c>
       <c r="N17" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1424,10 +1520,10 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -1436,7 +1532,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1445,19 +1541,19 @@
         <v>10000</v>
       </c>
       <c r="J18">
-        <v>0.5569562911987305</v>
+        <v>0.5368771553039551</v>
       </c>
       <c r="K18">
-        <v>0.7641125917434692</v>
+        <v>0.7703651189804077</v>
       </c>
       <c r="L18">
-        <v>0.3302320837974548</v>
+        <v>0.3148569166660309</v>
       </c>
       <c r="M18">
-        <v>0.492600679397583</v>
+        <v>0.4907381534576416</v>
       </c>
       <c r="N18" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1468,10 +1564,10 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -1480,7 +1576,7 @@
         <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1489,19 +1585,19 @@
         <v>40000</v>
       </c>
       <c r="J19">
-        <v>1.416856050491333</v>
+        <v>1.00319504737854</v>
       </c>
       <c r="K19">
-        <v>1.290968298912048</v>
+        <v>1.063937664031982</v>
       </c>
       <c r="L19">
-        <v>1.011521100997925</v>
+        <v>0.6619685888290405</v>
       </c>
       <c r="M19">
-        <v>0.9060245752334596</v>
+        <v>0.7322555780410767</v>
       </c>
       <c r="N19" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1512,10 +1608,10 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -1524,25 +1620,25 @@
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.94084420141916</v>
+        <v>3.440391036603643</v>
       </c>
       <c r="K20">
-        <v>13.01063059834415</v>
+        <v>3.455599419134786</v>
       </c>
       <c r="L20">
-        <v>7.970917459785642</v>
+        <v>2.336414165291853</v>
       </c>
       <c r="M20">
-        <v>9.169138302429401</v>
+        <v>2.452256112198325</v>
       </c>
       <c r="N20" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1553,10 +1649,10 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -1565,25 +1661,25 @@
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.9971738669133644</v>
+        <v>0.7616293540105548</v>
       </c>
       <c r="K21">
-        <v>0.9692713886289192</v>
+        <v>0.8837479659267456</v>
       </c>
       <c r="L21">
-        <v>0.7037051429335435</v>
+        <v>0.5137474106653229</v>
       </c>
       <c r="M21">
-        <v>0.7307312767841571</v>
+        <v>0.613399646638439</v>
       </c>
       <c r="N21" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1594,10 +1690,10 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -1606,25 +1702,25 @@
         <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2.33936487971967</v>
+        <v>1.589482722880817</v>
       </c>
       <c r="K22">
-        <v>2.080566549116424</v>
+        <v>1.578119774148944</v>
       </c>
       <c r="L22">
-        <v>1.774700128955684</v>
+        <v>1.108816312687882</v>
       </c>
       <c r="M22">
-        <v>1.61815399085998</v>
+        <v>1.151578385099606</v>
       </c>
       <c r="N22" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1635,10 +1731,10 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -1647,28 +1743,28 @@
         <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J23">
-        <v>1.175129163110965</v>
+        <v>0.9337954085797128</v>
       </c>
       <c r="K23">
-        <v>1.050160316509077</v>
+        <v>0.9928053957486102</v>
       </c>
       <c r="L23">
-        <v>0.7447468981295607</v>
+        <v>0.5864904769213417</v>
       </c>
       <c r="M23">
-        <v>0.6944530102657764</v>
+        <v>0.6506859929604474</v>
       </c>
       <c r="N23" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1679,10 +1775,10 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -1691,7 +1787,7 @@
         <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1700,19 +1796,19 @@
         <v>10000</v>
       </c>
       <c r="J24">
-        <v>0.5699505805969238</v>
+        <v>0.5315696001052856</v>
       </c>
       <c r="K24">
-        <v>0.7646061182022095</v>
+        <v>0.7807241082191467</v>
       </c>
       <c r="L24">
-        <v>0.341210275888443</v>
+        <v>0.3137877583503723</v>
       </c>
       <c r="M24">
-        <v>0.4953839182853699</v>
+        <v>0.5005717277526855</v>
       </c>
       <c r="N24" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1723,10 +1819,10 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>5</v>
@@ -1735,7 +1831,7 @@
         <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1744,19 +1840,19 @@
         <v>40000</v>
       </c>
       <c r="J25">
-        <v>1.345978498458862</v>
+        <v>1.034445405006409</v>
       </c>
       <c r="K25">
-        <v>1.161882996559143</v>
+        <v>1.090039730072022</v>
       </c>
       <c r="L25">
-        <v>0.9561001062393188</v>
+        <v>0.6942728757858276</v>
       </c>
       <c r="M25">
-        <v>0.8256415128707886</v>
+        <v>0.7572842836380005</v>
       </c>
       <c r="N25" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1767,10 +1863,10 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -1779,25 +1875,25 @@
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>4.076357498729776</v>
+        <v>10.00438495730581</v>
       </c>
       <c r="K26">
-        <v>4.020282028847351</v>
+        <v>10.38203207073011</v>
       </c>
       <c r="L26">
-        <v>2.859452403658219</v>
+        <v>6.229437798360602</v>
       </c>
       <c r="M26">
-        <v>2.94637327588741</v>
+        <v>7.156459310618192</v>
       </c>
       <c r="N26" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1808,10 +1904,10 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -1820,25 +1916,25 @@
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.9155739817374504</v>
+        <v>1.024213017200579</v>
       </c>
       <c r="K27">
-        <v>0.976151165743476</v>
+        <v>1.088744493830769</v>
       </c>
       <c r="L27">
-        <v>0.6350351691539158</v>
+        <v>0.7320699560549179</v>
       </c>
       <c r="M27">
-        <v>0.711501340255003</v>
+        <v>0.7690979236193421</v>
       </c>
       <c r="N27" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1849,10 +1945,10 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -1861,25 +1957,25 @@
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2.237444441309333</v>
+        <v>2.544768190940791</v>
       </c>
       <c r="K28">
-        <v>2.172132039603001</v>
+        <v>2.448388180642767</v>
       </c>
       <c r="L28">
-        <v>1.683241308867986</v>
+        <v>1.987230862870438</v>
       </c>
       <c r="M28">
-        <v>1.621275420525324</v>
+        <v>1.939582945501945</v>
       </c>
       <c r="N28" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1890,10 +1986,10 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -1902,28 +1998,28 @@
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J29">
-        <v>1.062405375416964</v>
+        <v>0.965435685540351</v>
       </c>
       <c r="K29">
-        <v>0.9881543907887969</v>
+        <v>0.9764055954591315</v>
       </c>
       <c r="L29">
-        <v>0.6596075763026465</v>
+        <v>0.6128766002774866</v>
       </c>
       <c r="M29">
-        <v>0.6597517434385272</v>
+        <v>0.638715077926862</v>
       </c>
       <c r="N29" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1934,10 +2030,10 @@
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -1946,7 +2042,7 @@
         <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1967,7 +2063,7 @@
         <v>0.4874206483364105</v>
       </c>
       <c r="N30" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1978,10 +2074,10 @@
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -1990,7 +2086,7 @@
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2011,7 +2107,7 @@
         <v>0.8031153678894043</v>
       </c>
       <c r="N31" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2022,10 +2118,10 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>5</v>
@@ -2034,25 +2130,25 @@
         <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>5.338728458127044</v>
+        <v>8.742085295754011</v>
       </c>
       <c r="K32">
-        <v>4.849818498222811</v>
+        <v>7.005193112891305</v>
       </c>
       <c r="L32">
-        <v>3.612886101434982</v>
+        <v>5.508570743702134</v>
       </c>
       <c r="M32">
-        <v>3.706538223720009</v>
+        <v>5.306436106149635</v>
       </c>
       <c r="N32" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2063,10 +2159,10 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>5</v>
@@ -2075,25 +2171,25 @@
         <v>50</v>
       </c>
       <c r="G33" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.9241121725086832</v>
+        <v>1.073110079746259</v>
       </c>
       <c r="K33">
-        <v>1.022384170889355</v>
+        <v>1.524892736118029</v>
       </c>
       <c r="L33">
-        <v>0.6391465526727822</v>
+        <v>0.760928391182911</v>
       </c>
       <c r="M33">
-        <v>0.7169104026314912</v>
+        <v>0.8332226603483276</v>
       </c>
       <c r="N33" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2104,10 +2200,10 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>5</v>
@@ -2116,25 +2212,25 @@
         <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2.214805897512409</v>
+        <v>2.39563593848303</v>
       </c>
       <c r="K34">
-        <v>2.114792820896836</v>
+        <v>2.39395333352028</v>
       </c>
       <c r="L34">
-        <v>1.675128446453048</v>
+        <v>1.80416292422677</v>
       </c>
       <c r="M34">
-        <v>1.593907146675113</v>
+        <v>1.806866226519419</v>
       </c>
       <c r="N34" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2145,10 +2241,10 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>5</v>
@@ -2157,28 +2253,28 @@
         <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J35">
-        <v>1.088334976566296</v>
+        <v>1.142426225620212</v>
       </c>
       <c r="K35">
-        <v>1.040653311078247</v>
+        <v>1.237043036318914</v>
       </c>
       <c r="L35">
-        <v>0.6857405132689588</v>
+        <v>0.7248164904248915</v>
       </c>
       <c r="M35">
-        <v>0.6834561486871692</v>
+        <v>0.8108524494146273</v>
       </c>
       <c r="N35" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2189,10 +2285,10 @@
         <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -2201,7 +2297,7 @@
         <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2222,7 +2318,7 @@
         <v>0.4906741976737976</v>
       </c>
       <c r="N36" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2233,10 +2329,10 @@
         <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37">
         <v>5</v>
@@ -2245,7 +2341,7 @@
         <v>50</v>
       </c>
       <c r="G37" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2266,7 +2362,7 @@
         <v>0.8993344306945801</v>
       </c>
       <c r="N37" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2277,10 +2373,10 @@
         <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -2289,25 +2385,25 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>4.384159545696203</v>
+        <v>8.762072914433613</v>
       </c>
       <c r="K38">
-        <v>4.162281584407037</v>
+        <v>7.156006714489902</v>
       </c>
       <c r="L38">
-        <v>3.181135376681208</v>
+        <v>5.438984149459307</v>
       </c>
       <c r="M38">
-        <v>3.258335834263824</v>
+        <v>5.243360452543156</v>
       </c>
       <c r="N38" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2318,10 +2414,10 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39">
         <v>5</v>
@@ -2330,25 +2426,25 @@
         <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.9120775868373248</v>
+        <v>1.075192081739718</v>
       </c>
       <c r="K39">
-        <v>1.011216287969775</v>
+        <v>1.067863340038893</v>
       </c>
       <c r="L39">
-        <v>0.6296546866210083</v>
+        <v>0.7691299407342849</v>
       </c>
       <c r="M39">
-        <v>0.6927480318783719</v>
+        <v>0.7812450732794299</v>
       </c>
       <c r="N39" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2359,10 +2455,10 @@
         <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -2371,25 +2467,25 @@
         <v>70</v>
       </c>
       <c r="G40" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>2.237837498323704</v>
+        <v>2.489847703058245</v>
       </c>
       <c r="K40">
-        <v>2.168358710752662</v>
+        <v>2.408389040725606</v>
       </c>
       <c r="L40">
-        <v>1.65974910282075</v>
+        <v>1.895860299762089</v>
       </c>
       <c r="M40">
-        <v>1.623729725666519</v>
+        <v>1.818543136674192</v>
       </c>
       <c r="N40" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2400,10 +2496,10 @@
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -2412,28 +2508,28 @@
         <v>70</v>
       </c>
       <c r="G41" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J41">
-        <v>1.074766930874451</v>
+        <v>1.116747984929049</v>
       </c>
       <c r="K41">
-        <v>0.9938047168727726</v>
+        <v>1.067527501823764</v>
       </c>
       <c r="L41">
-        <v>0.6831228271900771</v>
+        <v>0.7247743352267628</v>
       </c>
       <c r="M41">
-        <v>0.6781311475420246</v>
+        <v>0.7096758197829593</v>
       </c>
       <c r="N41" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2444,10 +2540,10 @@
         <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42">
         <v>5</v>
@@ -2456,7 +2552,7 @@
         <v>70</v>
       </c>
       <c r="G42" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2477,7 +2573,7 @@
         <v>0.492600679397583</v>
       </c>
       <c r="N42" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2488,10 +2584,10 @@
         <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43">
         <v>5</v>
@@ -2500,7 +2596,7 @@
         <v>70</v>
       </c>
       <c r="G43" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2521,7 +2617,7 @@
         <v>0.9060245752334596</v>
       </c>
       <c r="N43" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2532,10 +2628,10 @@
         <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -2544,25 +2640,25 @@
         <v>100</v>
       </c>
       <c r="G44" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>4.506283403108441</v>
+        <v>12.94084420141916</v>
       </c>
       <c r="K44">
-        <v>4.328067808803191</v>
+        <v>13.01063059834415</v>
       </c>
       <c r="L44">
-        <v>3.212188387619716</v>
+        <v>7.970917459785643</v>
       </c>
       <c r="M44">
-        <v>3.312440959487002</v>
+        <v>9.169138302429399</v>
       </c>
       <c r="N44" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2573,10 +2669,10 @@
         <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -2585,25 +2681,25 @@
         <v>100</v>
       </c>
       <c r="G45" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.9610679781078868</v>
+        <v>0.9971738669133645</v>
       </c>
       <c r="K45">
-        <v>0.9746878827125224</v>
+        <v>0.9692713886289193</v>
       </c>
       <c r="L45">
-        <v>0.6644443934879499</v>
+        <v>0.7037051429335435</v>
       </c>
       <c r="M45">
-        <v>0.6919813381530229</v>
+        <v>0.7307312767841569</v>
       </c>
       <c r="N45" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2614,10 +2710,10 @@
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -2626,25 +2722,25 @@
         <v>100</v>
       </c>
       <c r="G46" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>2.298198852714227</v>
+        <v>2.33936487971967</v>
       </c>
       <c r="K46">
-        <v>2.188262558105474</v>
+        <v>2.080566549116424</v>
       </c>
       <c r="L46">
-        <v>1.727794571164431</v>
+        <v>1.774700128955684</v>
       </c>
       <c r="M46">
-        <v>1.664348337943026</v>
+        <v>1.61815399085998</v>
       </c>
       <c r="N46" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2655,10 +2751,10 @@
         <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47">
         <v>5</v>
@@ -2667,28 +2763,28 @@
         <v>100</v>
       </c>
       <c r="G47" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J47">
-        <v>1.111590758040682</v>
+        <v>1.021268349844489</v>
       </c>
       <c r="K47">
-        <v>0.9981345886485642</v>
+        <v>0.9910671076743854</v>
       </c>
       <c r="L47">
-        <v>0.6881812032075636</v>
+        <v>0.6401432394833253</v>
       </c>
       <c r="M47">
-        <v>0.6637042234937611</v>
+        <v>0.6651971089320146</v>
       </c>
       <c r="N47" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2699,10 +2795,10 @@
         <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -2711,7 +2807,7 @@
         <v>100</v>
       </c>
       <c r="G48" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2732,7 +2828,7 @@
         <v>0.4953839182853699</v>
       </c>
       <c r="N48" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2743,10 +2839,10 @@
         <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49">
         <v>5</v>
@@ -2755,7 +2851,7 @@
         <v>100</v>
       </c>
       <c r="G49" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2776,1070 +2872,2418 @@
         <v>0.8256415128707886</v>
       </c>
       <c r="N49" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
+        <v>127</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50">
-        <v>10000</v>
-      </c>
       <c r="J50">
-        <v>0.502784788608551</v>
+        <v>4.076357498729775</v>
       </c>
       <c r="K50">
-        <v>0.7629355788230896</v>
+        <v>4.020282028847351</v>
       </c>
       <c r="L50">
-        <v>0.4867032170295715</v>
+        <v>2.859452403658219</v>
       </c>
       <c r="M50">
-        <v>0.4867032170295715</v>
+        <v>2.94637327588741</v>
       </c>
       <c r="N50" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>30</v>
+      </c>
+      <c r="G51" t="s">
+        <v>128</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>10000</v>
-      </c>
       <c r="J51">
-        <v>0.4920576214790344</v>
+        <v>0.9155739817374503</v>
       </c>
       <c r="K51">
-        <v>0.74643874168396</v>
+        <v>0.9761511657434759</v>
       </c>
       <c r="L51">
-        <v>0.475677102804184</v>
+        <v>0.6350351691539158</v>
       </c>
       <c r="M51">
-        <v>0.475677102804184</v>
+        <v>0.711501340255003</v>
       </c>
       <c r="N51" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>30</v>
+      </c>
+      <c r="G52" t="s">
+        <v>129</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52">
-        <v>10000</v>
-      </c>
       <c r="J52">
-        <v>0.6566911935806274</v>
+        <v>2.237444441309334</v>
       </c>
       <c r="K52">
-        <v>0.7833381891250609</v>
+        <v>2.172132039603001</v>
       </c>
       <c r="L52">
-        <v>0.4924018383026123</v>
+        <v>1.683241308867986</v>
       </c>
       <c r="M52">
-        <v>0.4924018383026123</v>
+        <v>1.621275420525324</v>
       </c>
       <c r="N52" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>30</v>
+      </c>
+      <c r="G53" t="s">
+        <v>130</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="J53">
-        <v>0.6142827272415161</v>
+        <v>0.9639417952477556</v>
       </c>
       <c r="K53">
-        <v>0.7515823245048523</v>
+        <v>0.9539675969023416</v>
       </c>
       <c r="L53">
-        <v>0.4637706279754639</v>
+        <v>0.6057410330234996</v>
       </c>
       <c r="M53">
-        <v>0.4637706279754639</v>
+        <v>0.6434985639967958</v>
       </c>
       <c r="N53" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s">
+        <v>131</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>10000</v>
       </c>
       <c r="J54">
-        <v>0.6181010007858276</v>
+        <v>0.5370506048202515</v>
       </c>
       <c r="K54">
-        <v>0.7336056232452393</v>
+        <v>0.7871872782707214</v>
       </c>
       <c r="L54">
-        <v>0.4738454222679138</v>
+        <v>0.3153324425220489</v>
       </c>
       <c r="M54">
-        <v>0.4738454222679138</v>
+        <v>0.4957959055900574</v>
       </c>
       <c r="N54" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>30</v>
+      </c>
+      <c r="G55" t="s">
+        <v>132</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="J55">
-        <v>0.6610723733901978</v>
+        <v>1.138650298118591</v>
       </c>
       <c r="K55">
-        <v>0.7827129364013672</v>
+        <v>1.049564361572266</v>
       </c>
       <c r="L55">
-        <v>0.4912989139556885</v>
+        <v>0.8020964860916138</v>
       </c>
       <c r="M55">
-        <v>0.4912989139556885</v>
+        <v>0.7432044744491577</v>
       </c>
       <c r="N55" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>50</v>
+      </c>
+      <c r="G56" t="s">
+        <v>127</v>
       </c>
       <c r="H56">
-        <v>2</v>
-      </c>
-      <c r="I56">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>0.6720488667488098</v>
+        <v>5.338728458127044</v>
       </c>
       <c r="K56">
-        <v>0.7379122972488403</v>
+        <v>4.849818498222812</v>
       </c>
       <c r="L56">
-        <v>0.4661184251308441</v>
+        <v>3.612886101434982</v>
       </c>
       <c r="M56">
-        <v>0.4661184251308441</v>
+        <v>3.706538223720009</v>
       </c>
       <c r="N56" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>50</v>
+      </c>
+      <c r="G57" t="s">
+        <v>128</v>
       </c>
       <c r="H57">
-        <v>2</v>
-      </c>
-      <c r="I57">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>0.6325932741165161</v>
+        <v>0.9241121725086832</v>
       </c>
       <c r="K57">
-        <v>0.7514798045158386</v>
+        <v>1.022384170889355</v>
       </c>
       <c r="L57">
-        <v>0.4698392748832703</v>
+        <v>0.6391465526727822</v>
       </c>
       <c r="M57">
-        <v>0.4698392748832703</v>
+        <v>0.7169104026314912</v>
       </c>
       <c r="N57" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>50</v>
+      </c>
+      <c r="G58" t="s">
+        <v>129</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58">
-        <v>10000</v>
-      </c>
       <c r="J58">
-        <v>0.6911980509757996</v>
+        <v>2.214805897512409</v>
       </c>
       <c r="K58">
-        <v>1.32979416847229</v>
+        <v>2.114792820896836</v>
       </c>
       <c r="L58">
-        <v>0.8241565823554993</v>
+        <v>1.675128446453048</v>
       </c>
       <c r="M58">
-        <v>0.8241565823554993</v>
+        <v>1.593907146675113</v>
       </c>
       <c r="N58" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>50</v>
+      </c>
+      <c r="G59" t="s">
+        <v>130</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="J59">
-        <v>0.7621762752532959</v>
+        <v>1.011240787012776</v>
       </c>
       <c r="K59">
-        <v>1.278318524360657</v>
+        <v>0.9780723440856024</v>
       </c>
       <c r="L59">
-        <v>0.7848275899887085</v>
+        <v>0.6466262081700453</v>
       </c>
       <c r="M59">
-        <v>0.7848275899887085</v>
+        <v>0.664192995409754</v>
       </c>
       <c r="N59" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>50</v>
+      </c>
+      <c r="G60" t="s">
+        <v>131</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>10000</v>
       </c>
       <c r="J60">
-        <v>0.4524757705116624</v>
+        <v>0.5446426272392273</v>
       </c>
       <c r="K60">
-        <v>0.7646869400037543</v>
+        <v>0.769622802734375</v>
       </c>
       <c r="L60">
-        <v>0.2675646884543371</v>
+        <v>0.3139661848545074</v>
       </c>
       <c r="M60">
-        <v>0.471043460239115</v>
+        <v>0.4837273955345154</v>
       </c>
       <c r="N60" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>50</v>
+      </c>
+      <c r="G61" t="s">
+        <v>132</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="J61">
-        <v>1.379218339920044</v>
+        <v>1.177988290786743</v>
       </c>
       <c r="K61">
-        <v>2.12820816040039</v>
+        <v>1.086892485618591</v>
       </c>
       <c r="L61">
-        <v>1.576656341552734</v>
+        <v>0.8232604265213013</v>
       </c>
       <c r="M61">
-        <v>1.576656341552734</v>
+        <v>0.7897850871086121</v>
       </c>
       <c r="N61" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F62">
+        <v>70</v>
+      </c>
+      <c r="G62" t="s">
+        <v>127</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62">
-        <v>10000</v>
-      </c>
       <c r="J62">
-        <v>1.356328010559082</v>
+        <v>4.384159545696203</v>
       </c>
       <c r="K62">
-        <v>1.953316330909729</v>
+        <v>4.162281584407036</v>
       </c>
       <c r="L62">
-        <v>1.425268888473511</v>
+        <v>3.181135376681208</v>
       </c>
       <c r="M62">
-        <v>1.425268888473511</v>
+        <v>3.258335834263824</v>
       </c>
       <c r="N62" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="1">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>70</v>
+      </c>
+      <c r="G63" t="s">
+        <v>128</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
-      <c r="I63">
-        <v>10000</v>
-      </c>
       <c r="J63">
-        <v>1.218623042106628</v>
+        <v>0.9120775868373248</v>
       </c>
       <c r="K63">
-        <v>1.931608915328979</v>
+        <v>1.011216287969775</v>
       </c>
       <c r="L63">
-        <v>1.40399432182312</v>
+        <v>0.6296546866210083</v>
       </c>
       <c r="M63">
-        <v>1.40399432182312</v>
+        <v>0.6927480318783719</v>
       </c>
       <c r="N63" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>70</v>
+      </c>
+      <c r="G64" t="s">
+        <v>129</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
-      <c r="I64">
-        <v>10000</v>
-      </c>
       <c r="J64">
-        <v>1.818891525268555</v>
+        <v>2.237837498323704</v>
       </c>
       <c r="K64">
-        <v>2.689780950546265</v>
+        <v>2.168358710752662</v>
       </c>
       <c r="L64">
-        <v>2.058792591094971</v>
+        <v>1.65974910282075</v>
       </c>
       <c r="M64">
-        <v>2.058792591094971</v>
+        <v>1.623729725666519</v>
       </c>
       <c r="N64" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>70</v>
+      </c>
+      <c r="G65" t="s">
+        <v>130</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="J65">
-        <v>1.861822128295898</v>
+        <v>0.9199453574106908</v>
       </c>
       <c r="K65">
-        <v>2.64080286026001</v>
+        <v>0.8647311558958142</v>
       </c>
       <c r="L65">
-        <v>2.015515565872192</v>
+        <v>0.5790404175955709</v>
       </c>
       <c r="M65">
-        <v>2.015515565872192</v>
+        <v>0.5886237903005423</v>
       </c>
       <c r="N65" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>70</v>
+      </c>
+      <c r="G66" t="s">
+        <v>131</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>10000</v>
       </c>
       <c r="J66">
-        <v>0.460309834240309</v>
+        <v>0.5387784242630005</v>
       </c>
       <c r="K66">
-        <v>0.7486888345094803</v>
+        <v>0.7620759010314941</v>
       </c>
       <c r="L66">
-        <v>0.2712954899951439</v>
+        <v>0.3177195489406586</v>
       </c>
       <c r="M66">
-        <v>0.4650816831083652</v>
+        <v>0.4867942333221436</v>
       </c>
       <c r="N66" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D67">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F67">
-        <v>30</v>
+        <v>70</v>
+      </c>
+      <c r="G67" t="s">
+        <v>132</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="J67">
-        <v>1.369324326515198</v>
+        <v>1.151655912399292</v>
       </c>
       <c r="K67">
-        <v>1.58485734462738</v>
+        <v>1.022020936012268</v>
       </c>
       <c r="L67">
-        <v>0.6471161842346191</v>
+        <v>0.8027512431144714</v>
       </c>
       <c r="M67">
-        <v>0.6471161842346191</v>
+        <v>0.7465139627456665</v>
       </c>
       <c r="N67" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D68">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F68">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="G68" t="s">
+        <v>127</v>
       </c>
       <c r="H68">
-        <v>2</v>
-      </c>
-      <c r="I68">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>1.405500769615173</v>
+        <v>4.50628340310844</v>
       </c>
       <c r="K68">
-        <v>1.511763334274292</v>
+        <v>4.328067808803192</v>
       </c>
       <c r="L68">
-        <v>0.6225002408027649</v>
+        <v>3.212188387619715</v>
       </c>
       <c r="M68">
-        <v>0.6225002408027649</v>
+        <v>3.312440959487002</v>
       </c>
       <c r="N68" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="1">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D69">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F69">
-        <v>70</v>
+        <v>100</v>
+      </c>
+      <c r="G69" t="s">
+        <v>128</v>
       </c>
       <c r="H69">
-        <v>2</v>
-      </c>
-      <c r="I69">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>1.392964839935303</v>
+        <v>0.9610679781078867</v>
       </c>
       <c r="K69">
-        <v>1.474447011947632</v>
+        <v>0.9746878827125223</v>
       </c>
       <c r="L69">
-        <v>0.5971564054489136</v>
+        <v>0.66444439348795</v>
       </c>
       <c r="M69">
-        <v>0.5971564054489136</v>
+        <v>0.6919813381530229</v>
       </c>
       <c r="N69" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D70">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F70">
         <v>100</v>
       </c>
+      <c r="G70" t="s">
+        <v>129</v>
+      </c>
       <c r="H70">
-        <v>2</v>
-      </c>
-      <c r="I70">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>1.412371277809143</v>
+        <v>2.298198852714227</v>
       </c>
       <c r="K70">
-        <v>1.479416847229004</v>
+        <v>2.188262558105474</v>
       </c>
       <c r="L70">
-        <v>0.5784268975257874</v>
+        <v>1.727794571164431</v>
       </c>
       <c r="M70">
-        <v>0.5784268975257874</v>
+        <v>1.664348337943026</v>
       </c>
       <c r="N70" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="1">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D71">
         <v>8</v>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F71">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="G71" t="s">
+        <v>130</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="J71">
-        <v>1.280858159065247</v>
+        <v>0.9668715965344626</v>
       </c>
       <c r="K71">
-        <v>1.571866273880005</v>
+        <v>0.956736612861919</v>
       </c>
       <c r="L71">
-        <v>0.5715242624282837</v>
+        <v>0.6236448102566301</v>
       </c>
       <c r="M71">
-        <v>0.5715242624282837</v>
+        <v>0.6464679939289418</v>
       </c>
       <c r="N71" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D72">
         <v>8</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F72">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="G72" t="s">
+        <v>131</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="J72">
-        <v>1.381091356277466</v>
+        <v>0.5412641763687134</v>
       </c>
       <c r="K72">
-        <v>1.577436804771423</v>
+        <v>0.7596434354782104</v>
       </c>
       <c r="L72">
-        <v>0.5808306336402893</v>
+        <v>0.3173394203186035</v>
       </c>
       <c r="M72">
-        <v>0.5808306336402893</v>
+        <v>0.4832877218723297</v>
       </c>
       <c r="N72" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D73">
         <v>8</v>
       </c>
       <c r="E73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F73">
-        <v>70</v>
+        <v>100</v>
+      </c>
+      <c r="G73" t="s">
+        <v>132</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="J73">
-        <v>1.424986124038696</v>
+        <v>1.200245976448059</v>
       </c>
       <c r="K73">
-        <v>1.523117899894714</v>
+        <v>1.058049917221069</v>
       </c>
       <c r="L73">
-        <v>0.5889738798141479</v>
+        <v>0.8385913968086243</v>
       </c>
       <c r="M73">
-        <v>0.5889738798141479</v>
+        <v>0.7598562240600586</v>
       </c>
       <c r="N73" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B74" t="s">
         <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D74">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>3</v>
-      </c>
-      <c r="F74">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="J74">
-        <v>1.425348401069641</v>
+        <v>0.502784788608551</v>
       </c>
       <c r="K74">
-        <v>1.526179552078247</v>
+        <v>0.7629355788230896</v>
       </c>
       <c r="L74">
-        <v>0.5742737054824829</v>
+        <v>0.4867032170295715</v>
       </c>
       <c r="M74">
-        <v>0.5742737054824829</v>
+        <v>0.4867032170295715</v>
       </c>
       <c r="N74" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B75" t="s">
         <v>86</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>10000</v>
+      </c>
       <c r="J75">
-        <v>1.233824349729843</v>
+        <v>0.4920576214790344</v>
       </c>
       <c r="K75">
-        <v>1.357822380127588</v>
+        <v>0.74643874168396</v>
       </c>
       <c r="L75">
-        <v>0.7645135423199171</v>
+        <v>0.475677102804184</v>
       </c>
       <c r="M75">
-        <v>0.8625358425384447</v>
+        <v>0.475677102804184</v>
       </c>
       <c r="N75" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="1">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B76" t="s">
         <v>87</v>
       </c>
       <c r="C76" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>10000</v>
       </c>
       <c r="J76">
-        <v>3.126886912605822</v>
+        <v>0.6566911935806274</v>
       </c>
       <c r="K76">
-        <v>3.329463433960293</v>
+        <v>0.7833381891250609</v>
       </c>
       <c r="L76">
-        <v>2.367208924018711</v>
+        <v>0.4924018383026123</v>
       </c>
       <c r="M76">
-        <v>2.558613191546635</v>
+        <v>0.4924018383026123</v>
       </c>
       <c r="N76" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B77" t="s">
         <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>10000</v>
+      </c>
+      <c r="J77">
+        <v>0.6142827272415161</v>
       </c>
       <c r="K77">
-        <v>0.7071548871534311</v>
+        <v>0.7515823245048523</v>
+      </c>
+      <c r="L77">
+        <v>0.4637706279754639</v>
       </c>
       <c r="M77">
-        <v>0.5081766289410362</v>
+        <v>0.4637706279754639</v>
       </c>
       <c r="N77" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
         <v>89</v>
       </c>
       <c r="C78" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>10000</v>
+      </c>
+      <c r="J78">
+        <v>0.6181010007858276</v>
+      </c>
+      <c r="K78">
+        <v>0.7336056232452393</v>
+      </c>
+      <c r="L78">
+        <v>0.4738454222679138</v>
+      </c>
+      <c r="M78">
+        <v>0.4738454222679138</v>
+      </c>
+      <c r="N78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="1">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" t="s">
+        <v>122</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>10000</v>
+      </c>
+      <c r="J79">
+        <v>0.6610723733901978</v>
+      </c>
+      <c r="K79">
+        <v>0.7827129364013672</v>
+      </c>
+      <c r="L79">
+        <v>0.4912989139556885</v>
+      </c>
+      <c r="M79">
+        <v>0.4912989139556885</v>
+      </c>
+      <c r="N79" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="1">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
+      </c>
+      <c r="I80">
+        <v>10000</v>
+      </c>
+      <c r="J80">
+        <v>0.6720488667488098</v>
+      </c>
+      <c r="K80">
+        <v>0.7379122972488403</v>
+      </c>
+      <c r="L80">
+        <v>0.4661184251308441</v>
+      </c>
+      <c r="M80">
+        <v>0.4661184251308441</v>
+      </c>
+      <c r="N80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="1">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" t="s">
+        <v>122</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>10000</v>
+      </c>
+      <c r="J81">
+        <v>0.6325932741165161</v>
+      </c>
+      <c r="K81">
+        <v>0.7514798045158386</v>
+      </c>
+      <c r="L81">
+        <v>0.4698392748832703</v>
+      </c>
+      <c r="M81">
+        <v>0.4698392748832703</v>
+      </c>
+      <c r="N81" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="1">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" t="s">
+        <v>123</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>10000</v>
+      </c>
+      <c r="J82">
+        <v>0.6911980509757996</v>
+      </c>
+      <c r="K82">
+        <v>1.32979416847229</v>
+      </c>
+      <c r="L82">
+        <v>0.8241565823554993</v>
+      </c>
+      <c r="M82">
+        <v>0.8241565823554993</v>
+      </c>
+      <c r="N82" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="1">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
         <v>94</v>
       </c>
-      <c r="K78">
+      <c r="C83" t="s">
+        <v>124</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>10000</v>
+      </c>
+      <c r="J83">
+        <v>0.7621762752532959</v>
+      </c>
+      <c r="K83">
+        <v>1.278318524360657</v>
+      </c>
+      <c r="L83">
+        <v>0.7848275899887085</v>
+      </c>
+      <c r="M83">
+        <v>0.7848275899887085</v>
+      </c>
+      <c r="N83" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="1">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.4524757705116624</v>
+      </c>
+      <c r="K84">
+        <v>0.7646869400037543</v>
+      </c>
+      <c r="L84">
+        <v>0.2675646884543371</v>
+      </c>
+      <c r="M84">
+        <v>0.471043460239115</v>
+      </c>
+      <c r="N84" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="1">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" t="s">
+        <v>122</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>10000</v>
+      </c>
+      <c r="J85">
+        <v>1.379218339920044</v>
+      </c>
+      <c r="K85">
+        <v>2.12820816040039</v>
+      </c>
+      <c r="L85">
+        <v>1.576656341552734</v>
+      </c>
+      <c r="M85">
+        <v>1.576656341552734</v>
+      </c>
+      <c r="N85" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="1">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" t="s">
+        <v>122</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>10000</v>
+      </c>
+      <c r="J86">
+        <v>1.356328010559082</v>
+      </c>
+      <c r="K86">
+        <v>1.953316330909729</v>
+      </c>
+      <c r="L86">
+        <v>1.425268888473511</v>
+      </c>
+      <c r="M86">
+        <v>1.425268888473511</v>
+      </c>
+      <c r="N86" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="1">
+        <v>13</v>
+      </c>
+      <c r="B87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>10000</v>
+      </c>
+      <c r="J87">
+        <v>1.218623042106628</v>
+      </c>
+      <c r="K87">
+        <v>1.931608915328979</v>
+      </c>
+      <c r="L87">
+        <v>1.40399432182312</v>
+      </c>
+      <c r="M87">
+        <v>1.40399432182312</v>
+      </c>
+      <c r="N87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="1">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" t="s">
+        <v>123</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>10000</v>
+      </c>
+      <c r="J88">
+        <v>1.818891525268555</v>
+      </c>
+      <c r="K88">
+        <v>2.689780950546265</v>
+      </c>
+      <c r="L88">
+        <v>2.058792591094971</v>
+      </c>
+      <c r="M88">
+        <v>2.058792591094971</v>
+      </c>
+      <c r="N88" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="1">
+        <v>15</v>
+      </c>
+      <c r="B89" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" t="s">
+        <v>124</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>10000</v>
+      </c>
+      <c r="J89">
+        <v>1.861822128295898</v>
+      </c>
+      <c r="K89">
+        <v>2.64080286026001</v>
+      </c>
+      <c r="L89">
+        <v>2.015515565872192</v>
+      </c>
+      <c r="M89">
+        <v>2.015515565872192</v>
+      </c>
+      <c r="N89" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="1">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" t="s">
+        <v>125</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>0.460309834240309</v>
+      </c>
+      <c r="K90">
+        <v>0.7486888345094803</v>
+      </c>
+      <c r="L90">
+        <v>0.2712954899951439</v>
+      </c>
+      <c r="M90">
+        <v>0.4650816831083652</v>
+      </c>
+      <c r="N90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="1">
+        <v>17</v>
+      </c>
+      <c r="B91" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" t="s">
+        <v>122</v>
+      </c>
+      <c r="D91">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>30</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>10000</v>
+      </c>
+      <c r="J91">
+        <v>0.2105832099914551</v>
+      </c>
+      <c r="K91">
+        <v>0.2114661484956741</v>
+      </c>
+      <c r="L91">
+        <v>0.1283347606658936</v>
+      </c>
+      <c r="M91">
+        <v>0.1288321763277054</v>
+      </c>
+      <c r="N91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="1">
+        <v>18</v>
+      </c>
+      <c r="B92" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" t="s">
+        <v>122</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>50</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>20000</v>
+      </c>
+      <c r="J92">
+        <v>0.2000058442354203</v>
+      </c>
+      <c r="K92">
+        <v>0.2017096728086472</v>
+      </c>
+      <c r="L92">
+        <v>0.121207594871521</v>
+      </c>
+      <c r="M92">
+        <v>0.1223251223564148</v>
+      </c>
+      <c r="N92" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="1">
+        <v>19</v>
+      </c>
+      <c r="B93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>70</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>30000</v>
+      </c>
+      <c r="J93">
+        <v>0.1975597441196441</v>
+      </c>
+      <c r="K93">
+        <v>0.1998907178640366</v>
+      </c>
+      <c r="L93">
+        <v>0.1172986179590225</v>
+      </c>
+      <c r="M93">
+        <v>0.1185832843184471</v>
+      </c>
+      <c r="N93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="1">
+        <v>20</v>
+      </c>
+      <c r="B94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>100</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>40000</v>
+      </c>
+      <c r="J94">
+        <v>0.1982558071613312</v>
+      </c>
+      <c r="K94">
+        <v>0.2000072449445724</v>
+      </c>
+      <c r="L94">
+        <v>0.1172549277544021</v>
+      </c>
+      <c r="M94">
+        <v>0.1180950850248337</v>
+      </c>
+      <c r="N94" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="1">
+        <v>21</v>
+      </c>
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>30</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>10000</v>
+      </c>
+      <c r="J95">
+        <v>0.2866075038909912</v>
+      </c>
+      <c r="K95">
+        <v>0.2878729701042175</v>
+      </c>
+      <c r="L95">
+        <v>0.1839323937892914</v>
+      </c>
+      <c r="M95">
+        <v>0.1848417073488235</v>
+      </c>
+      <c r="N95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="1">
+        <v>22</v>
+      </c>
+      <c r="B96" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" t="s">
+        <v>122</v>
+      </c>
+      <c r="D96">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>50</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>20000</v>
+      </c>
+      <c r="J96">
+        <v>0.2964401841163635</v>
+      </c>
+      <c r="K96">
+        <v>0.2975829541683197</v>
+      </c>
+      <c r="L96">
+        <v>0.1902072876691819</v>
+      </c>
+      <c r="M96">
+        <v>0.1909065693616867</v>
+      </c>
+      <c r="N96" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="1">
+        <v>23</v>
+      </c>
+      <c r="B97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" t="s">
+        <v>122</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>70</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>30000</v>
+      </c>
+      <c r="J97">
+        <v>0.3012393414974213</v>
+      </c>
+      <c r="K97">
+        <v>0.3023898601531982</v>
+      </c>
+      <c r="L97">
+        <v>0.1892169117927552</v>
+      </c>
+      <c r="M97">
+        <v>0.1902729719877243</v>
+      </c>
+      <c r="N97" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="1">
+        <v>24</v>
+      </c>
+      <c r="B98" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" t="s">
+        <v>122</v>
+      </c>
+      <c r="D98">
+        <v>6</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>100</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>40000</v>
+      </c>
+      <c r="J98">
+        <v>0.3009843826293945</v>
+      </c>
+      <c r="K98">
+        <v>0.302109956741333</v>
+      </c>
+      <c r="L98">
+        <v>0.1900999248027801</v>
+      </c>
+      <c r="M98">
+        <v>0.190864771604538</v>
+      </c>
+      <c r="N98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="1">
+        <v>25</v>
+      </c>
+      <c r="B99" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" t="s">
+        <v>122</v>
+      </c>
+      <c r="D99">
+        <v>7</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>30</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
+        <v>50000</v>
+      </c>
+      <c r="J99">
+        <v>1.369324326515198</v>
+      </c>
+      <c r="K99">
+        <v>1.58485734462738</v>
+      </c>
+      <c r="L99">
+        <v>0.5633760690689087</v>
+      </c>
+      <c r="M99">
+        <v>0.6471161842346191</v>
+      </c>
+      <c r="N99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="1">
+        <v>26</v>
+      </c>
+      <c r="B100" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" t="s">
+        <v>122</v>
+      </c>
+      <c r="D100">
+        <v>7</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>50</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
+        <v>50000</v>
+      </c>
+      <c r="J100">
+        <v>1.405500769615173</v>
+      </c>
+      <c r="K100">
+        <v>1.511763334274292</v>
+      </c>
+      <c r="L100">
+        <v>0.5837810039520264</v>
+      </c>
+      <c r="M100">
+        <v>0.6225002408027649</v>
+      </c>
+      <c r="N100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="1">
+        <v>27</v>
+      </c>
+      <c r="B101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" t="s">
+        <v>122</v>
+      </c>
+      <c r="D101">
+        <v>7</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>70</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
+        <v>60000</v>
+      </c>
+      <c r="J101">
+        <v>1.392964839935303</v>
+      </c>
+      <c r="K101">
+        <v>1.474447011947632</v>
+      </c>
+      <c r="L101">
+        <v>0.5669248700141907</v>
+      </c>
+      <c r="M101">
+        <v>0.5971564054489136</v>
+      </c>
+      <c r="N101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="1">
+        <v>28</v>
+      </c>
+      <c r="B102" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" t="s">
+        <v>122</v>
+      </c>
+      <c r="D102">
+        <v>7</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>100</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102">
+        <v>80000</v>
+      </c>
+      <c r="J102">
+        <v>1.412371277809143</v>
+      </c>
+      <c r="K102">
+        <v>1.479416847229004</v>
+      </c>
+      <c r="L102">
+        <v>0.5545896291732788</v>
+      </c>
+      <c r="M102">
+        <v>0.5784268975257874</v>
+      </c>
+      <c r="N102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="1">
+        <v>29</v>
+      </c>
+      <c r="B103" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" t="s">
+        <v>122</v>
+      </c>
+      <c r="D103">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>30</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>50000</v>
+      </c>
+      <c r="J103">
+        <v>1.280858159065247</v>
+      </c>
+      <c r="K103">
+        <v>1.571866273880005</v>
+      </c>
+      <c r="L103">
+        <v>0.5020025968551636</v>
+      </c>
+      <c r="M103">
+        <v>0.5715242624282837</v>
+      </c>
+      <c r="N103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="1">
+        <v>30</v>
+      </c>
+      <c r="B104" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" t="s">
+        <v>122</v>
+      </c>
+      <c r="D104">
+        <v>8</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>50</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
+        <v>50000</v>
+      </c>
+      <c r="J104">
+        <v>1.381091356277466</v>
+      </c>
+      <c r="K104">
+        <v>1.577436804771423</v>
+      </c>
+      <c r="L104">
+        <v>0.5347433686256409</v>
+      </c>
+      <c r="M104">
+        <v>0.5808306336402893</v>
+      </c>
+      <c r="N104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="1">
+        <v>31</v>
+      </c>
+      <c r="B105" t="s">
+        <v>116</v>
+      </c>
+      <c r="C105" t="s">
+        <v>122</v>
+      </c>
+      <c r="D105">
+        <v>8</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>70</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
+        <v>60000</v>
+      </c>
+      <c r="J105">
+        <v>1.424986124038696</v>
+      </c>
+      <c r="K105">
+        <v>1.523117899894714</v>
+      </c>
+      <c r="L105">
+        <v>0.5621580481529236</v>
+      </c>
+      <c r="M105">
+        <v>0.5889738798141479</v>
+      </c>
+      <c r="N105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="1">
+        <v>32</v>
+      </c>
+      <c r="B106" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" t="s">
+        <v>122</v>
+      </c>
+      <c r="D106">
+        <v>8</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>100</v>
+      </c>
+      <c r="H106">
+        <v>2</v>
+      </c>
+      <c r="I106">
+        <v>80000</v>
+      </c>
+      <c r="J106">
+        <v>1.425348401069641</v>
+      </c>
+      <c r="K106">
+        <v>1.526179552078247</v>
+      </c>
+      <c r="L106">
+        <v>0.5523317456245422</v>
+      </c>
+      <c r="M106">
+        <v>0.5742737054824829</v>
+      </c>
+      <c r="N106" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="1">
+        <v>33</v>
+      </c>
+      <c r="B107" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" t="s">
+        <v>126</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1.233824349729843</v>
+      </c>
+      <c r="K107">
+        <v>1.357822380127588</v>
+      </c>
+      <c r="L107">
+        <v>0.7645135423199171</v>
+      </c>
+      <c r="M107">
+        <v>0.8625358425384447</v>
+      </c>
+      <c r="N107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="1">
+        <v>34</v>
+      </c>
+      <c r="B108" t="s">
+        <v>119</v>
+      </c>
+      <c r="C108" t="s">
+        <v>126</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="J108">
+        <v>3.126886912605822</v>
+      </c>
+      <c r="K108">
+        <v>3.329463433960293</v>
+      </c>
+      <c r="L108">
+        <v>2.367208924018711</v>
+      </c>
+      <c r="M108">
+        <v>2.558613191546635</v>
+      </c>
+      <c r="N108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="1">
+        <v>35</v>
+      </c>
+      <c r="B109" t="s">
+        <v>120</v>
+      </c>
+      <c r="C109" t="s">
+        <v>122</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="K109">
+        <v>0.7071548871534311</v>
+      </c>
+      <c r="M109">
+        <v>0.5081766289410362</v>
+      </c>
+      <c r="N109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="1">
+        <v>36</v>
+      </c>
+      <c r="B110" t="s">
+        <v>121</v>
+      </c>
+      <c r="C110" t="s">
+        <v>126</v>
+      </c>
+      <c r="K110">
         <v>0.6688095868566116</v>
       </c>
-      <c r="M78">
+      <c r="M110">
         <v>0.4229790817339437</v>
       </c>
-      <c r="N78" t="s">
-        <v>106</v>
+      <c r="N110" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/results/results_full.xlsx
+++ b/results/results_full.xlsx
@@ -949,7 +949,7 @@
         <v>1.51578419809028</v>
       </c>
       <c r="L4">
-        <v>1.137315122409585</v>
+        <v>1.137315122409584</v>
       </c>
       <c r="M4">
         <v>1.150025090061045</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.746921481759611</v>
+        <v>0.7469214817596109</v>
       </c>
       <c r="K9">
         <v>1.183868373303552</v>
@@ -1207,7 +1207,7 @@
         <v>1.094783689359843</v>
       </c>
       <c r="M10">
-        <v>1.118179583975027</v>
+        <v>1.118179583975028</v>
       </c>
       <c r="N10" t="s">
         <v>133</v>
@@ -1887,7 +1887,7 @@
         <v>10.38203207073011</v>
       </c>
       <c r="L26">
-        <v>6.229437798360602</v>
+        <v>6.229437798360603</v>
       </c>
       <c r="M26">
         <v>7.156459310618192</v>
@@ -2010,13 +2010,13 @@
         <v>0.965435685540351</v>
       </c>
       <c r="K29">
-        <v>0.9764055954591315</v>
+        <v>0.9764055954591316</v>
       </c>
       <c r="L29">
         <v>0.6128766002774866</v>
       </c>
       <c r="M29">
-        <v>0.638715077926862</v>
+        <v>0.6387150779268621</v>
       </c>
       <c r="N29" t="s">
         <v>133</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>8.742085295754011</v>
+        <v>8.742085295754013</v>
       </c>
       <c r="K32">
         <v>7.005193112891305</v>
@@ -2145,7 +2145,7 @@
         <v>5.508570743702134</v>
       </c>
       <c r="M32">
-        <v>5.306436106149635</v>
+        <v>5.306436106149636</v>
       </c>
       <c r="N32" t="s">
         <v>133</v>
@@ -2397,7 +2397,7 @@
         <v>7.156006714489902</v>
       </c>
       <c r="L38">
-        <v>5.438984149459307</v>
+        <v>5.438984149459308</v>
       </c>
       <c r="M38">
         <v>5.243360452543156</v>
@@ -2652,10 +2652,10 @@
         <v>13.01063059834415</v>
       </c>
       <c r="L44">
-        <v>7.970917459785643</v>
+        <v>7.970917459785642</v>
       </c>
       <c r="M44">
-        <v>9.169138302429399</v>
+        <v>9.169138302429401</v>
       </c>
       <c r="N44" t="s">
         <v>133</v>
@@ -2687,16 +2687,16 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.9971738669133645</v>
+        <v>0.9971738669133644</v>
       </c>
       <c r="K45">
-        <v>0.9692713886289193</v>
+        <v>0.9692713886289192</v>
       </c>
       <c r="L45">
         <v>0.7037051429335435</v>
       </c>
       <c r="M45">
-        <v>0.7307312767841569</v>
+        <v>0.7307312767841571</v>
       </c>
       <c r="N45" t="s">
         <v>133</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>4.076357498729775</v>
+        <v>4.076357498729776</v>
       </c>
       <c r="K50">
         <v>4.020282028847351</v>
@@ -2942,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.9155739817374503</v>
+        <v>0.9155739817374504</v>
       </c>
       <c r="K51">
-        <v>0.9761511657434759</v>
+        <v>0.976151165743476</v>
       </c>
       <c r="L51">
         <v>0.6350351691539158</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>2.237444441309334</v>
+        <v>2.237444441309333</v>
       </c>
       <c r="K52">
         <v>2.172132039603001</v>
@@ -3159,7 +3159,7 @@
         <v>5.338728458127044</v>
       </c>
       <c r="K56">
-        <v>4.849818498222812</v>
+        <v>4.849818498222811</v>
       </c>
       <c r="L56">
         <v>3.612886101434982</v>
@@ -3414,7 +3414,7 @@
         <v>4.384159545696203</v>
       </c>
       <c r="K62">
-        <v>4.162281584407036</v>
+        <v>4.162281584407037</v>
       </c>
       <c r="L62">
         <v>3.181135376681208</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>4.50628340310844</v>
+        <v>4.506283403108441</v>
       </c>
       <c r="K68">
-        <v>4.328067808803192</v>
+        <v>4.328067808803191</v>
       </c>
       <c r="L68">
-        <v>3.212188387619715</v>
+        <v>3.212188387619716</v>
       </c>
       <c r="M68">
         <v>3.312440959487002</v>
@@ -3707,13 +3707,13 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0.9610679781078867</v>
+        <v>0.9610679781078868</v>
       </c>
       <c r="K69">
-        <v>0.9746878827125223</v>
+        <v>0.9746878827125224</v>
       </c>
       <c r="L69">
-        <v>0.66444439348795</v>
+        <v>0.6644443934879499</v>
       </c>
       <c r="M69">
         <v>0.6919813381530229</v>
@@ -3795,7 +3795,7 @@
         <v>0.9668715965344626</v>
       </c>
       <c r="K71">
-        <v>0.956736612861919</v>
+        <v>0.9567366128619191</v>
       </c>
       <c r="L71">
         <v>0.6236448102566301</v>
@@ -5225,16 +5225,16 @@
         <v>2</v>
       </c>
       <c r="J108">
-        <v>3.126886912605822</v>
+        <v>3.98973225355808</v>
       </c>
       <c r="K108">
-        <v>3.329463433960293</v>
+        <v>3.863054209156559</v>
       </c>
       <c r="L108">
-        <v>2.367208924018711</v>
+        <v>3.277443904642548</v>
       </c>
       <c r="M108">
-        <v>2.558613191546635</v>
+        <v>3.174425371108237</v>
       </c>
       <c r="N108" t="s">
         <v>137</v>

--- a/results/results_full.xlsx
+++ b/results/results_full.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="187">
   <si>
     <t>id</t>
   </si>
@@ -271,6 +271,126 @@
     <t>MLP8D0100FB2</t>
   </si>
   <si>
+    <t>MLP9D030FA</t>
+  </si>
+  <si>
+    <t>MLP9D030FC1</t>
+  </si>
+  <si>
+    <t>MLP9D030FC2</t>
+  </si>
+  <si>
+    <t>MLP9D030FD</t>
+  </si>
+  <si>
+    <t>MLP9D030FB1</t>
+  </si>
+  <si>
+    <t>MLP9D050FA</t>
+  </si>
+  <si>
+    <t>MLP9D050FC1</t>
+  </si>
+  <si>
+    <t>MLP9D050FC2</t>
+  </si>
+  <si>
+    <t>MLP9D050FD</t>
+  </si>
+  <si>
+    <t>MLP9D050FB1</t>
+  </si>
+  <si>
+    <t>MLP9D070FA</t>
+  </si>
+  <si>
+    <t>MLP9D070FC1</t>
+  </si>
+  <si>
+    <t>MLP9D070FC2</t>
+  </si>
+  <si>
+    <t>MLP9D070FD</t>
+  </si>
+  <si>
+    <t>MLP9D070FB1</t>
+  </si>
+  <si>
+    <t>MLP9D0100FA</t>
+  </si>
+  <si>
+    <t>MLP9D0100FC1</t>
+  </si>
+  <si>
+    <t>MLP9D0100FC2</t>
+  </si>
+  <si>
+    <t>MLP9D0100FD</t>
+  </si>
+  <si>
+    <t>MLP9D0100FB1</t>
+  </si>
+  <si>
+    <t>MLP10D030FA</t>
+  </si>
+  <si>
+    <t>MLP10D030FC1</t>
+  </si>
+  <si>
+    <t>MLP10D030FC2</t>
+  </si>
+  <si>
+    <t>MLP10D030FD</t>
+  </si>
+  <si>
+    <t>MLP10D030FB1</t>
+  </si>
+  <si>
+    <t>MLP10D050FA</t>
+  </si>
+  <si>
+    <t>MLP10D050FC1</t>
+  </si>
+  <si>
+    <t>MLP10D050FC2</t>
+  </si>
+  <si>
+    <t>MLP10D050FD</t>
+  </si>
+  <si>
+    <t>MLP10D050FB1</t>
+  </si>
+  <si>
+    <t>MLP10D070FA</t>
+  </si>
+  <si>
+    <t>MLP10D070FC1</t>
+  </si>
+  <si>
+    <t>MLP10D070FC2</t>
+  </si>
+  <si>
+    <t>MLP10D070FD</t>
+  </si>
+  <si>
+    <t>MLP10D070FB1</t>
+  </si>
+  <si>
+    <t>MLP10D0100FA</t>
+  </si>
+  <si>
+    <t>MLP10D0100FC1</t>
+  </si>
+  <si>
+    <t>MLP10D0100FC2</t>
+  </si>
+  <si>
+    <t>MLP10D0100FD</t>
+  </si>
+  <si>
+    <t>MLP10D0100FB1</t>
+  </si>
+  <si>
     <t>MLP0nP2D0R</t>
   </si>
   <si>
@@ -368,6 +488,30 @@
   </si>
   <si>
     <t>MLP8D0100P0</t>
+  </si>
+  <si>
+    <t>MLP9DD030P0</t>
+  </si>
+  <si>
+    <t>MLP9DD050P0</t>
+  </si>
+  <si>
+    <t>MLP9DD070P0</t>
+  </si>
+  <si>
+    <t>MLP9DD0100P0</t>
+  </si>
+  <si>
+    <t>MLP10DD030P0</t>
+  </si>
+  <si>
+    <t>MLP10DD050P0</t>
+  </si>
+  <si>
+    <t>MLP10DD070P0</t>
+  </si>
+  <si>
+    <t>MLP10DD0100P0</t>
   </si>
   <si>
     <t>preles2008hy</t>
@@ -788,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -843,19 +987,19 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -873,7 +1017,7 @@
         <v>2.295948141760763</v>
       </c>
       <c r="N2" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -884,19 +1028,19 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -914,7 +1058,7 @@
         <v>0.5930858485938422</v>
       </c>
       <c r="N3" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -925,19 +1069,19 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -949,13 +1093,13 @@
         <v>1.51578419809028</v>
       </c>
       <c r="L4">
-        <v>1.137315122409584</v>
+        <v>1.137315122409585</v>
       </c>
       <c r="M4">
         <v>1.150025090061045</v>
       </c>
       <c r="N4" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -966,40 +1110,40 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J5">
-        <v>0.8830471775459149</v>
+        <v>0.7339783947866635</v>
       </c>
       <c r="K5">
-        <v>0.9898385168982784</v>
+        <v>0.9119288398379822</v>
       </c>
       <c r="L5">
-        <v>0.5447231603314701</v>
+        <v>0.4530261741177004</v>
       </c>
       <c r="M5">
-        <v>0.6393130000067263</v>
+        <v>0.5832622654155669</v>
       </c>
       <c r="N5" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1010,19 +1154,19 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1043,7 +1187,7 @@
         <v>0.4812776446342468</v>
       </c>
       <c r="N6" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1054,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1087,7 +1231,7 @@
         <v>0.7414291501045227</v>
       </c>
       <c r="N7" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1098,19 +1242,19 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1128,7 +1272,7 @@
         <v>2.340891752810381</v>
       </c>
       <c r="N8" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1139,25 +1283,25 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7469214817596109</v>
+        <v>0.746921481759611</v>
       </c>
       <c r="K9">
         <v>1.183868373303552</v>
@@ -1169,7 +1313,7 @@
         <v>0.6147918977557774</v>
       </c>
       <c r="N9" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1180,19 +1324,19 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1207,10 +1351,10 @@
         <v>1.094783689359843</v>
       </c>
       <c r="M10">
-        <v>1.118179583975028</v>
+        <v>1.118179583975027</v>
       </c>
       <c r="N10" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1221,40 +1365,40 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J11">
-        <v>0.8543376606714996</v>
+        <v>0.7648802136298518</v>
       </c>
       <c r="K11">
-        <v>0.9430992053162346</v>
+        <v>0.8411496004197645</v>
       </c>
       <c r="L11">
-        <v>0.5500806632490095</v>
+        <v>0.4813028789772299</v>
       </c>
       <c r="M11">
-        <v>0.6204537620812471</v>
+        <v>0.5311781606207406</v>
       </c>
       <c r="N11" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1265,19 +1409,19 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D12">
         <v>6</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1298,7 +1442,7 @@
         <v>0.4907989501953125</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1309,19 +1453,19 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13">
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1342,7 +1486,7 @@
         <v>0.7006610631942749</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1353,19 +1497,19 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1383,7 +1527,7 @@
         <v>2.49624872574199</v>
       </c>
       <c r="N14" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1394,19 +1538,19 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1424,7 +1568,7 @@
         <v>0.6432635509771382</v>
       </c>
       <c r="N15" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1435,19 +1579,19 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D16">
         <v>6</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1465,7 +1609,7 @@
         <v>1.193838636338288</v>
       </c>
       <c r="N16" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1476,40 +1620,40 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J17">
-        <v>0.8950830849704493</v>
+        <v>0.7651394774986015</v>
       </c>
       <c r="K17">
-        <v>1.019830553541692</v>
+        <v>0.9478946156543092</v>
       </c>
       <c r="L17">
-        <v>0.5597591552662348</v>
+        <v>0.4804673523804537</v>
       </c>
       <c r="M17">
-        <v>0.6572426164878598</v>
+        <v>0.6003834391937174</v>
       </c>
       <c r="N17" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1520,19 +1664,19 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D18">
         <v>6</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1553,7 +1697,7 @@
         <v>0.4907381534576416</v>
       </c>
       <c r="N18" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1564,19 +1708,19 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1597,7 +1741,7 @@
         <v>0.7322555780410767</v>
       </c>
       <c r="N19" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1608,19 +1752,19 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1638,7 +1782,7 @@
         <v>2.452256112198325</v>
       </c>
       <c r="N20" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1649,19 +1793,19 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D21">
         <v>6</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1679,7 +1823,7 @@
         <v>0.613399646638439</v>
       </c>
       <c r="N21" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1690,19 +1834,19 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22">
         <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1720,7 +1864,7 @@
         <v>1.151578385099606</v>
       </c>
       <c r="N22" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1731,40 +1875,40 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D23">
         <v>6</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J23">
-        <v>0.9337954085797128</v>
+        <v>0.7301220737294799</v>
       </c>
       <c r="K23">
-        <v>0.9928053957486102</v>
+        <v>0.9241871470888338</v>
       </c>
       <c r="L23">
-        <v>0.5864904769213417</v>
+        <v>0.4553708444081254</v>
       </c>
       <c r="M23">
-        <v>0.6506859929604474</v>
+        <v>0.5961708135046329</v>
       </c>
       <c r="N23" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1775,19 +1919,19 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D24">
         <v>6</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24">
         <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1808,7 +1952,7 @@
         <v>0.5005717277526855</v>
       </c>
       <c r="N24" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1819,19 +1963,19 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D25">
         <v>6</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25">
         <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1852,7 +1996,7 @@
         <v>0.7572842836380005</v>
       </c>
       <c r="N25" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1863,19 +2007,19 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D26">
         <v>7</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26">
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1887,13 +2031,13 @@
         <v>10.38203207073011</v>
       </c>
       <c r="L26">
-        <v>6.229437798360603</v>
+        <v>6.229437798360602</v>
       </c>
       <c r="M26">
         <v>7.156459310618192</v>
       </c>
       <c r="N26" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1904,19 +2048,19 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D27">
         <v>7</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27">
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1934,7 +2078,7 @@
         <v>0.7690979236193421</v>
       </c>
       <c r="N27" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1945,19 +2089,19 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D28">
         <v>7</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28">
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1975,7 +2119,7 @@
         <v>1.939582945501945</v>
       </c>
       <c r="N28" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1986,40 +2130,40 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D29">
         <v>7</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29">
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J29">
-        <v>0.965435685540351</v>
+        <v>0.7771015633535268</v>
       </c>
       <c r="K29">
-        <v>0.9764055954591316</v>
+        <v>0.9481779620820598</v>
       </c>
       <c r="L29">
-        <v>0.6128766002774866</v>
+        <v>0.4867836415747725</v>
       </c>
       <c r="M29">
-        <v>0.6387150779268621</v>
+        <v>0.600033842944284</v>
       </c>
       <c r="N29" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2030,19 +2174,19 @@
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D30">
         <v>7</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30">
         <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2063,7 +2207,7 @@
         <v>0.4874206483364105</v>
       </c>
       <c r="N30" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2074,19 +2218,19 @@
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D31">
         <v>7</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31">
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2107,7 +2251,7 @@
         <v>0.8031153678894043</v>
       </c>
       <c r="N31" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2118,25 +2262,25 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D32">
         <v>7</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32">
         <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>8.742085295754013</v>
+        <v>8.742085295754011</v>
       </c>
       <c r="K32">
         <v>7.005193112891305</v>
@@ -2145,10 +2289,10 @@
         <v>5.508570743702134</v>
       </c>
       <c r="M32">
-        <v>5.306436106149636</v>
+        <v>5.306436106149635</v>
       </c>
       <c r="N32" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2159,19 +2303,19 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D33">
         <v>7</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33">
         <v>50</v>
       </c>
       <c r="G33" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2189,7 +2333,7 @@
         <v>0.8332226603483276</v>
       </c>
       <c r="N33" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2200,19 +2344,19 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D34">
         <v>7</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34">
         <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2230,7 +2374,7 @@
         <v>1.806866226519419</v>
       </c>
       <c r="N34" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2241,40 +2385,40 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D35">
         <v>7</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35">
         <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J35">
-        <v>1.142426225620212</v>
+        <v>0.7950406955385125</v>
       </c>
       <c r="K35">
-        <v>1.237043036318914</v>
+        <v>1.075063563529575</v>
       </c>
       <c r="L35">
-        <v>0.7248164904248915</v>
+        <v>0.4950275527997577</v>
       </c>
       <c r="M35">
-        <v>0.8108524494146273</v>
+        <v>0.6695464314580741</v>
       </c>
       <c r="N35" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2285,19 +2429,19 @@
         <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D36">
         <v>7</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F36">
         <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2318,7 +2462,7 @@
         <v>0.4906741976737976</v>
       </c>
       <c r="N36" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2329,19 +2473,19 @@
         <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D37">
         <v>7</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37">
         <v>50</v>
       </c>
       <c r="G37" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2362,7 +2506,7 @@
         <v>0.8993344306945801</v>
       </c>
       <c r="N37" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2373,19 +2517,19 @@
         <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D38">
         <v>7</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38">
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2397,13 +2541,13 @@
         <v>7.156006714489902</v>
       </c>
       <c r="L38">
-        <v>5.438984149459308</v>
+        <v>5.438984149459307</v>
       </c>
       <c r="M38">
         <v>5.243360452543156</v>
       </c>
       <c r="N38" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2414,19 +2558,19 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D39">
         <v>7</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39">
         <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2444,7 +2588,7 @@
         <v>0.7812450732794299</v>
       </c>
       <c r="N39" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2455,19 +2599,19 @@
         <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D40">
         <v>7</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40">
         <v>70</v>
       </c>
       <c r="G40" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2485,7 +2629,7 @@
         <v>1.818543136674192</v>
       </c>
       <c r="N40" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2496,40 +2640,40 @@
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D41">
         <v>7</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41">
         <v>70</v>
       </c>
       <c r="G41" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J41">
-        <v>1.116747984929049</v>
+        <v>0.7708910533404228</v>
       </c>
       <c r="K41">
-        <v>1.067527501823764</v>
+        <v>0.8953089698973073</v>
       </c>
       <c r="L41">
-        <v>0.7247743352267628</v>
+        <v>0.4818461213191062</v>
       </c>
       <c r="M41">
-        <v>0.7096758197829593</v>
+        <v>0.5857731127859427</v>
       </c>
       <c r="N41" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2540,19 +2684,19 @@
         <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D42">
         <v>7</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42">
         <v>70</v>
       </c>
       <c r="G42" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2573,7 +2717,7 @@
         <v>0.492600679397583</v>
       </c>
       <c r="N42" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2584,19 +2728,19 @@
         <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D43">
         <v>7</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43">
         <v>70</v>
       </c>
       <c r="G43" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2617,7 +2761,7 @@
         <v>0.9060245752334596</v>
       </c>
       <c r="N43" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2628,19 +2772,19 @@
         <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D44">
         <v>7</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44">
         <v>100</v>
       </c>
       <c r="G44" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2652,13 +2796,13 @@
         <v>13.01063059834415</v>
       </c>
       <c r="L44">
-        <v>7.970917459785642</v>
+        <v>7.970917459785643</v>
       </c>
       <c r="M44">
-        <v>9.169138302429401</v>
+        <v>9.169138302429399</v>
       </c>
       <c r="N44" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2669,37 +2813,37 @@
         <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D45">
         <v>7</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45">
         <v>100</v>
       </c>
       <c r="G45" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.9971738669133644</v>
+        <v>0.9971738669133645</v>
       </c>
       <c r="K45">
-        <v>0.9692713886289192</v>
+        <v>0.9692713886289193</v>
       </c>
       <c r="L45">
         <v>0.7037051429335435</v>
       </c>
       <c r="M45">
-        <v>0.7307312767841571</v>
+        <v>0.7307312767841569</v>
       </c>
       <c r="N45" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2710,19 +2854,19 @@
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D46">
         <v>7</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46">
         <v>100</v>
       </c>
       <c r="G46" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2740,7 +2884,7 @@
         <v>1.61815399085998</v>
       </c>
       <c r="N46" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2751,40 +2895,40 @@
         <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D47">
         <v>7</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47">
         <v>100</v>
       </c>
       <c r="G47" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J47">
-        <v>1.021268349844489</v>
+        <v>0.8317163103093662</v>
       </c>
       <c r="K47">
-        <v>0.9910671076743854</v>
+        <v>0.9407579889740066</v>
       </c>
       <c r="L47">
-        <v>0.6401432394833253</v>
+        <v>0.522350068996444</v>
       </c>
       <c r="M47">
-        <v>0.6651971089320146</v>
+        <v>0.6099151343854045</v>
       </c>
       <c r="N47" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2795,19 +2939,19 @@
         <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48">
         <v>100</v>
       </c>
       <c r="G48" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2828,7 +2972,7 @@
         <v>0.4953839182853699</v>
       </c>
       <c r="N48" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2839,19 +2983,19 @@
         <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D49">
         <v>7</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49">
         <v>100</v>
       </c>
       <c r="G49" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2872,7 +3016,7 @@
         <v>0.8256415128707886</v>
       </c>
       <c r="N49" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2883,25 +3027,25 @@
         <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D50">
         <v>8</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50">
         <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>4.076357498729776</v>
+        <v>4.076357498729775</v>
       </c>
       <c r="K50">
         <v>4.020282028847351</v>
@@ -2913,7 +3057,7 @@
         <v>2.94637327588741</v>
       </c>
       <c r="N50" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2924,28 +3068,28 @@
         <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D51">
         <v>8</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51">
         <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.9155739817374504</v>
+        <v>0.9155739817374503</v>
       </c>
       <c r="K51">
-        <v>0.976151165743476</v>
+        <v>0.9761511657434759</v>
       </c>
       <c r="L51">
         <v>0.6350351691539158</v>
@@ -2954,7 +3098,7 @@
         <v>0.711501340255003</v>
       </c>
       <c r="N51" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2965,25 +3109,25 @@
         <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D52">
         <v>8</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F52">
         <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>2.237444441309333</v>
+        <v>2.237444441309334</v>
       </c>
       <c r="K52">
         <v>2.172132039603001</v>
@@ -2995,7 +3139,7 @@
         <v>1.621275420525324</v>
       </c>
       <c r="N52" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3006,40 +3150,40 @@
         <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D53">
         <v>8</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53">
         <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J53">
-        <v>0.9639417952477556</v>
+        <v>0.8163424063904786</v>
       </c>
       <c r="K53">
-        <v>0.9539675969023416</v>
+        <v>0.9332558862118555</v>
       </c>
       <c r="L53">
-        <v>0.6057410330234996</v>
+        <v>0.5209837515411763</v>
       </c>
       <c r="M53">
-        <v>0.6434985639967958</v>
+        <v>0.61409012291259</v>
       </c>
       <c r="N53" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3050,19 +3194,19 @@
         <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D54">
         <v>8</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54">
         <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -3083,7 +3227,7 @@
         <v>0.4957959055900574</v>
       </c>
       <c r="N54" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3094,19 +3238,19 @@
         <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D55">
         <v>8</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55">
         <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -3127,7 +3271,7 @@
         <v>0.7432044744491577</v>
       </c>
       <c r="N55" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3138,19 +3282,19 @@
         <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D56">
         <v>8</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56">
         <v>50</v>
       </c>
       <c r="G56" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -3159,7 +3303,7 @@
         <v>5.338728458127044</v>
       </c>
       <c r="K56">
-        <v>4.849818498222811</v>
+        <v>4.849818498222812</v>
       </c>
       <c r="L56">
         <v>3.612886101434982</v>
@@ -3168,7 +3312,7 @@
         <v>3.706538223720009</v>
       </c>
       <c r="N56" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3179,19 +3323,19 @@
         <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D57">
         <v>8</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57">
         <v>50</v>
       </c>
       <c r="G57" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -3209,7 +3353,7 @@
         <v>0.7169104026314912</v>
       </c>
       <c r="N57" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3220,19 +3364,19 @@
         <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D58">
         <v>8</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58">
         <v>50</v>
       </c>
       <c r="G58" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -3250,7 +3394,7 @@
         <v>1.593907146675113</v>
       </c>
       <c r="N58" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3261,40 +3405,40 @@
         <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D59">
         <v>8</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59">
         <v>50</v>
       </c>
       <c r="G59" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J59">
-        <v>1.011240787012776</v>
+        <v>0.785422451775075</v>
       </c>
       <c r="K59">
-        <v>0.9780723440856024</v>
+        <v>0.9043472223544657</v>
       </c>
       <c r="L59">
-        <v>0.6466262081700453</v>
+        <v>0.5031182818641662</v>
       </c>
       <c r="M59">
-        <v>0.664192995409754</v>
+        <v>0.5980813218637303</v>
       </c>
       <c r="N59" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3305,19 +3449,19 @@
         <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D60">
         <v>8</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F60">
         <v>50</v>
       </c>
       <c r="G60" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -3338,7 +3482,7 @@
         <v>0.4837273955345154</v>
       </c>
       <c r="N60" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3349,19 +3493,19 @@
         <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D61">
         <v>8</v>
       </c>
       <c r="E61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61">
         <v>50</v>
       </c>
       <c r="G61" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3382,7 +3526,7 @@
         <v>0.7897850871086121</v>
       </c>
       <c r="N61" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3393,19 +3537,19 @@
         <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D62">
         <v>8</v>
       </c>
       <c r="E62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62">
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -3414,7 +3558,7 @@
         <v>4.384159545696203</v>
       </c>
       <c r="K62">
-        <v>4.162281584407037</v>
+        <v>4.162281584407036</v>
       </c>
       <c r="L62">
         <v>3.181135376681208</v>
@@ -3423,7 +3567,7 @@
         <v>3.258335834263824</v>
       </c>
       <c r="N62" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3434,19 +3578,19 @@
         <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D63">
         <v>8</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F63">
         <v>70</v>
       </c>
       <c r="G63" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3464,7 +3608,7 @@
         <v>0.6927480318783719</v>
       </c>
       <c r="N63" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3475,19 +3619,19 @@
         <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D64">
         <v>8</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F64">
         <v>70</v>
       </c>
       <c r="G64" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -3505,7 +3649,7 @@
         <v>1.623729725666519</v>
       </c>
       <c r="N64" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3516,40 +3660,40 @@
         <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D65">
         <v>8</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65">
         <v>70</v>
       </c>
       <c r="G65" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J65">
-        <v>0.9199453574106908</v>
+        <v>0.7472083674554216</v>
       </c>
       <c r="K65">
-        <v>0.8647311558958142</v>
+        <v>0.8905564698118719</v>
       </c>
       <c r="L65">
-        <v>0.5790404175955709</v>
+        <v>0.4589708588293438</v>
       </c>
       <c r="M65">
-        <v>0.5886237903005423</v>
+        <v>0.5776821671751605</v>
       </c>
       <c r="N65" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3560,19 +3704,19 @@
         <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D66">
         <v>8</v>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66">
         <v>70</v>
       </c>
       <c r="G66" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3593,7 +3737,7 @@
         <v>0.4867942333221436</v>
       </c>
       <c r="N66" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3604,19 +3748,19 @@
         <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D67">
         <v>8</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F67">
         <v>70</v>
       </c>
       <c r="G67" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -3637,7 +3781,7 @@
         <v>0.7465139627456665</v>
       </c>
       <c r="N67" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3648,37 +3792,37 @@
         <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D68">
         <v>8</v>
       </c>
       <c r="E68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F68">
         <v>100</v>
       </c>
       <c r="G68" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>4.506283403108441</v>
+        <v>4.50628340310844</v>
       </c>
       <c r="K68">
-        <v>4.328067808803191</v>
+        <v>4.328067808803192</v>
       </c>
       <c r="L68">
-        <v>3.212188387619716</v>
+        <v>3.212188387619715</v>
       </c>
       <c r="M68">
         <v>3.312440959487002</v>
       </c>
       <c r="N68" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3689,37 +3833,37 @@
         <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D69">
         <v>8</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69">
         <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0.9610679781078868</v>
+        <v>0.9610679781078867</v>
       </c>
       <c r="K69">
-        <v>0.9746878827125224</v>
+        <v>0.9746878827125223</v>
       </c>
       <c r="L69">
-        <v>0.6644443934879499</v>
+        <v>0.66444439348795</v>
       </c>
       <c r="M69">
         <v>0.6919813381530229</v>
       </c>
       <c r="N69" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3730,19 +3874,19 @@
         <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D70">
         <v>8</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70">
         <v>100</v>
       </c>
       <c r="G70" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3760,7 +3904,7 @@
         <v>1.664348337943026</v>
       </c>
       <c r="N70" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3771,40 +3915,40 @@
         <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D71">
         <v>8</v>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F71">
         <v>100</v>
       </c>
       <c r="G71" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J71">
-        <v>0.9668715965344626</v>
+        <v>0.8027732370746149</v>
       </c>
       <c r="K71">
-        <v>0.9567366128619191</v>
+        <v>0.8897303208447325</v>
       </c>
       <c r="L71">
-        <v>0.6236448102566301</v>
+        <v>0.4997818740693948</v>
       </c>
       <c r="M71">
-        <v>0.6464679939289418</v>
+        <v>0.5748607219642351</v>
       </c>
       <c r="N71" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3815,19 +3959,19 @@
         <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D72">
         <v>8</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72">
         <v>100</v>
       </c>
       <c r="G72" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3848,7 +3992,7 @@
         <v>0.4832877218723297</v>
       </c>
       <c r="N72" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3859,19 +4003,19 @@
         <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D73">
         <v>8</v>
       </c>
       <c r="E73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F73">
         <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3892,366 +4036,408 @@
         <v>0.7598562240600586</v>
       </c>
       <c r="N73" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E74">
         <v>2</v>
       </c>
+      <c r="F74">
+        <v>30</v>
+      </c>
+      <c r="G74" t="s">
+        <v>175</v>
+      </c>
       <c r="H74">
         <v>0</v>
       </c>
-      <c r="I74">
-        <v>10000</v>
-      </c>
       <c r="J74">
-        <v>0.502784788608551</v>
+        <v>3.184280716614786</v>
       </c>
       <c r="K74">
-        <v>0.7629355788230896</v>
+        <v>3.06728326548281</v>
       </c>
       <c r="L74">
-        <v>0.4867032170295715</v>
+        <v>2.207286325737983</v>
       </c>
       <c r="M74">
-        <v>0.4867032170295715</v>
+        <v>2.282887075553385</v>
       </c>
       <c r="N74" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>86</v>
       </c>
       <c r="C75" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E75">
         <v>2</v>
       </c>
+      <c r="F75">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s">
+        <v>176</v>
+      </c>
       <c r="H75">
         <v>0</v>
       </c>
-      <c r="I75">
-        <v>10000</v>
-      </c>
       <c r="J75">
-        <v>0.4920576214790344</v>
+        <v>0.5582373455048442</v>
       </c>
       <c r="K75">
-        <v>0.74643874168396</v>
+        <v>0.8228681732139289</v>
       </c>
       <c r="L75">
-        <v>0.475677102804184</v>
+        <v>0.354735446008178</v>
       </c>
       <c r="M75">
-        <v>0.475677102804184</v>
+        <v>0.553864015151407</v>
       </c>
       <c r="N75" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="1">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>87</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>30</v>
+      </c>
+      <c r="G76" t="s">
+        <v>177</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
-      <c r="I76">
-        <v>10000</v>
-      </c>
       <c r="J76">
-        <v>0.6566911935806274</v>
+        <v>0.8967645232519562</v>
       </c>
       <c r="K76">
-        <v>0.7833381891250609</v>
+        <v>0.9457716915386033</v>
       </c>
       <c r="L76">
-        <v>0.4924018383026123</v>
+        <v>0.5811021895813898</v>
       </c>
       <c r="M76">
-        <v>0.4924018383026123</v>
+        <v>0.6121795508280491</v>
       </c>
       <c r="N76" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>30</v>
+      </c>
+      <c r="G77" t="s">
+        <v>178</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="J77">
-        <v>0.6142827272415161</v>
+        <v>0.493619222676717</v>
       </c>
       <c r="K77">
-        <v>0.7515823245048523</v>
+        <v>0.8342442629250735</v>
       </c>
       <c r="L77">
-        <v>0.4637706279754639</v>
+        <v>0.2887928543102942</v>
       </c>
       <c r="M77">
-        <v>0.4637706279754639</v>
+        <v>0.5236948808376839</v>
       </c>
       <c r="N77" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>89</v>
       </c>
       <c r="C78" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E78">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>30</v>
+      </c>
+      <c r="G78" t="s">
+        <v>179</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>10000</v>
       </c>
       <c r="J78">
-        <v>0.6181010007858276</v>
+        <v>0.4854006171226502</v>
       </c>
       <c r="K78">
-        <v>0.7336056232452393</v>
+        <v>0.7846022248268127</v>
       </c>
       <c r="L78">
-        <v>0.4738454222679138</v>
+        <v>0.2953502833843231</v>
       </c>
       <c r="M78">
-        <v>0.4738454222679138</v>
+        <v>0.5009190440177917</v>
       </c>
       <c r="N78" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E79">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>50</v>
+      </c>
+      <c r="G79" t="s">
+        <v>175</v>
       </c>
       <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="I79">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>0.6610723733901978</v>
+        <v>3.707125600402446</v>
       </c>
       <c r="K79">
-        <v>0.7827129364013672</v>
+        <v>3.609348625483207</v>
       </c>
       <c r="L79">
-        <v>0.4912989139556885</v>
+        <v>2.599654471619879</v>
       </c>
       <c r="M79">
-        <v>0.4912989139556885</v>
+        <v>2.684176234434793</v>
       </c>
       <c r="N79" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>50</v>
+      </c>
+      <c r="G80" t="s">
+        <v>176</v>
       </c>
       <c r="H80">
-        <v>2</v>
-      </c>
-      <c r="I80">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>0.6720488667488098</v>
+        <v>0.5526390348489894</v>
       </c>
       <c r="K80">
-        <v>0.7379122972488403</v>
+        <v>0.8279170263118379</v>
       </c>
       <c r="L80">
-        <v>0.4661184251308441</v>
+        <v>0.349141716346656</v>
       </c>
       <c r="M80">
-        <v>0.4661184251308441</v>
+        <v>0.5456439617028083</v>
       </c>
       <c r="N80" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E81">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>50</v>
+      </c>
+      <c r="G81" t="s">
+        <v>177</v>
       </c>
       <c r="H81">
-        <v>2</v>
-      </c>
-      <c r="I81">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>0.6325932741165161</v>
+        <v>0.9105567614014595</v>
       </c>
       <c r="K81">
-        <v>0.7514798045158386</v>
+        <v>0.9406926962298602</v>
       </c>
       <c r="L81">
-        <v>0.4698392748832703</v>
+        <v>0.598614180868848</v>
       </c>
       <c r="M81">
-        <v>0.4698392748832703</v>
+        <v>0.605682177255902</v>
       </c>
       <c r="N81" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="1">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E82">
         <v>2</v>
       </c>
+      <c r="F82">
+        <v>50</v>
+      </c>
+      <c r="G82" t="s">
+        <v>178</v>
+      </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="J82">
-        <v>0.6911980509757996</v>
+        <v>0.5109305834464993</v>
       </c>
       <c r="K82">
-        <v>1.32979416847229</v>
+        <v>0.8430512884313991</v>
       </c>
       <c r="L82">
-        <v>0.8241565823554993</v>
+        <v>0.3120444816619048</v>
       </c>
       <c r="M82">
-        <v>0.8241565823554993</v>
+        <v>0.519913628980943</v>
       </c>
       <c r="N82" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>94</v>
       </c>
       <c r="C83" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E83">
         <v>2</v>
+      </c>
+      <c r="F83">
+        <v>50</v>
+      </c>
+      <c r="G83" t="s">
+        <v>179</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4260,179 +4446,209 @@
         <v>10000</v>
       </c>
       <c r="J83">
-        <v>0.7621762752532959</v>
+        <v>0.4862754344940186</v>
       </c>
       <c r="K83">
-        <v>1.278318524360657</v>
+        <v>0.795744776725769</v>
       </c>
       <c r="L83">
-        <v>0.7848275899887085</v>
+        <v>0.2954475581645966</v>
       </c>
       <c r="M83">
-        <v>0.7848275899887085</v>
+        <v>0.5159175992012024</v>
       </c>
       <c r="N83" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="1">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>95</v>
       </c>
       <c r="C84" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="D84">
+        <v>9</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>70</v>
+      </c>
+      <c r="G84" t="s">
+        <v>175</v>
+      </c>
+      <c r="H84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0.4524757705116624</v>
+        <v>3.772374232398719</v>
       </c>
       <c r="K84">
-        <v>0.7646869400037543</v>
+        <v>3.739594971727825</v>
       </c>
       <c r="L84">
-        <v>0.2675646884543371</v>
+        <v>2.689505187765755</v>
       </c>
       <c r="M84">
-        <v>0.471043460239115</v>
+        <v>2.788498186129043</v>
       </c>
       <c r="N84" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>96</v>
       </c>
       <c r="C85" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>70</v>
+      </c>
+      <c r="G85" t="s">
+        <v>176</v>
       </c>
       <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>1.379218339920044</v>
+        <v>0.5468363026872983</v>
       </c>
       <c r="K85">
-        <v>2.12820816040039</v>
+        <v>0.8598213458696471</v>
       </c>
       <c r="L85">
-        <v>1.576656341552734</v>
+        <v>0.3458007590981015</v>
       </c>
       <c r="M85">
-        <v>1.576656341552734</v>
+        <v>0.5578413785146829</v>
       </c>
       <c r="N85" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>97</v>
       </c>
       <c r="C86" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>70</v>
+      </c>
+      <c r="G86" t="s">
+        <v>177</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
-      <c r="I86">
-        <v>10000</v>
-      </c>
       <c r="J86">
-        <v>1.356328010559082</v>
+        <v>0.8799943556523335</v>
       </c>
       <c r="K86">
-        <v>1.953316330909729</v>
+        <v>0.9281046049116501</v>
       </c>
       <c r="L86">
-        <v>1.425268888473511</v>
+        <v>0.5630998715201148</v>
       </c>
       <c r="M86">
-        <v>1.425268888473511</v>
+        <v>0.5960962954105806</v>
       </c>
       <c r="N86" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>98</v>
       </c>
       <c r="C87" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
+      <c r="F87">
+        <v>70</v>
+      </c>
+      <c r="G87" t="s">
+        <v>178</v>
+      </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="J87">
-        <v>1.218623042106628</v>
+        <v>0.5236815137950662</v>
       </c>
       <c r="K87">
-        <v>1.931608915328979</v>
+        <v>0.8281688973889162</v>
       </c>
       <c r="L87">
-        <v>1.40399432182312</v>
+        <v>0.3052769137558222</v>
       </c>
       <c r="M87">
-        <v>1.40399432182312</v>
+        <v>0.5161627410720534</v>
       </c>
       <c r="N87" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="1">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>99</v>
       </c>
       <c r="C88" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E88">
         <v>2</v>
+      </c>
+      <c r="F88">
+        <v>70</v>
+      </c>
+      <c r="G88" t="s">
+        <v>179</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4441,849 +4657,2793 @@
         <v>10000</v>
       </c>
       <c r="J88">
-        <v>1.818891525268555</v>
+        <v>0.4791284203529358</v>
       </c>
       <c r="K88">
-        <v>2.689780950546265</v>
+        <v>0.7634564638137817</v>
       </c>
       <c r="L88">
-        <v>2.058792591094971</v>
+        <v>0.2903087139129639</v>
       </c>
       <c r="M88">
-        <v>2.058792591094971</v>
+        <v>0.4829417169094086</v>
       </c>
       <c r="N88" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E89">
         <v>2</v>
       </c>
+      <c r="F89">
+        <v>100</v>
+      </c>
+      <c r="G89" t="s">
+        <v>175</v>
+      </c>
       <c r="H89">
         <v>0</v>
       </c>
-      <c r="I89">
-        <v>10000</v>
-      </c>
       <c r="J89">
-        <v>1.861822128295898</v>
+        <v>3.76635733537378</v>
       </c>
       <c r="K89">
-        <v>2.64080286026001</v>
+        <v>3.740462109382637</v>
       </c>
       <c r="L89">
-        <v>2.015515565872192</v>
+        <v>2.754909858237285</v>
       </c>
       <c r="M89">
-        <v>2.015515565872192</v>
+        <v>2.848247451201071</v>
       </c>
       <c r="N89" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>101</v>
       </c>
       <c r="C90" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E90">
         <v>2</v>
       </c>
+      <c r="F90">
+        <v>100</v>
+      </c>
+      <c r="G90" t="s">
+        <v>176</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
       <c r="J90">
-        <v>0.460309834240309</v>
+        <v>0.5506115888542392</v>
       </c>
       <c r="K90">
-        <v>0.7486888345094803</v>
+        <v>0.8596612281568671</v>
       </c>
       <c r="L90">
-        <v>0.2712954899951439</v>
+        <v>0.3487112345615201</v>
       </c>
       <c r="M90">
-        <v>0.4650816831083652</v>
+        <v>0.5611041022811756</v>
       </c>
       <c r="N90" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="1">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>102</v>
       </c>
       <c r="C91" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D91">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="G91" t="s">
+        <v>177</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
-      <c r="I91">
-        <v>10000</v>
-      </c>
       <c r="J91">
-        <v>0.2105832099914551</v>
+        <v>0.887069429202386</v>
       </c>
       <c r="K91">
-        <v>0.2114661484956741</v>
+        <v>0.9392185695172177</v>
       </c>
       <c r="L91">
-        <v>0.1283347606658936</v>
+        <v>0.5725317028572576</v>
       </c>
       <c r="M91">
-        <v>0.1288321763277054</v>
+        <v>0.6232290341292861</v>
       </c>
       <c r="N91" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>103</v>
       </c>
       <c r="C92" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D92">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="G92" t="s">
+        <v>178</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="J92">
-        <v>0.2000058442354203</v>
+        <v>0.5009108168177057</v>
       </c>
       <c r="K92">
-        <v>0.2017096728086472</v>
+        <v>0.8405457486129345</v>
       </c>
       <c r="L92">
-        <v>0.121207594871521</v>
+        <v>0.2912718943924462</v>
       </c>
       <c r="M92">
-        <v>0.1223251223564148</v>
+        <v>0.5150889794672704</v>
       </c>
       <c r="N92" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="1">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D93">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93">
-        <v>70</v>
+        <v>100</v>
+      </c>
+      <c r="G93" t="s">
+        <v>179</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="J93">
-        <v>0.1975597441196441</v>
+        <v>0.4910709857940674</v>
       </c>
       <c r="K93">
-        <v>0.1998907178640366</v>
+        <v>0.8024412393569946</v>
       </c>
       <c r="L93">
-        <v>0.1172986179590225</v>
+        <v>0.2967947423458099</v>
       </c>
       <c r="M93">
-        <v>0.1185832843184471</v>
+        <v>0.5116219520568848</v>
       </c>
       <c r="N93" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>105</v>
       </c>
       <c r="C94" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D94">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="G94" t="s">
+        <v>175</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
-      <c r="I94">
-        <v>40000</v>
-      </c>
       <c r="J94">
-        <v>0.1982558071613312</v>
+        <v>4.199608082324255</v>
       </c>
       <c r="K94">
-        <v>0.2000072449445724</v>
+        <v>4.09939565955218</v>
       </c>
       <c r="L94">
-        <v>0.1172549277544021</v>
+        <v>3.035977533363655</v>
       </c>
       <c r="M94">
-        <v>0.1180950850248337</v>
+        <v>3.089192696931077</v>
       </c>
       <c r="N94" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="1">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>106</v>
       </c>
       <c r="C95" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D95">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95">
         <v>30</v>
       </c>
+      <c r="G95" t="s">
+        <v>176</v>
+      </c>
       <c r="H95">
-        <v>1</v>
-      </c>
-      <c r="I95">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>0.2866075038909912</v>
+        <v>0.560322729226144</v>
       </c>
       <c r="K95">
-        <v>0.2878729701042175</v>
+        <v>0.8197573366505437</v>
       </c>
       <c r="L95">
-        <v>0.1839323937892914</v>
+        <v>0.3599018578021549</v>
       </c>
       <c r="M95">
-        <v>0.1848417073488235</v>
+        <v>0.5546602678733006</v>
       </c>
       <c r="N95" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>107</v>
       </c>
       <c r="C96" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D96">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="G96" t="s">
+        <v>177</v>
       </c>
       <c r="H96">
-        <v>1</v>
-      </c>
-      <c r="I96">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>0.2964401841163635</v>
+        <v>0.9049188043393898</v>
       </c>
       <c r="K96">
-        <v>0.2975829541683197</v>
+        <v>0.9379045936708355</v>
       </c>
       <c r="L96">
-        <v>0.1902072876691819</v>
+        <v>0.5716533704707185</v>
       </c>
       <c r="M96">
-        <v>0.1909065693616867</v>
+        <v>0.5862347497488172</v>
       </c>
       <c r="N96" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>108</v>
       </c>
       <c r="C97" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D97">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97">
-        <v>70</v>
+        <v>30</v>
+      </c>
+      <c r="G97" t="s">
+        <v>178</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="J97">
-        <v>0.3012393414974213</v>
+        <v>0.4749910294511205</v>
       </c>
       <c r="K97">
-        <v>0.3023898601531982</v>
+        <v>0.8664193546928122</v>
       </c>
       <c r="L97">
-        <v>0.1892169117927552</v>
+        <v>0.2792217423229598</v>
       </c>
       <c r="M97">
-        <v>0.1902729719877243</v>
+        <v>0.5390980030684489</v>
       </c>
       <c r="N97" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>109</v>
       </c>
       <c r="C98" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D98">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="G98" t="s">
+        <v>179</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="J98">
-        <v>0.3009843826293945</v>
+        <v>0.4916608929634094</v>
       </c>
       <c r="K98">
-        <v>0.302109956741333</v>
+        <v>0.7655237913131714</v>
       </c>
       <c r="L98">
-        <v>0.1900999248027801</v>
+        <v>0.2946067452430725</v>
       </c>
       <c r="M98">
-        <v>0.190864771604538</v>
+        <v>0.488473117351532</v>
       </c>
       <c r="N98" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="1">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>110</v>
       </c>
       <c r="C99" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D99">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="G99" t="s">
+        <v>175</v>
       </c>
       <c r="H99">
-        <v>2</v>
-      </c>
-      <c r="I99">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>1.369324326515198</v>
+        <v>4.103233697217791</v>
       </c>
       <c r="K99">
-        <v>1.58485734462738</v>
+        <v>4.008806033681391</v>
       </c>
       <c r="L99">
-        <v>0.5633760690689087</v>
+        <v>2.903010670451626</v>
       </c>
       <c r="M99">
-        <v>0.6471161842346191</v>
+        <v>2.953778229956044</v>
       </c>
       <c r="N99" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="1">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>111</v>
       </c>
       <c r="C100" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D100">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F100">
         <v>50</v>
       </c>
+      <c r="G100" t="s">
+        <v>176</v>
+      </c>
       <c r="H100">
-        <v>2</v>
-      </c>
-      <c r="I100">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>1.405500769615173</v>
+        <v>0.5608863685741178</v>
       </c>
       <c r="K100">
-        <v>1.511763334274292</v>
+        <v>0.821274150644722</v>
       </c>
       <c r="L100">
-        <v>0.5837810039520264</v>
+        <v>0.3617746803638227</v>
       </c>
       <c r="M100">
-        <v>0.6225002408027649</v>
+        <v>0.5490957950340991</v>
       </c>
       <c r="N100" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="1">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>112</v>
       </c>
       <c r="C101" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D101">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F101">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="G101" t="s">
+        <v>177</v>
       </c>
       <c r="H101">
-        <v>2</v>
-      </c>
-      <c r="I101">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>1.392964839935303</v>
+        <v>0.9165713509428223</v>
       </c>
       <c r="K101">
-        <v>1.474447011947632</v>
+        <v>0.9997138851623184</v>
       </c>
       <c r="L101">
-        <v>0.5669248700141907</v>
+        <v>0.5821919194389314</v>
       </c>
       <c r="M101">
-        <v>0.5971564054489136</v>
+        <v>0.6218308079208964</v>
       </c>
       <c r="N101" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>113</v>
       </c>
       <c r="C102" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D102">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F102">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="G102" t="s">
+        <v>178</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>80000</v>
+        <v>5000</v>
       </c>
       <c r="J102">
-        <v>1.412371277809143</v>
+        <v>0.4656059336115338</v>
       </c>
       <c r="K102">
-        <v>1.479416847229004</v>
+        <v>0.8379922649667328</v>
       </c>
       <c r="L102">
-        <v>0.5545896291732788</v>
+        <v>0.274239940983987</v>
       </c>
       <c r="M102">
-        <v>0.5784268975257874</v>
+        <v>0.5096397706467002</v>
       </c>
       <c r="N102" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="1">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>114</v>
       </c>
       <c r="C103" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D103">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F103">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="G103" t="s">
+        <v>179</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="J103">
-        <v>1.280858159065247</v>
+        <v>0.4838093817234039</v>
       </c>
       <c r="K103">
-        <v>1.571866273880005</v>
+        <v>0.7679911255836487</v>
       </c>
       <c r="L103">
-        <v>0.5020025968551636</v>
+        <v>0.2920188903808594</v>
       </c>
       <c r="M103">
-        <v>0.5715242624282837</v>
+        <v>0.4885215759277344</v>
       </c>
       <c r="N103" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>115</v>
       </c>
       <c r="C104" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D104">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F104">
-        <v>50</v>
+        <v>70</v>
+      </c>
+      <c r="G104" t="s">
+        <v>175</v>
       </c>
       <c r="H104">
-        <v>2</v>
-      </c>
-      <c r="I104">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>1.381091356277466</v>
+        <v>4.188331447709003</v>
       </c>
       <c r="K104">
-        <v>1.577436804771423</v>
+        <v>4.10597406706299</v>
       </c>
       <c r="L104">
-        <v>0.5347433686256409</v>
+        <v>2.935580090372503</v>
       </c>
       <c r="M104">
-        <v>0.5808306336402893</v>
+        <v>2.967019961543019</v>
       </c>
       <c r="N104" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="1">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>116</v>
       </c>
       <c r="C105" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D105">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F105">
         <v>70</v>
       </c>
+      <c r="G105" t="s">
+        <v>176</v>
+      </c>
       <c r="H105">
-        <v>2</v>
-      </c>
-      <c r="I105">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>1.424986124038696</v>
+        <v>0.5697573910631055</v>
       </c>
       <c r="K105">
-        <v>1.523117899894714</v>
+        <v>0.9608026759866911</v>
       </c>
       <c r="L105">
-        <v>0.5621580481529236</v>
+        <v>0.364260683570509</v>
       </c>
       <c r="M105">
-        <v>0.5889738798141479</v>
+        <v>0.5811764619317522</v>
       </c>
       <c r="N105" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="1">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>117</v>
       </c>
       <c r="C106" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D106">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F106">
-        <v>100</v>
+        <v>70</v>
+      </c>
+      <c r="G106" t="s">
+        <v>177</v>
       </c>
       <c r="H106">
-        <v>2</v>
-      </c>
-      <c r="I106">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J106">
-        <v>1.425348401069641</v>
+        <v>0.9698640901372603</v>
       </c>
       <c r="K106">
-        <v>1.526179552078247</v>
+        <v>1.063318893510254</v>
       </c>
       <c r="L106">
-        <v>0.5523317456245422</v>
+        <v>0.6088690241706901</v>
       </c>
       <c r="M106">
-        <v>0.5742737054824829</v>
+        <v>0.6767982469438569</v>
       </c>
       <c r="N106" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>118</v>
       </c>
       <c r="C107" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>70</v>
+      </c>
+      <c r="G107" t="s">
+        <v>178</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>5000</v>
       </c>
       <c r="J107">
-        <v>1.233824349729843</v>
+        <v>0.4928132297110079</v>
       </c>
       <c r="K107">
-        <v>1.357822380127588</v>
+        <v>0.938022485863393</v>
       </c>
       <c r="L107">
-        <v>0.7645135423199171</v>
+        <v>0.2949154362003211</v>
       </c>
       <c r="M107">
-        <v>0.8625358425384447</v>
+        <v>0.5590360544139376</v>
       </c>
       <c r="N107" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>119</v>
       </c>
       <c r="C108" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>70</v>
+      </c>
+      <c r="G108" t="s">
+        <v>179</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>10000</v>
       </c>
       <c r="J108">
-        <v>3.98973225355808</v>
+        <v>0.4906975626945496</v>
       </c>
       <c r="K108">
-        <v>3.863054209156559</v>
+        <v>0.7851766347885132</v>
       </c>
       <c r="L108">
-        <v>3.277443904642548</v>
+        <v>0.2930484414100647</v>
       </c>
       <c r="M108">
-        <v>3.174425371108237</v>
+        <v>0.5049054622650146</v>
       </c>
       <c r="N108" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
         <v>120</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E109">
         <v>2</v>
       </c>
+      <c r="F109">
+        <v>100</v>
+      </c>
+      <c r="G109" t="s">
+        <v>175</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>4.246577002981663</v>
+      </c>
       <c r="K109">
-        <v>0.7071548871534311</v>
+        <v>4.187068742992071</v>
+      </c>
+      <c r="L109">
+        <v>2.954522886017267</v>
       </c>
       <c r="M109">
-        <v>0.5081766289410362</v>
+        <v>2.994755187024199</v>
       </c>
       <c r="N109" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="1">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
         <v>121</v>
       </c>
       <c r="C110" t="s">
+        <v>170</v>
+      </c>
+      <c r="D110">
+        <v>10</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>100</v>
+      </c>
+      <c r="G110" t="s">
+        <v>176</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0.5749420788938009</v>
+      </c>
+      <c r="K110">
+        <v>0.8909904137579534</v>
+      </c>
+      <c r="L110">
+        <v>0.3690736498548656</v>
+      </c>
+      <c r="M110">
+        <v>0.6019888044078945</v>
+      </c>
+      <c r="N110" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111" t="s">
+        <v>170</v>
+      </c>
+      <c r="D111">
+        <v>10</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>100</v>
+      </c>
+      <c r="G111" t="s">
+        <v>177</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0.9886911235667416</v>
+      </c>
+      <c r="K111">
+        <v>1.076925389420041</v>
+      </c>
+      <c r="L111">
+        <v>0.6238286326400917</v>
+      </c>
+      <c r="M111">
+        <v>0.6816649644603233</v>
+      </c>
+      <c r="N111" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" t="s">
+        <v>170</v>
+      </c>
+      <c r="D112">
+        <v>10</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>100</v>
+      </c>
+      <c r="G112" t="s">
+        <v>178</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>5000</v>
+      </c>
+      <c r="J112">
+        <v>0.4849800822419225</v>
+      </c>
+      <c r="K112">
+        <v>0.9031080514526529</v>
+      </c>
+      <c r="L112">
+        <v>0.2898227051206786</v>
+      </c>
+      <c r="M112">
+        <v>0.5507847195058844</v>
+      </c>
+      <c r="N112" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>124</v>
+      </c>
+      <c r="C113" t="s">
+        <v>170</v>
+      </c>
+      <c r="D113">
+        <v>10</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>100</v>
+      </c>
+      <c r="G113" t="s">
+        <v>179</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>10000</v>
+      </c>
+      <c r="J113">
+        <v>0.4821204245090485</v>
+      </c>
+      <c r="K113">
+        <v>0.7891874313354492</v>
+      </c>
+      <c r="L113">
+        <v>0.2877389788627625</v>
+      </c>
+      <c r="M113">
+        <v>0.5087140798568726</v>
+      </c>
+      <c r="N113" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="1">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" t="s">
+        <v>170</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>10000</v>
+      </c>
+      <c r="J114">
+        <v>0.502784788608551</v>
+      </c>
+      <c r="K114">
+        <v>0.7629355788230896</v>
+      </c>
+      <c r="L114">
+        <v>0.4867032170295715</v>
+      </c>
+      <c r="M114">
+        <v>0.4867032170295715</v>
+      </c>
+      <c r="N114" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="1">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
         <v>126</v>
       </c>
-      <c r="K110">
+      <c r="C115" t="s">
+        <v>170</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>10000</v>
+      </c>
+      <c r="J115">
+        <v>0.4920576214790344</v>
+      </c>
+      <c r="K115">
+        <v>0.74643874168396</v>
+      </c>
+      <c r="L115">
+        <v>0.475677102804184</v>
+      </c>
+      <c r="M115">
+        <v>0.475677102804184</v>
+      </c>
+      <c r="N115" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" s="1">
+        <v>2</v>
+      </c>
+      <c r="B116" t="s">
+        <v>127</v>
+      </c>
+      <c r="C116" t="s">
+        <v>170</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>10000</v>
+      </c>
+      <c r="J116">
+        <v>0.6566911935806274</v>
+      </c>
+      <c r="K116">
+        <v>0.7833381891250609</v>
+      </c>
+      <c r="L116">
+        <v>0.4924018383026123</v>
+      </c>
+      <c r="M116">
+        <v>0.4924018383026123</v>
+      </c>
+      <c r="N116" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" s="1">
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
+        <v>128</v>
+      </c>
+      <c r="C117" t="s">
+        <v>170</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>10000</v>
+      </c>
+      <c r="J117">
+        <v>0.6142827272415161</v>
+      </c>
+      <c r="K117">
+        <v>0.7515823245048523</v>
+      </c>
+      <c r="L117">
+        <v>0.4637706279754639</v>
+      </c>
+      <c r="M117">
+        <v>0.4637706279754639</v>
+      </c>
+      <c r="N117" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" s="1">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>129</v>
+      </c>
+      <c r="C118" t="s">
+        <v>170</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>10000</v>
+      </c>
+      <c r="J118">
+        <v>0.6181010007858276</v>
+      </c>
+      <c r="K118">
+        <v>0.7336056232452393</v>
+      </c>
+      <c r="L118">
+        <v>0.4738454222679138</v>
+      </c>
+      <c r="M118">
+        <v>0.4738454222679138</v>
+      </c>
+      <c r="N118" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" s="1">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>130</v>
+      </c>
+      <c r="C119" t="s">
+        <v>170</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>10000</v>
+      </c>
+      <c r="J119">
+        <v>0.6610723733901978</v>
+      </c>
+      <c r="K119">
+        <v>0.7827129364013672</v>
+      </c>
+      <c r="L119">
+        <v>0.4912989139556885</v>
+      </c>
+      <c r="M119">
+        <v>0.4912989139556885</v>
+      </c>
+      <c r="N119" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" s="1">
+        <v>6</v>
+      </c>
+      <c r="B120" t="s">
+        <v>131</v>
+      </c>
+      <c r="C120" t="s">
+        <v>170</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="H120">
+        <v>2</v>
+      </c>
+      <c r="I120">
+        <v>10000</v>
+      </c>
+      <c r="J120">
+        <v>0.6720488667488098</v>
+      </c>
+      <c r="K120">
+        <v>0.7379122972488403</v>
+      </c>
+      <c r="L120">
+        <v>0.4661184251308441</v>
+      </c>
+      <c r="M120">
+        <v>0.4661184251308441</v>
+      </c>
+      <c r="N120" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" s="1">
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121" t="s">
+        <v>170</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+      <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121">
+        <v>10000</v>
+      </c>
+      <c r="J121">
+        <v>0.6325932741165161</v>
+      </c>
+      <c r="K121">
+        <v>0.7514798045158386</v>
+      </c>
+      <c r="L121">
+        <v>0.4698392748832703</v>
+      </c>
+      <c r="M121">
+        <v>0.4698392748832703</v>
+      </c>
+      <c r="N121" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" s="1">
+        <v>8</v>
+      </c>
+      <c r="B122" t="s">
+        <v>133</v>
+      </c>
+      <c r="C122" t="s">
+        <v>171</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>10000</v>
+      </c>
+      <c r="J122">
+        <v>0.6911980509757996</v>
+      </c>
+      <c r="K122">
+        <v>1.32979416847229</v>
+      </c>
+      <c r="L122">
+        <v>0.8241565823554993</v>
+      </c>
+      <c r="M122">
+        <v>0.8241565823554993</v>
+      </c>
+      <c r="N122" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" s="1">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>134</v>
+      </c>
+      <c r="C123" t="s">
+        <v>172</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>10000</v>
+      </c>
+      <c r="J123">
+        <v>0.7621762752532959</v>
+      </c>
+      <c r="K123">
+        <v>1.278318524360657</v>
+      </c>
+      <c r="L123">
+        <v>0.7848275899887085</v>
+      </c>
+      <c r="M123">
+        <v>0.7848275899887085</v>
+      </c>
+      <c r="N123" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" s="1">
+        <v>10</v>
+      </c>
+      <c r="B124" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124" t="s">
+        <v>173</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0.4524757705116624</v>
+      </c>
+      <c r="K124">
+        <v>0.7646869400037543</v>
+      </c>
+      <c r="L124">
+        <v>0.2675646884543371</v>
+      </c>
+      <c r="M124">
+        <v>0.471043460239115</v>
+      </c>
+      <c r="N124" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" s="1">
+        <v>11</v>
+      </c>
+      <c r="B125" t="s">
+        <v>136</v>
+      </c>
+      <c r="C125" t="s">
+        <v>170</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>10000</v>
+      </c>
+      <c r="J125">
+        <v>1.379218339920044</v>
+      </c>
+      <c r="K125">
+        <v>2.12820816040039</v>
+      </c>
+      <c r="L125">
+        <v>1.576656341552734</v>
+      </c>
+      <c r="M125">
+        <v>1.576656341552734</v>
+      </c>
+      <c r="N125" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" s="1">
+        <v>12</v>
+      </c>
+      <c r="B126" t="s">
+        <v>137</v>
+      </c>
+      <c r="C126" t="s">
+        <v>170</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>10000</v>
+      </c>
+      <c r="J126">
+        <v>1.356328010559082</v>
+      </c>
+      <c r="K126">
+        <v>1.953316330909729</v>
+      </c>
+      <c r="L126">
+        <v>1.425268888473511</v>
+      </c>
+      <c r="M126">
+        <v>1.425268888473511</v>
+      </c>
+      <c r="N126" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" s="1">
+        <v>13</v>
+      </c>
+      <c r="B127" t="s">
+        <v>138</v>
+      </c>
+      <c r="C127" t="s">
+        <v>170</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>10000</v>
+      </c>
+      <c r="J127">
+        <v>1.218623042106628</v>
+      </c>
+      <c r="K127">
+        <v>1.931608915328979</v>
+      </c>
+      <c r="L127">
+        <v>1.40399432182312</v>
+      </c>
+      <c r="M127">
+        <v>1.40399432182312</v>
+      </c>
+      <c r="N127" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" s="1">
+        <v>14</v>
+      </c>
+      <c r="B128" t="s">
+        <v>139</v>
+      </c>
+      <c r="C128" t="s">
+        <v>171</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>10000</v>
+      </c>
+      <c r="J128">
+        <v>1.818891525268555</v>
+      </c>
+      <c r="K128">
+        <v>2.689780950546265</v>
+      </c>
+      <c r="L128">
+        <v>2.058792591094971</v>
+      </c>
+      <c r="M128">
+        <v>2.058792591094971</v>
+      </c>
+      <c r="N128" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" s="1">
+        <v>15</v>
+      </c>
+      <c r="B129" t="s">
+        <v>140</v>
+      </c>
+      <c r="C129" t="s">
+        <v>172</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>10000</v>
+      </c>
+      <c r="J129">
+        <v>1.861822128295898</v>
+      </c>
+      <c r="K129">
+        <v>2.64080286026001</v>
+      </c>
+      <c r="L129">
+        <v>2.015515565872192</v>
+      </c>
+      <c r="M129">
+        <v>2.015515565872192</v>
+      </c>
+      <c r="N129" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" s="1">
+        <v>16</v>
+      </c>
+      <c r="B130" t="s">
+        <v>141</v>
+      </c>
+      <c r="C130" t="s">
+        <v>173</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="J130">
+        <v>0.460309834240309</v>
+      </c>
+      <c r="K130">
+        <v>0.7486888345094803</v>
+      </c>
+      <c r="L130">
+        <v>0.2712954899951439</v>
+      </c>
+      <c r="M130">
+        <v>0.4650816831083652</v>
+      </c>
+      <c r="N130" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" s="1">
+        <v>17</v>
+      </c>
+      <c r="B131" t="s">
+        <v>142</v>
+      </c>
+      <c r="C131" t="s">
+        <v>170</v>
+      </c>
+      <c r="D131">
+        <v>6</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+      <c r="F131">
+        <v>30</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>10000</v>
+      </c>
+      <c r="J131">
+        <v>0.2105832099914551</v>
+      </c>
+      <c r="K131">
+        <v>0.2114661484956741</v>
+      </c>
+      <c r="L131">
+        <v>0.1283347606658936</v>
+      </c>
+      <c r="M131">
+        <v>0.1288321763277054</v>
+      </c>
+      <c r="N131" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132" s="1">
+        <v>18</v>
+      </c>
+      <c r="B132" t="s">
+        <v>143</v>
+      </c>
+      <c r="C132" t="s">
+        <v>170</v>
+      </c>
+      <c r="D132">
+        <v>6</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
+      <c r="F132">
+        <v>50</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>20000</v>
+      </c>
+      <c r="J132">
+        <v>0.2000058442354203</v>
+      </c>
+      <c r="K132">
+        <v>0.2017096728086472</v>
+      </c>
+      <c r="L132">
+        <v>0.121207594871521</v>
+      </c>
+      <c r="M132">
+        <v>0.1223251223564148</v>
+      </c>
+      <c r="N132" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" s="1">
+        <v>19</v>
+      </c>
+      <c r="B133" t="s">
+        <v>144</v>
+      </c>
+      <c r="C133" t="s">
+        <v>170</v>
+      </c>
+      <c r="D133">
+        <v>6</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+      <c r="F133">
+        <v>70</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>30000</v>
+      </c>
+      <c r="J133">
+        <v>0.1975597441196441</v>
+      </c>
+      <c r="K133">
+        <v>0.1998907178640366</v>
+      </c>
+      <c r="L133">
+        <v>0.1172986179590225</v>
+      </c>
+      <c r="M133">
+        <v>0.1185832843184471</v>
+      </c>
+      <c r="N133" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" s="1">
+        <v>20</v>
+      </c>
+      <c r="B134" t="s">
+        <v>145</v>
+      </c>
+      <c r="C134" t="s">
+        <v>170</v>
+      </c>
+      <c r="D134">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="F134">
+        <v>100</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>40000</v>
+      </c>
+      <c r="J134">
+        <v>0.1982558071613312</v>
+      </c>
+      <c r="K134">
+        <v>0.2000072449445724</v>
+      </c>
+      <c r="L134">
+        <v>0.1172549277544021</v>
+      </c>
+      <c r="M134">
+        <v>0.1180950850248337</v>
+      </c>
+      <c r="N134" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" s="1">
+        <v>21</v>
+      </c>
+      <c r="B135" t="s">
+        <v>146</v>
+      </c>
+      <c r="C135" t="s">
+        <v>170</v>
+      </c>
+      <c r="D135">
+        <v>6</v>
+      </c>
+      <c r="E135">
+        <v>4</v>
+      </c>
+      <c r="F135">
+        <v>30</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>10000</v>
+      </c>
+      <c r="J135">
+        <v>0.2866075038909912</v>
+      </c>
+      <c r="K135">
+        <v>0.2878729701042175</v>
+      </c>
+      <c r="L135">
+        <v>0.1839323937892914</v>
+      </c>
+      <c r="M135">
+        <v>0.1848417073488235</v>
+      </c>
+      <c r="N135" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" s="1">
+        <v>22</v>
+      </c>
+      <c r="B136" t="s">
+        <v>147</v>
+      </c>
+      <c r="C136" t="s">
+        <v>170</v>
+      </c>
+      <c r="D136">
+        <v>6</v>
+      </c>
+      <c r="E136">
+        <v>4</v>
+      </c>
+      <c r="F136">
+        <v>50</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>20000</v>
+      </c>
+      <c r="J136">
+        <v>0.2964401841163635</v>
+      </c>
+      <c r="K136">
+        <v>0.2975829541683197</v>
+      </c>
+      <c r="L136">
+        <v>0.1902072876691819</v>
+      </c>
+      <c r="M136">
+        <v>0.1909065693616867</v>
+      </c>
+      <c r="N136" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137" s="1">
+        <v>23</v>
+      </c>
+      <c r="B137" t="s">
+        <v>148</v>
+      </c>
+      <c r="C137" t="s">
+        <v>170</v>
+      </c>
+      <c r="D137">
+        <v>6</v>
+      </c>
+      <c r="E137">
+        <v>4</v>
+      </c>
+      <c r="F137">
+        <v>70</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>30000</v>
+      </c>
+      <c r="J137">
+        <v>0.3012393414974213</v>
+      </c>
+      <c r="K137">
+        <v>0.3023898601531982</v>
+      </c>
+      <c r="L137">
+        <v>0.1892169117927552</v>
+      </c>
+      <c r="M137">
+        <v>0.1902729719877243</v>
+      </c>
+      <c r="N137" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138" s="1">
+        <v>24</v>
+      </c>
+      <c r="B138" t="s">
+        <v>149</v>
+      </c>
+      <c r="C138" t="s">
+        <v>170</v>
+      </c>
+      <c r="D138">
+        <v>6</v>
+      </c>
+      <c r="E138">
+        <v>4</v>
+      </c>
+      <c r="F138">
+        <v>100</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>40000</v>
+      </c>
+      <c r="J138">
+        <v>0.3009843826293945</v>
+      </c>
+      <c r="K138">
+        <v>0.302109956741333</v>
+      </c>
+      <c r="L138">
+        <v>0.1900999248027801</v>
+      </c>
+      <c r="M138">
+        <v>0.190864771604538</v>
+      </c>
+      <c r="N138" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139" s="1">
+        <v>25</v>
+      </c>
+      <c r="B139" t="s">
+        <v>150</v>
+      </c>
+      <c r="C139" t="s">
+        <v>170</v>
+      </c>
+      <c r="D139">
+        <v>7</v>
+      </c>
+      <c r="E139">
+        <v>4</v>
+      </c>
+      <c r="F139">
+        <v>30</v>
+      </c>
+      <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139">
+        <v>50000</v>
+      </c>
+      <c r="J139">
+        <v>1.369324326515198</v>
+      </c>
+      <c r="K139">
+        <v>1.58485734462738</v>
+      </c>
+      <c r="L139">
+        <v>0.5633760690689087</v>
+      </c>
+      <c r="M139">
+        <v>0.6471161842346191</v>
+      </c>
+      <c r="N139" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140" s="1">
+        <v>26</v>
+      </c>
+      <c r="B140" t="s">
+        <v>151</v>
+      </c>
+      <c r="C140" t="s">
+        <v>170</v>
+      </c>
+      <c r="D140">
+        <v>7</v>
+      </c>
+      <c r="E140">
+        <v>4</v>
+      </c>
+      <c r="F140">
+        <v>50</v>
+      </c>
+      <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
+        <v>50000</v>
+      </c>
+      <c r="J140">
+        <v>1.405500769615173</v>
+      </c>
+      <c r="K140">
+        <v>1.511763334274292</v>
+      </c>
+      <c r="L140">
+        <v>0.5837810039520264</v>
+      </c>
+      <c r="M140">
+        <v>0.6225002408027649</v>
+      </c>
+      <c r="N140" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141" s="1">
+        <v>27</v>
+      </c>
+      <c r="B141" t="s">
+        <v>152</v>
+      </c>
+      <c r="C141" t="s">
+        <v>170</v>
+      </c>
+      <c r="D141">
+        <v>7</v>
+      </c>
+      <c r="E141">
+        <v>4</v>
+      </c>
+      <c r="F141">
+        <v>70</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141">
+        <v>60000</v>
+      </c>
+      <c r="J141">
+        <v>1.392964839935303</v>
+      </c>
+      <c r="K141">
+        <v>1.474447011947632</v>
+      </c>
+      <c r="L141">
+        <v>0.5669248700141907</v>
+      </c>
+      <c r="M141">
+        <v>0.5971564054489136</v>
+      </c>
+      <c r="N141" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" s="1">
+        <v>28</v>
+      </c>
+      <c r="B142" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" t="s">
+        <v>170</v>
+      </c>
+      <c r="D142">
+        <v>7</v>
+      </c>
+      <c r="E142">
+        <v>4</v>
+      </c>
+      <c r="F142">
+        <v>100</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
+        <v>80000</v>
+      </c>
+      <c r="J142">
+        <v>1.412371277809143</v>
+      </c>
+      <c r="K142">
+        <v>1.479416847229004</v>
+      </c>
+      <c r="L142">
+        <v>0.5545896291732788</v>
+      </c>
+      <c r="M142">
+        <v>0.5784268975257874</v>
+      </c>
+      <c r="N142" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143" s="1">
+        <v>29</v>
+      </c>
+      <c r="B143" t="s">
+        <v>154</v>
+      </c>
+      <c r="C143" t="s">
+        <v>170</v>
+      </c>
+      <c r="D143">
+        <v>8</v>
+      </c>
+      <c r="E143">
+        <v>4</v>
+      </c>
+      <c r="F143">
+        <v>30</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
+        <v>50000</v>
+      </c>
+      <c r="J143">
+        <v>1.280858159065247</v>
+      </c>
+      <c r="K143">
+        <v>1.571866273880005</v>
+      </c>
+      <c r="L143">
+        <v>0.5020025968551636</v>
+      </c>
+      <c r="M143">
+        <v>0.5715242624282837</v>
+      </c>
+      <c r="N143" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" s="1">
+        <v>30</v>
+      </c>
+      <c r="B144" t="s">
+        <v>155</v>
+      </c>
+      <c r="C144" t="s">
+        <v>170</v>
+      </c>
+      <c r="D144">
+        <v>8</v>
+      </c>
+      <c r="E144">
+        <v>4</v>
+      </c>
+      <c r="F144">
+        <v>50</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144">
+        <v>50000</v>
+      </c>
+      <c r="J144">
+        <v>1.381091356277466</v>
+      </c>
+      <c r="K144">
+        <v>1.577436804771423</v>
+      </c>
+      <c r="L144">
+        <v>0.5347433686256409</v>
+      </c>
+      <c r="M144">
+        <v>0.5808306336402893</v>
+      </c>
+      <c r="N144" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" s="1">
+        <v>31</v>
+      </c>
+      <c r="B145" t="s">
+        <v>156</v>
+      </c>
+      <c r="C145" t="s">
+        <v>170</v>
+      </c>
+      <c r="D145">
+        <v>8</v>
+      </c>
+      <c r="E145">
+        <v>4</v>
+      </c>
+      <c r="F145">
+        <v>70</v>
+      </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145">
+        <v>60000</v>
+      </c>
+      <c r="J145">
+        <v>1.424986124038696</v>
+      </c>
+      <c r="K145">
+        <v>1.523117899894714</v>
+      </c>
+      <c r="L145">
+        <v>0.5621580481529236</v>
+      </c>
+      <c r="M145">
+        <v>0.5889738798141479</v>
+      </c>
+      <c r="N145" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" s="1">
+        <v>32</v>
+      </c>
+      <c r="B146" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" t="s">
+        <v>170</v>
+      </c>
+      <c r="D146">
+        <v>8</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+      <c r="F146">
+        <v>100</v>
+      </c>
+      <c r="H146">
+        <v>2</v>
+      </c>
+      <c r="I146">
+        <v>80000</v>
+      </c>
+      <c r="J146">
+        <v>1.425348401069641</v>
+      </c>
+      <c r="K146">
+        <v>1.526179552078247</v>
+      </c>
+      <c r="L146">
+        <v>0.5523317456245422</v>
+      </c>
+      <c r="M146">
+        <v>0.5742737054824829</v>
+      </c>
+      <c r="N146" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" s="1">
+        <v>33</v>
+      </c>
+      <c r="B147" t="s">
+        <v>158</v>
+      </c>
+      <c r="C147" t="s">
+        <v>170</v>
+      </c>
+      <c r="D147">
+        <v>9</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="F147">
+        <v>30</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>10000</v>
+      </c>
+      <c r="J147">
+        <v>0.2588068842887878</v>
+      </c>
+      <c r="K147">
+        <v>0.2693620622158051</v>
+      </c>
+      <c r="L147">
+        <v>0.1721338629722595</v>
+      </c>
+      <c r="M147">
+        <v>0.1792676001787185</v>
+      </c>
+      <c r="N147" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" s="1">
+        <v>34</v>
+      </c>
+      <c r="B148" t="s">
+        <v>159</v>
+      </c>
+      <c r="C148" t="s">
+        <v>170</v>
+      </c>
+      <c r="D148">
+        <v>9</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148">
+        <v>50</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>20000</v>
+      </c>
+      <c r="J148">
+        <v>0.240572452545166</v>
+      </c>
+      <c r="K148">
+        <v>0.2378727495670319</v>
+      </c>
+      <c r="L148">
+        <v>0.1609509885311127</v>
+      </c>
+      <c r="M148">
+        <v>0.1590951681137085</v>
+      </c>
+      <c r="N148" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" s="1">
+        <v>35</v>
+      </c>
+      <c r="B149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C149" t="s">
+        <v>170</v>
+      </c>
+      <c r="D149">
+        <v>9</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149">
+        <v>70</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>30000</v>
+      </c>
+      <c r="J149">
+        <v>0.2323575317859649</v>
+      </c>
+      <c r="K149">
+        <v>0.233847975730896</v>
+      </c>
+      <c r="L149">
+        <v>0.1544671356678009</v>
+      </c>
+      <c r="M149">
+        <v>0.1552767753601074</v>
+      </c>
+      <c r="N149" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150" s="1">
+        <v>36</v>
+      </c>
+      <c r="B150" t="s">
+        <v>161</v>
+      </c>
+      <c r="C150" t="s">
+        <v>170</v>
+      </c>
+      <c r="D150">
+        <v>9</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150">
+        <v>100</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>40000</v>
+      </c>
+      <c r="J150">
+        <v>0.2097567021846771</v>
+      </c>
+      <c r="K150">
+        <v>0.2088469266891479</v>
+      </c>
+      <c r="L150">
+        <v>0.1358418017625809</v>
+      </c>
+      <c r="M150">
+        <v>0.1350011229515075</v>
+      </c>
+      <c r="N150" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" s="1">
+        <v>37</v>
+      </c>
+      <c r="B151" t="s">
+        <v>162</v>
+      </c>
+      <c r="C151" t="s">
+        <v>170</v>
+      </c>
+      <c r="D151">
+        <v>10</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151">
+        <v>30</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>10000</v>
+      </c>
+      <c r="J151">
+        <v>1.960571050643921</v>
+      </c>
+      <c r="K151">
+        <v>1.908050298690796</v>
+      </c>
+      <c r="L151">
+        <v>0.9066921472549438</v>
+      </c>
+      <c r="M151">
+        <v>0.9101401567459106</v>
+      </c>
+      <c r="N151" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" s="1">
+        <v>38</v>
+      </c>
+      <c r="B152" t="s">
+        <v>163</v>
+      </c>
+      <c r="C152" t="s">
+        <v>170</v>
+      </c>
+      <c r="D152">
+        <v>10</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152">
+        <v>50</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>20000</v>
+      </c>
+      <c r="J152">
+        <v>2.085132598876953</v>
+      </c>
+      <c r="K152">
+        <v>2.08337926864624</v>
+      </c>
+      <c r="L152">
+        <v>1.002095460891724</v>
+      </c>
+      <c r="M152">
+        <v>1.008879899978638</v>
+      </c>
+      <c r="N152" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" s="1">
+        <v>39</v>
+      </c>
+      <c r="B153" t="s">
+        <v>164</v>
+      </c>
+      <c r="C153" t="s">
+        <v>170</v>
+      </c>
+      <c r="D153">
+        <v>10</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153">
+        <v>70</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>30000</v>
+      </c>
+      <c r="J153">
+        <v>2.028343200683594</v>
+      </c>
+      <c r="K153">
+        <v>2.028639554977417</v>
+      </c>
+      <c r="L153">
+        <v>0.9447653889656068</v>
+      </c>
+      <c r="M153">
+        <v>0.946832835674286</v>
+      </c>
+      <c r="N153" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" s="1">
+        <v>40</v>
+      </c>
+      <c r="B154" t="s">
+        <v>165</v>
+      </c>
+      <c r="C154" t="s">
+        <v>170</v>
+      </c>
+      <c r="D154">
+        <v>10</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154">
+        <v>100</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>40000</v>
+      </c>
+      <c r="J154">
+        <v>1.984005928039551</v>
+      </c>
+      <c r="K154">
+        <v>1.987738370895386</v>
+      </c>
+      <c r="L154">
+        <v>0.9705012440681458</v>
+      </c>
+      <c r="M154">
+        <v>0.9749662280082704</v>
+      </c>
+      <c r="N154" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155" s="1">
+        <v>41</v>
+      </c>
+      <c r="B155" t="s">
+        <v>166</v>
+      </c>
+      <c r="C155" t="s">
+        <v>174</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>1.233824349729843</v>
+      </c>
+      <c r="K155">
+        <v>1.357822380127588</v>
+      </c>
+      <c r="L155">
+        <v>0.7645135423199171</v>
+      </c>
+      <c r="M155">
+        <v>0.8625358425384447</v>
+      </c>
+      <c r="N155" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156" s="1">
+        <v>42</v>
+      </c>
+      <c r="B156" t="s">
+        <v>167</v>
+      </c>
+      <c r="C156" t="s">
+        <v>174</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="J156">
+        <v>3.98973225355808</v>
+      </c>
+      <c r="K156">
+        <v>3.863054209156559</v>
+      </c>
+      <c r="L156">
+        <v>3.277443904642548</v>
+      </c>
+      <c r="M156">
+        <v>3.174425371108237</v>
+      </c>
+      <c r="N156" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157" s="1">
+        <v>43</v>
+      </c>
+      <c r="B157" t="s">
+        <v>168</v>
+      </c>
+      <c r="C157" t="s">
+        <v>170</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="K157">
+        <v>0.7071548871534311</v>
+      </c>
+      <c r="M157">
+        <v>0.5081766289410362</v>
+      </c>
+      <c r="N157" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158" s="1">
+        <v>44</v>
+      </c>
+      <c r="B158" t="s">
+        <v>169</v>
+      </c>
+      <c r="C158" t="s">
+        <v>174</v>
+      </c>
+      <c r="K158">
         <v>0.6688095868566116</v>
       </c>
-      <c r="M110">
+      <c r="M158">
         <v>0.4229790817339437</v>
       </c>
-      <c r="N110" t="s">
-        <v>138</v>
+      <c r="N158" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/results/results_full.xlsx
+++ b/results/results_full.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="199">
   <si>
     <t>id</t>
   </si>
@@ -526,6 +526,36 @@
     <t>prelesbs</t>
   </si>
   <si>
+    <t>MLP011D0</t>
+  </si>
+  <si>
+    <t>MLP021D0</t>
+  </si>
+  <si>
+    <t>MLP031D0</t>
+  </si>
+  <si>
+    <t>MLP041D0</t>
+  </si>
+  <si>
+    <t>MLP051D0</t>
+  </si>
+  <si>
+    <t>MLP0S1D0</t>
+  </si>
+  <si>
+    <t>MLP0S2D0</t>
+  </si>
+  <si>
+    <t>MLP0S3D0</t>
+  </si>
+  <si>
+    <t>MLP0S4D0</t>
+  </si>
+  <si>
+    <t>MLP0S5D0</t>
+  </si>
+  <si>
     <t>mlp</t>
   </si>
   <si>
@@ -575,6 +605,12 @@
   </si>
   <si>
     <t>borealsitesprediction</t>
+  </si>
+  <si>
+    <t>sparse_selected</t>
+  </si>
+  <si>
+    <t>sparse_finetuning</t>
   </si>
 </sst>
 </file>
@@ -932,7 +968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N158"/>
+  <dimension ref="A1:N196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -987,7 +1023,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -999,7 +1035,7 @@
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1017,7 +1053,7 @@
         <v>2.295948141760763</v>
       </c>
       <c r="N2" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1028,7 +1064,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -1040,7 +1076,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1058,7 +1094,7 @@
         <v>0.5930858485938422</v>
       </c>
       <c r="N3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1069,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -1081,7 +1117,7 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1093,13 +1129,13 @@
         <v>1.51578419809028</v>
       </c>
       <c r="L4">
-        <v>1.137315122409585</v>
+        <v>1.137315122409584</v>
       </c>
       <c r="M4">
         <v>1.150025090061045</v>
       </c>
       <c r="N4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1110,7 +1146,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -1122,7 +1158,7 @@
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1143,7 +1179,7 @@
         <v>0.5832622654155669</v>
       </c>
       <c r="N5" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1154,7 +1190,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1166,7 +1202,7 @@
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1187,7 +1223,7 @@
         <v>0.4812776446342468</v>
       </c>
       <c r="N6" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1198,7 +1234,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1210,7 +1246,7 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1231,7 +1267,7 @@
         <v>0.7414291501045227</v>
       </c>
       <c r="N7" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1242,7 +1278,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -1254,7 +1290,7 @@
         <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1272,7 +1308,7 @@
         <v>2.340891752810381</v>
       </c>
       <c r="N8" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1283,7 +1319,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -1295,13 +1331,13 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.746921481759611</v>
+        <v>0.7469214817596109</v>
       </c>
       <c r="K9">
         <v>1.183868373303552</v>
@@ -1313,7 +1349,7 @@
         <v>0.6147918977557774</v>
       </c>
       <c r="N9" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1324,7 +1360,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -1336,7 +1372,7 @@
         <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1351,10 +1387,10 @@
         <v>1.094783689359843</v>
       </c>
       <c r="M10">
-        <v>1.118179583975027</v>
+        <v>1.118179583975028</v>
       </c>
       <c r="N10" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1365,7 +1401,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -1377,7 +1413,7 @@
         <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1398,7 +1434,7 @@
         <v>0.5311781606207406</v>
       </c>
       <c r="N11" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1409,7 +1445,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -1421,7 +1457,7 @@
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1442,7 +1478,7 @@
         <v>0.4907989501953125</v>
       </c>
       <c r="N12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1453,7 +1489,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -1465,7 +1501,7 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1486,7 +1522,7 @@
         <v>0.7006610631942749</v>
       </c>
       <c r="N13" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1497,7 +1533,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -1509,7 +1545,7 @@
         <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1527,7 +1563,7 @@
         <v>2.49624872574199</v>
       </c>
       <c r="N14" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1538,7 +1574,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -1550,7 +1586,7 @@
         <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1568,7 +1604,7 @@
         <v>0.6432635509771382</v>
       </c>
       <c r="N15" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1579,7 +1615,7 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -1591,7 +1627,7 @@
         <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1609,7 +1645,7 @@
         <v>1.193838636338288</v>
       </c>
       <c r="N16" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1620,7 +1656,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -1632,7 +1668,7 @@
         <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1653,7 +1689,7 @@
         <v>0.6003834391937174</v>
       </c>
       <c r="N17" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1664,7 +1700,7 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -1676,7 +1712,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1697,7 +1733,7 @@
         <v>0.4907381534576416</v>
       </c>
       <c r="N18" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1708,7 +1744,7 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -1720,7 +1756,7 @@
         <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1741,7 +1777,7 @@
         <v>0.7322555780410767</v>
       </c>
       <c r="N19" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1752,7 +1788,7 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D20">
         <v>6</v>
@@ -1764,7 +1800,7 @@
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1782,7 +1818,7 @@
         <v>2.452256112198325</v>
       </c>
       <c r="N20" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1793,7 +1829,7 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -1805,7 +1841,7 @@
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1823,7 +1859,7 @@
         <v>0.613399646638439</v>
       </c>
       <c r="N21" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1834,7 +1870,7 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D22">
         <v>6</v>
@@ -1846,7 +1882,7 @@
         <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1864,7 +1900,7 @@
         <v>1.151578385099606</v>
       </c>
       <c r="N22" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1875,7 +1911,7 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -1887,7 +1923,7 @@
         <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1908,7 +1944,7 @@
         <v>0.5961708135046329</v>
       </c>
       <c r="N23" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1919,7 +1955,7 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -1931,7 +1967,7 @@
         <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1952,7 +1988,7 @@
         <v>0.5005717277526855</v>
       </c>
       <c r="N24" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1963,7 +1999,7 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D25">
         <v>6</v>
@@ -1975,7 +2011,7 @@
         <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1996,7 +2032,7 @@
         <v>0.7572842836380005</v>
       </c>
       <c r="N25" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2007,7 +2043,7 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D26">
         <v>7</v>
@@ -2019,7 +2055,7 @@
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2031,13 +2067,13 @@
         <v>10.38203207073011</v>
       </c>
       <c r="L26">
-        <v>6.229437798360602</v>
+        <v>6.229437798360603</v>
       </c>
       <c r="M26">
         <v>7.156459310618192</v>
       </c>
       <c r="N26" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2048,7 +2084,7 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -2060,7 +2096,7 @@
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2078,7 +2114,7 @@
         <v>0.7690979236193421</v>
       </c>
       <c r="N27" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2089,7 +2125,7 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D28">
         <v>7</v>
@@ -2101,7 +2137,7 @@
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2119,7 +2155,7 @@
         <v>1.939582945501945</v>
       </c>
       <c r="N28" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2130,7 +2166,7 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D29">
         <v>7</v>
@@ -2142,7 +2178,7 @@
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2163,7 +2199,7 @@
         <v>0.600033842944284</v>
       </c>
       <c r="N29" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2174,7 +2210,7 @@
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D30">
         <v>7</v>
@@ -2186,7 +2222,7 @@
         <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2207,7 +2243,7 @@
         <v>0.4874206483364105</v>
       </c>
       <c r="N30" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2218,7 +2254,7 @@
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D31">
         <v>7</v>
@@ -2230,7 +2266,7 @@
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2251,7 +2287,7 @@
         <v>0.8031153678894043</v>
       </c>
       <c r="N31" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2262,7 +2298,7 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D32">
         <v>7</v>
@@ -2274,13 +2310,13 @@
         <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>8.742085295754011</v>
+        <v>8.742085295754013</v>
       </c>
       <c r="K32">
         <v>7.005193112891305</v>
@@ -2289,10 +2325,10 @@
         <v>5.508570743702134</v>
       </c>
       <c r="M32">
-        <v>5.306436106149635</v>
+        <v>5.306436106149636</v>
       </c>
       <c r="N32" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2303,7 +2339,7 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D33">
         <v>7</v>
@@ -2315,7 +2351,7 @@
         <v>50</v>
       </c>
       <c r="G33" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2333,7 +2369,7 @@
         <v>0.8332226603483276</v>
       </c>
       <c r="N33" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2344,7 +2380,7 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D34">
         <v>7</v>
@@ -2356,7 +2392,7 @@
         <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2374,7 +2410,7 @@
         <v>1.806866226519419</v>
       </c>
       <c r="N34" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2385,7 +2421,7 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D35">
         <v>7</v>
@@ -2397,7 +2433,7 @@
         <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2412,13 +2448,13 @@
         <v>1.075063563529575</v>
       </c>
       <c r="L35">
-        <v>0.4950275527997577</v>
+        <v>0.4950275527997578</v>
       </c>
       <c r="M35">
         <v>0.6695464314580741</v>
       </c>
       <c r="N35" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2429,7 +2465,7 @@
         <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D36">
         <v>7</v>
@@ -2441,7 +2477,7 @@
         <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2462,7 +2498,7 @@
         <v>0.4906741976737976</v>
       </c>
       <c r="N36" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2473,7 +2509,7 @@
         <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D37">
         <v>7</v>
@@ -2485,7 +2521,7 @@
         <v>50</v>
       </c>
       <c r="G37" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2506,7 +2542,7 @@
         <v>0.8993344306945801</v>
       </c>
       <c r="N37" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2517,7 +2553,7 @@
         <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D38">
         <v>7</v>
@@ -2529,7 +2565,7 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2541,13 +2577,13 @@
         <v>7.156006714489902</v>
       </c>
       <c r="L38">
-        <v>5.438984149459307</v>
+        <v>5.438984149459308</v>
       </c>
       <c r="M38">
         <v>5.243360452543156</v>
       </c>
       <c r="N38" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2558,7 +2594,7 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D39">
         <v>7</v>
@@ -2570,7 +2606,7 @@
         <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2588,7 +2624,7 @@
         <v>0.7812450732794299</v>
       </c>
       <c r="N39" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2599,7 +2635,7 @@
         <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D40">
         <v>7</v>
@@ -2611,7 +2647,7 @@
         <v>70</v>
       </c>
       <c r="G40" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2629,7 +2665,7 @@
         <v>1.818543136674192</v>
       </c>
       <c r="N40" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2640,7 +2676,7 @@
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D41">
         <v>7</v>
@@ -2652,7 +2688,7 @@
         <v>70</v>
       </c>
       <c r="G41" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2673,7 +2709,7 @@
         <v>0.5857731127859427</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2684,7 +2720,7 @@
         <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D42">
         <v>7</v>
@@ -2696,7 +2732,7 @@
         <v>70</v>
       </c>
       <c r="G42" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2717,7 +2753,7 @@
         <v>0.492600679397583</v>
       </c>
       <c r="N42" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2728,7 +2764,7 @@
         <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D43">
         <v>7</v>
@@ -2740,7 +2776,7 @@
         <v>70</v>
       </c>
       <c r="G43" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2761,7 +2797,7 @@
         <v>0.9060245752334596</v>
       </c>
       <c r="N43" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2772,7 +2808,7 @@
         <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D44">
         <v>7</v>
@@ -2784,7 +2820,7 @@
         <v>100</v>
       </c>
       <c r="G44" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2796,13 +2832,13 @@
         <v>13.01063059834415</v>
       </c>
       <c r="L44">
-        <v>7.970917459785643</v>
+        <v>7.970917459785642</v>
       </c>
       <c r="M44">
-        <v>9.169138302429399</v>
+        <v>9.169138302429401</v>
       </c>
       <c r="N44" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2813,7 +2849,7 @@
         <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D45">
         <v>7</v>
@@ -2825,25 +2861,25 @@
         <v>100</v>
       </c>
       <c r="G45" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.9971738669133645</v>
+        <v>0.9971738669133644</v>
       </c>
       <c r="K45">
-        <v>0.9692713886289193</v>
+        <v>0.9692713886289192</v>
       </c>
       <c r="L45">
         <v>0.7037051429335435</v>
       </c>
       <c r="M45">
-        <v>0.7307312767841569</v>
+        <v>0.7307312767841571</v>
       </c>
       <c r="N45" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2854,7 +2890,7 @@
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D46">
         <v>7</v>
@@ -2866,7 +2902,7 @@
         <v>100</v>
       </c>
       <c r="G46" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2884,7 +2920,7 @@
         <v>1.61815399085998</v>
       </c>
       <c r="N46" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2895,7 +2931,7 @@
         <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D47">
         <v>7</v>
@@ -2907,7 +2943,7 @@
         <v>100</v>
       </c>
       <c r="G47" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2928,7 +2964,7 @@
         <v>0.6099151343854045</v>
       </c>
       <c r="N47" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2939,7 +2975,7 @@
         <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D48">
         <v>7</v>
@@ -2951,7 +2987,7 @@
         <v>100</v>
       </c>
       <c r="G48" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2972,7 +3008,7 @@
         <v>0.4953839182853699</v>
       </c>
       <c r="N48" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2983,7 +3019,7 @@
         <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D49">
         <v>7</v>
@@ -2995,7 +3031,7 @@
         <v>100</v>
       </c>
       <c r="G49" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -3016,7 +3052,7 @@
         <v>0.8256415128707886</v>
       </c>
       <c r="N49" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3027,7 +3063,7 @@
         <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D50">
         <v>8</v>
@@ -3039,13 +3075,13 @@
         <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>4.076357498729775</v>
+        <v>4.076357498729776</v>
       </c>
       <c r="K50">
         <v>4.020282028847351</v>
@@ -3057,7 +3093,7 @@
         <v>2.94637327588741</v>
       </c>
       <c r="N50" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3068,7 +3104,7 @@
         <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D51">
         <v>8</v>
@@ -3080,16 +3116,16 @@
         <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.9155739817374503</v>
+        <v>0.9155739817374504</v>
       </c>
       <c r="K51">
-        <v>0.9761511657434759</v>
+        <v>0.976151165743476</v>
       </c>
       <c r="L51">
         <v>0.6350351691539158</v>
@@ -3098,7 +3134,7 @@
         <v>0.711501340255003</v>
       </c>
       <c r="N51" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3109,7 +3145,7 @@
         <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D52">
         <v>8</v>
@@ -3121,13 +3157,13 @@
         <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>2.237444441309334</v>
+        <v>2.237444441309333</v>
       </c>
       <c r="K52">
         <v>2.172132039603001</v>
@@ -3139,7 +3175,7 @@
         <v>1.621275420525324</v>
       </c>
       <c r="N52" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3150,7 +3186,7 @@
         <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D53">
         <v>8</v>
@@ -3162,7 +3198,7 @@
         <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -3174,7 +3210,7 @@
         <v>0.8163424063904786</v>
       </c>
       <c r="K53">
-        <v>0.9332558862118555</v>
+        <v>0.9332558862118556</v>
       </c>
       <c r="L53">
         <v>0.5209837515411763</v>
@@ -3183,7 +3219,7 @@
         <v>0.61409012291259</v>
       </c>
       <c r="N53" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3194,7 +3230,7 @@
         <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D54">
         <v>8</v>
@@ -3206,7 +3242,7 @@
         <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -3227,7 +3263,7 @@
         <v>0.4957959055900574</v>
       </c>
       <c r="N54" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3238,7 +3274,7 @@
         <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D55">
         <v>8</v>
@@ -3250,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -3271,7 +3307,7 @@
         <v>0.7432044744491577</v>
       </c>
       <c r="N55" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3282,7 +3318,7 @@
         <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D56">
         <v>8</v>
@@ -3294,7 +3330,7 @@
         <v>50</v>
       </c>
       <c r="G56" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -3303,7 +3339,7 @@
         <v>5.338728458127044</v>
       </c>
       <c r="K56">
-        <v>4.849818498222812</v>
+        <v>4.849818498222811</v>
       </c>
       <c r="L56">
         <v>3.612886101434982</v>
@@ -3312,7 +3348,7 @@
         <v>3.706538223720009</v>
       </c>
       <c r="N56" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3323,7 +3359,7 @@
         <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D57">
         <v>8</v>
@@ -3335,7 +3371,7 @@
         <v>50</v>
       </c>
       <c r="G57" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -3353,7 +3389,7 @@
         <v>0.7169104026314912</v>
       </c>
       <c r="N57" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3364,7 +3400,7 @@
         <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D58">
         <v>8</v>
@@ -3376,7 +3412,7 @@
         <v>50</v>
       </c>
       <c r="G58" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -3394,7 +3430,7 @@
         <v>1.593907146675113</v>
       </c>
       <c r="N58" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3405,7 +3441,7 @@
         <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D59">
         <v>8</v>
@@ -3417,7 +3453,7 @@
         <v>50</v>
       </c>
       <c r="G59" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -3426,10 +3462,10 @@
         <v>5000</v>
       </c>
       <c r="J59">
-        <v>0.785422451775075</v>
+        <v>0.7854224517750749</v>
       </c>
       <c r="K59">
-        <v>0.9043472223544657</v>
+        <v>0.9043472223544656</v>
       </c>
       <c r="L59">
         <v>0.5031182818641662</v>
@@ -3438,7 +3474,7 @@
         <v>0.5980813218637303</v>
       </c>
       <c r="N59" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3449,7 +3485,7 @@
         <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D60">
         <v>8</v>
@@ -3461,7 +3497,7 @@
         <v>50</v>
       </c>
       <c r="G60" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -3482,7 +3518,7 @@
         <v>0.4837273955345154</v>
       </c>
       <c r="N60" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3493,7 +3529,7 @@
         <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D61">
         <v>8</v>
@@ -3505,7 +3541,7 @@
         <v>50</v>
       </c>
       <c r="G61" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3526,7 +3562,7 @@
         <v>0.7897850871086121</v>
       </c>
       <c r="N61" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3537,7 +3573,7 @@
         <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D62">
         <v>8</v>
@@ -3549,7 +3585,7 @@
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -3558,7 +3594,7 @@
         <v>4.384159545696203</v>
       </c>
       <c r="K62">
-        <v>4.162281584407036</v>
+        <v>4.162281584407037</v>
       </c>
       <c r="L62">
         <v>3.181135376681208</v>
@@ -3567,7 +3603,7 @@
         <v>3.258335834263824</v>
       </c>
       <c r="N62" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3578,7 +3614,7 @@
         <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D63">
         <v>8</v>
@@ -3590,7 +3626,7 @@
         <v>70</v>
       </c>
       <c r="G63" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3608,7 +3644,7 @@
         <v>0.6927480318783719</v>
       </c>
       <c r="N63" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3619,7 +3655,7 @@
         <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D64">
         <v>8</v>
@@ -3631,7 +3667,7 @@
         <v>70</v>
       </c>
       <c r="G64" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -3649,7 +3685,7 @@
         <v>1.623729725666519</v>
       </c>
       <c r="N64" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3660,7 +3696,7 @@
         <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D65">
         <v>8</v>
@@ -3672,7 +3708,7 @@
         <v>70</v>
       </c>
       <c r="G65" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3693,7 +3729,7 @@
         <v>0.5776821671751605</v>
       </c>
       <c r="N65" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3704,7 +3740,7 @@
         <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D66">
         <v>8</v>
@@ -3716,7 +3752,7 @@
         <v>70</v>
       </c>
       <c r="G66" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3737,7 +3773,7 @@
         <v>0.4867942333221436</v>
       </c>
       <c r="N66" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3748,7 +3784,7 @@
         <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D67">
         <v>8</v>
@@ -3760,7 +3796,7 @@
         <v>70</v>
       </c>
       <c r="G67" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -3781,7 +3817,7 @@
         <v>0.7465139627456665</v>
       </c>
       <c r="N67" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3792,7 +3828,7 @@
         <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D68">
         <v>8</v>
@@ -3804,25 +3840,25 @@
         <v>100</v>
       </c>
       <c r="G68" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>4.50628340310844</v>
+        <v>4.506283403108441</v>
       </c>
       <c r="K68">
-        <v>4.328067808803192</v>
+        <v>4.328067808803191</v>
       </c>
       <c r="L68">
-        <v>3.212188387619715</v>
+        <v>3.212188387619716</v>
       </c>
       <c r="M68">
         <v>3.312440959487002</v>
       </c>
       <c r="N68" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3833,7 +3869,7 @@
         <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D69">
         <v>8</v>
@@ -3845,25 +3881,25 @@
         <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0.9610679781078867</v>
+        <v>0.9610679781078868</v>
       </c>
       <c r="K69">
-        <v>0.9746878827125223</v>
+        <v>0.9746878827125224</v>
       </c>
       <c r="L69">
-        <v>0.66444439348795</v>
+        <v>0.6644443934879499</v>
       </c>
       <c r="M69">
         <v>0.6919813381530229</v>
       </c>
       <c r="N69" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3874,7 +3910,7 @@
         <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D70">
         <v>8</v>
@@ -3886,7 +3922,7 @@
         <v>100</v>
       </c>
       <c r="G70" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3904,7 +3940,7 @@
         <v>1.664348337943026</v>
       </c>
       <c r="N70" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3915,7 +3951,7 @@
         <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D71">
         <v>8</v>
@@ -3927,7 +3963,7 @@
         <v>100</v>
       </c>
       <c r="G71" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3942,13 +3978,13 @@
         <v>0.8897303208447325</v>
       </c>
       <c r="L71">
-        <v>0.4997818740693948</v>
+        <v>0.4997818740693949</v>
       </c>
       <c r="M71">
         <v>0.5748607219642351</v>
       </c>
       <c r="N71" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3959,7 +3995,7 @@
         <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D72">
         <v>8</v>
@@ -3971,7 +4007,7 @@
         <v>100</v>
       </c>
       <c r="G72" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3992,7 +4028,7 @@
         <v>0.4832877218723297</v>
       </c>
       <c r="N72" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4003,7 +4039,7 @@
         <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D73">
         <v>8</v>
@@ -4015,7 +4051,7 @@
         <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -4036,7 +4072,7 @@
         <v>0.7598562240600586</v>
       </c>
       <c r="N73" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4047,7 +4083,7 @@
         <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D74">
         <v>9</v>
@@ -4059,13 +4095,13 @@
         <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>3.184280716614786</v>
+        <v>3.184280716614785</v>
       </c>
       <c r="K74">
         <v>3.06728326548281</v>
@@ -4077,7 +4113,7 @@
         <v>2.282887075553385</v>
       </c>
       <c r="N74" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4088,7 +4124,7 @@
         <v>86</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D75">
         <v>9</v>
@@ -4100,7 +4136,7 @@
         <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -4115,10 +4151,10 @@
         <v>0.354735446008178</v>
       </c>
       <c r="M75">
-        <v>0.553864015151407</v>
+        <v>0.5538640151514069</v>
       </c>
       <c r="N75" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4129,7 +4165,7 @@
         <v>87</v>
       </c>
       <c r="C76" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D76">
         <v>9</v>
@@ -4141,7 +4177,7 @@
         <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -4150,7 +4186,7 @@
         <v>0.8967645232519562</v>
       </c>
       <c r="K76">
-        <v>0.9457716915386033</v>
+        <v>0.9457716915386032</v>
       </c>
       <c r="L76">
         <v>0.5811021895813898</v>
@@ -4159,7 +4195,7 @@
         <v>0.6121795508280491</v>
       </c>
       <c r="N76" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4170,7 +4206,7 @@
         <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D77">
         <v>9</v>
@@ -4182,7 +4218,7 @@
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -4203,7 +4239,7 @@
         <v>0.5236948808376839</v>
       </c>
       <c r="N77" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4214,7 +4250,7 @@
         <v>89</v>
       </c>
       <c r="C78" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D78">
         <v>9</v>
@@ -4226,7 +4262,7 @@
         <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -4247,7 +4283,7 @@
         <v>0.5009190440177917</v>
       </c>
       <c r="N78" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4258,7 +4294,7 @@
         <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D79">
         <v>9</v>
@@ -4270,7 +4306,7 @@
         <v>50</v>
       </c>
       <c r="G79" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -4282,13 +4318,13 @@
         <v>3.609348625483207</v>
       </c>
       <c r="L79">
-        <v>2.599654471619879</v>
+        <v>2.59965447161988</v>
       </c>
       <c r="M79">
         <v>2.684176234434793</v>
       </c>
       <c r="N79" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4299,7 +4335,7 @@
         <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D80">
         <v>9</v>
@@ -4311,7 +4347,7 @@
         <v>50</v>
       </c>
       <c r="G80" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -4320,7 +4356,7 @@
         <v>0.5526390348489894</v>
       </c>
       <c r="K80">
-        <v>0.8279170263118379</v>
+        <v>0.8279170263118381</v>
       </c>
       <c r="L80">
         <v>0.349141716346656</v>
@@ -4329,7 +4365,7 @@
         <v>0.5456439617028083</v>
       </c>
       <c r="N80" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4340,7 +4376,7 @@
         <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D81">
         <v>9</v>
@@ -4352,13 +4388,13 @@
         <v>50</v>
       </c>
       <c r="G81" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0.9105567614014595</v>
+        <v>0.9105567614014596</v>
       </c>
       <c r="K81">
         <v>0.9406926962298602</v>
@@ -4370,7 +4406,7 @@
         <v>0.605682177255902</v>
       </c>
       <c r="N81" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4381,7 +4417,7 @@
         <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D82">
         <v>9</v>
@@ -4393,7 +4429,7 @@
         <v>50</v>
       </c>
       <c r="G82" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -4414,7 +4450,7 @@
         <v>0.519913628980943</v>
       </c>
       <c r="N82" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4425,7 +4461,7 @@
         <v>94</v>
       </c>
       <c r="C83" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D83">
         <v>9</v>
@@ -4437,7 +4473,7 @@
         <v>50</v>
       </c>
       <c r="G83" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4458,7 +4494,7 @@
         <v>0.5159175992012024</v>
       </c>
       <c r="N83" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4469,7 +4505,7 @@
         <v>95</v>
       </c>
       <c r="C84" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D84">
         <v>9</v>
@@ -4481,13 +4517,13 @@
         <v>70</v>
       </c>
       <c r="G84" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>3.772374232398719</v>
+        <v>3.77237423239872</v>
       </c>
       <c r="K84">
         <v>3.739594971727825</v>
@@ -4499,7 +4535,7 @@
         <v>2.788498186129043</v>
       </c>
       <c r="N84" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4510,7 +4546,7 @@
         <v>96</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D85">
         <v>9</v>
@@ -4522,7 +4558,7 @@
         <v>70</v>
       </c>
       <c r="G85" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4540,7 +4576,7 @@
         <v>0.5578413785146829</v>
       </c>
       <c r="N85" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4551,7 +4587,7 @@
         <v>97</v>
       </c>
       <c r="C86" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D86">
         <v>9</v>
@@ -4563,7 +4599,7 @@
         <v>70</v>
       </c>
       <c r="G86" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -4572,7 +4608,7 @@
         <v>0.8799943556523335</v>
       </c>
       <c r="K86">
-        <v>0.9281046049116501</v>
+        <v>0.92810460491165</v>
       </c>
       <c r="L86">
         <v>0.5630998715201148</v>
@@ -4581,7 +4617,7 @@
         <v>0.5960962954105806</v>
       </c>
       <c r="N86" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4592,7 +4628,7 @@
         <v>98</v>
       </c>
       <c r="C87" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D87">
         <v>9</v>
@@ -4604,7 +4640,7 @@
         <v>70</v>
       </c>
       <c r="G87" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -4625,7 +4661,7 @@
         <v>0.5161627410720534</v>
       </c>
       <c r="N87" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4636,7 +4672,7 @@
         <v>99</v>
       </c>
       <c r="C88" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D88">
         <v>9</v>
@@ -4648,7 +4684,7 @@
         <v>70</v>
       </c>
       <c r="G88" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4669,7 +4705,7 @@
         <v>0.4829417169094086</v>
       </c>
       <c r="N88" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4680,7 +4716,7 @@
         <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D89">
         <v>9</v>
@@ -4692,13 +4728,13 @@
         <v>100</v>
       </c>
       <c r="G89" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>3.76635733537378</v>
+        <v>3.766357335373781</v>
       </c>
       <c r="K89">
         <v>3.740462109382637</v>
@@ -4710,7 +4746,7 @@
         <v>2.848247451201071</v>
       </c>
       <c r="N89" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4721,7 +4757,7 @@
         <v>101</v>
       </c>
       <c r="C90" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D90">
         <v>9</v>
@@ -4733,7 +4769,7 @@
         <v>100</v>
       </c>
       <c r="G90" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4751,7 +4787,7 @@
         <v>0.5611041022811756</v>
       </c>
       <c r="N90" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4762,7 +4798,7 @@
         <v>102</v>
       </c>
       <c r="C91" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D91">
         <v>9</v>
@@ -4774,7 +4810,7 @@
         <v>100</v>
       </c>
       <c r="G91" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -4783,7 +4819,7 @@
         <v>0.887069429202386</v>
       </c>
       <c r="K91">
-        <v>0.9392185695172177</v>
+        <v>0.9392185695172176</v>
       </c>
       <c r="L91">
         <v>0.5725317028572576</v>
@@ -4792,7 +4828,7 @@
         <v>0.6232290341292861</v>
       </c>
       <c r="N91" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4803,7 +4839,7 @@
         <v>103</v>
       </c>
       <c r="C92" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D92">
         <v>9</v>
@@ -4815,7 +4851,7 @@
         <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4836,7 +4872,7 @@
         <v>0.5150889794672704</v>
       </c>
       <c r="N92" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4847,7 +4883,7 @@
         <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D93">
         <v>9</v>
@@ -4859,7 +4895,7 @@
         <v>100</v>
       </c>
       <c r="G93" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4880,7 +4916,7 @@
         <v>0.5116219520568848</v>
       </c>
       <c r="N93" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4891,7 +4927,7 @@
         <v>105</v>
       </c>
       <c r="C94" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D94">
         <v>10</v>
@@ -4903,7 +4939,7 @@
         <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -4921,7 +4957,7 @@
         <v>3.089192696931077</v>
       </c>
       <c r="N94" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4932,7 +4968,7 @@
         <v>106</v>
       </c>
       <c r="C95" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D95">
         <v>10</v>
@@ -4944,7 +4980,7 @@
         <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4962,7 +4998,7 @@
         <v>0.5546602678733006</v>
       </c>
       <c r="N95" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4973,7 +5009,7 @@
         <v>107</v>
       </c>
       <c r="C96" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D96">
         <v>10</v>
@@ -4985,7 +5021,7 @@
         <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4994,7 +5030,7 @@
         <v>0.9049188043393898</v>
       </c>
       <c r="K96">
-        <v>0.9379045936708355</v>
+        <v>0.9379045936708356</v>
       </c>
       <c r="L96">
         <v>0.5716533704707185</v>
@@ -5003,7 +5039,7 @@
         <v>0.5862347497488172</v>
       </c>
       <c r="N96" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5014,7 +5050,7 @@
         <v>108</v>
       </c>
       <c r="C97" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D97">
         <v>10</v>
@@ -5026,7 +5062,7 @@
         <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -5047,7 +5083,7 @@
         <v>0.5390980030684489</v>
       </c>
       <c r="N97" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5058,7 +5094,7 @@
         <v>109</v>
       </c>
       <c r="C98" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D98">
         <v>10</v>
@@ -5070,7 +5106,7 @@
         <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -5091,7 +5127,7 @@
         <v>0.488473117351532</v>
       </c>
       <c r="N98" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5102,7 +5138,7 @@
         <v>110</v>
       </c>
       <c r="C99" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D99">
         <v>10</v>
@@ -5114,7 +5150,7 @@
         <v>50</v>
       </c>
       <c r="G99" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -5132,7 +5168,7 @@
         <v>2.953778229956044</v>
       </c>
       <c r="N99" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5143,7 +5179,7 @@
         <v>111</v>
       </c>
       <c r="C100" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D100">
         <v>10</v>
@@ -5155,7 +5191,7 @@
         <v>50</v>
       </c>
       <c r="G100" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -5173,7 +5209,7 @@
         <v>0.5490957950340991</v>
       </c>
       <c r="N100" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5184,7 +5220,7 @@
         <v>112</v>
       </c>
       <c r="C101" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D101">
         <v>10</v>
@@ -5196,13 +5232,13 @@
         <v>50</v>
       </c>
       <c r="G101" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>0.9165713509428223</v>
+        <v>0.9165713509428224</v>
       </c>
       <c r="K101">
         <v>0.9997138851623184</v>
@@ -5214,7 +5250,7 @@
         <v>0.6218308079208964</v>
       </c>
       <c r="N101" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5225,7 +5261,7 @@
         <v>113</v>
       </c>
       <c r="C102" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D102">
         <v>10</v>
@@ -5237,7 +5273,7 @@
         <v>50</v>
       </c>
       <c r="G102" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -5258,7 +5294,7 @@
         <v>0.5096397706467002</v>
       </c>
       <c r="N102" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5269,7 +5305,7 @@
         <v>114</v>
       </c>
       <c r="C103" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D103">
         <v>10</v>
@@ -5281,7 +5317,7 @@
         <v>50</v>
       </c>
       <c r="G103" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -5302,7 +5338,7 @@
         <v>0.4885215759277344</v>
       </c>
       <c r="N103" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5313,7 +5349,7 @@
         <v>115</v>
       </c>
       <c r="C104" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D104">
         <v>10</v>
@@ -5325,7 +5361,7 @@
         <v>70</v>
       </c>
       <c r="G104" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -5334,7 +5370,7 @@
         <v>4.188331447709003</v>
       </c>
       <c r="K104">
-        <v>4.10597406706299</v>
+        <v>4.105974067062991</v>
       </c>
       <c r="L104">
         <v>2.935580090372503</v>
@@ -5343,7 +5379,7 @@
         <v>2.967019961543019</v>
       </c>
       <c r="N104" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5354,7 +5390,7 @@
         <v>116</v>
       </c>
       <c r="C105" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D105">
         <v>10</v>
@@ -5366,7 +5402,7 @@
         <v>70</v>
       </c>
       <c r="G105" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -5375,16 +5411,16 @@
         <v>0.5697573910631055</v>
       </c>
       <c r="K105">
-        <v>0.9608026759866911</v>
+        <v>0.9608026759866912</v>
       </c>
       <c r="L105">
-        <v>0.364260683570509</v>
+        <v>0.3642606835705089</v>
       </c>
       <c r="M105">
         <v>0.5811764619317522</v>
       </c>
       <c r="N105" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5395,7 +5431,7 @@
         <v>117</v>
       </c>
       <c r="C106" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D106">
         <v>10</v>
@@ -5407,13 +5443,13 @@
         <v>70</v>
       </c>
       <c r="G106" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0.9698640901372603</v>
+        <v>0.9698640901372604</v>
       </c>
       <c r="K106">
         <v>1.063318893510254</v>
@@ -5425,7 +5461,7 @@
         <v>0.6767982469438569</v>
       </c>
       <c r="N106" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5436,7 +5472,7 @@
         <v>118</v>
       </c>
       <c r="C107" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -5448,7 +5484,7 @@
         <v>70</v>
       </c>
       <c r="G107" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -5457,7 +5493,7 @@
         <v>5000</v>
       </c>
       <c r="J107">
-        <v>0.4928132297110079</v>
+        <v>0.492813229711008</v>
       </c>
       <c r="K107">
         <v>0.938022485863393</v>
@@ -5469,7 +5505,7 @@
         <v>0.5590360544139376</v>
       </c>
       <c r="N107" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5480,7 +5516,7 @@
         <v>119</v>
       </c>
       <c r="C108" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D108">
         <v>10</v>
@@ -5492,7 +5528,7 @@
         <v>70</v>
       </c>
       <c r="G108" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -5513,7 +5549,7 @@
         <v>0.5049054622650146</v>
       </c>
       <c r="N108" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5524,7 +5560,7 @@
         <v>120</v>
       </c>
       <c r="C109" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D109">
         <v>10</v>
@@ -5536,7 +5572,7 @@
         <v>100</v>
       </c>
       <c r="G109" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -5551,10 +5587,10 @@
         <v>2.954522886017267</v>
       </c>
       <c r="M109">
-        <v>2.994755187024199</v>
+        <v>2.9947551870242</v>
       </c>
       <c r="N109" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5565,7 +5601,7 @@
         <v>121</v>
       </c>
       <c r="C110" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D110">
         <v>10</v>
@@ -5577,7 +5613,7 @@
         <v>100</v>
       </c>
       <c r="G110" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -5595,7 +5631,7 @@
         <v>0.6019888044078945</v>
       </c>
       <c r="N110" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5606,7 +5642,7 @@
         <v>122</v>
       </c>
       <c r="C111" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D111">
         <v>10</v>
@@ -5618,7 +5654,7 @@
         <v>100</v>
       </c>
       <c r="G111" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -5636,7 +5672,7 @@
         <v>0.6816649644603233</v>
       </c>
       <c r="N111" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5647,7 +5683,7 @@
         <v>123</v>
       </c>
       <c r="C112" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D112">
         <v>10</v>
@@ -5659,7 +5695,7 @@
         <v>100</v>
       </c>
       <c r="G112" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -5671,7 +5707,7 @@
         <v>0.4849800822419225</v>
       </c>
       <c r="K112">
-        <v>0.9031080514526529</v>
+        <v>0.9031080514526528</v>
       </c>
       <c r="L112">
         <v>0.2898227051206786</v>
@@ -5680,7 +5716,7 @@
         <v>0.5507847195058844</v>
       </c>
       <c r="N112" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5691,7 +5727,7 @@
         <v>124</v>
       </c>
       <c r="C113" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D113">
         <v>10</v>
@@ -5703,7 +5739,7 @@
         <v>100</v>
       </c>
       <c r="G113" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -5724,18 +5760,18 @@
         <v>0.5087140798568726</v>
       </c>
       <c r="N113" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
         <v>125</v>
       </c>
       <c r="C114" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -5762,18 +5798,18 @@
         <v>0.4867032170295715</v>
       </c>
       <c r="N114" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="1">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
         <v>126</v>
       </c>
       <c r="C115" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -5800,18 +5836,18 @@
         <v>0.475677102804184</v>
       </c>
       <c r="N115" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="1">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
         <v>127</v>
       </c>
       <c r="C116" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -5838,18 +5874,18 @@
         <v>0.4924018383026123</v>
       </c>
       <c r="N116" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
         <v>128</v>
       </c>
       <c r="C117" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -5876,18 +5912,18 @@
         <v>0.4637706279754639</v>
       </c>
       <c r="N117" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
         <v>129</v>
       </c>
       <c r="C118" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -5914,18 +5950,18 @@
         <v>0.4738454222679138</v>
       </c>
       <c r="N118" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="1">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
         <v>130</v>
       </c>
       <c r="C119" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -5952,18 +5988,18 @@
         <v>0.4912989139556885</v>
       </c>
       <c r="N119" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
         <v>131</v>
       </c>
       <c r="C120" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -5990,18 +6026,18 @@
         <v>0.4661184251308441</v>
       </c>
       <c r="N120" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
         <v>132</v>
       </c>
       <c r="C121" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -6028,18 +6064,18 @@
         <v>0.4698392748832703</v>
       </c>
       <c r="N121" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="1">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
         <v>133</v>
       </c>
       <c r="C122" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -6066,18 +6102,18 @@
         <v>0.8241565823554993</v>
       </c>
       <c r="N122" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="1">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
         <v>134</v>
       </c>
       <c r="C123" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -6104,18 +6140,18 @@
         <v>0.7848275899887085</v>
       </c>
       <c r="N123" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
         <v>135</v>
       </c>
       <c r="C124" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -6133,18 +6169,18 @@
         <v>0.471043460239115</v>
       </c>
       <c r="N124" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
         <v>136</v>
       </c>
       <c r="C125" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -6171,18 +6207,18 @@
         <v>1.576656341552734</v>
       </c>
       <c r="N125" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="1">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
         <v>137</v>
       </c>
       <c r="C126" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -6209,18 +6245,18 @@
         <v>1.425268888473511</v>
       </c>
       <c r="N126" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="1">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
         <v>138</v>
       </c>
       <c r="C127" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -6247,18 +6283,18 @@
         <v>1.40399432182312</v>
       </c>
       <c r="N127" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="1">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
         <v>139</v>
       </c>
       <c r="C128" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -6285,18 +6321,18 @@
         <v>2.058792591094971</v>
       </c>
       <c r="N128" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
         <v>140</v>
       </c>
       <c r="C129" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -6323,18 +6359,18 @@
         <v>2.015515565872192</v>
       </c>
       <c r="N129" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
         <v>141</v>
       </c>
       <c r="C130" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D130">
         <v>2</v>
@@ -6355,18 +6391,18 @@
         <v>0.4650816831083652</v>
       </c>
       <c r="N130" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="1">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
         <v>142</v>
       </c>
       <c r="C131" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D131">
         <v>6</v>
@@ -6396,18 +6432,18 @@
         <v>0.1288321763277054</v>
       </c>
       <c r="N131" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="1">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
         <v>143</v>
       </c>
       <c r="C132" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D132">
         <v>6</v>
@@ -6437,18 +6473,18 @@
         <v>0.1223251223564148</v>
       </c>
       <c r="N132" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
         <v>144</v>
       </c>
       <c r="C133" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D133">
         <v>6</v>
@@ -6478,18 +6514,18 @@
         <v>0.1185832843184471</v>
       </c>
       <c r="N133" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="1">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
         <v>145</v>
       </c>
       <c r="C134" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D134">
         <v>6</v>
@@ -6519,18 +6555,18 @@
         <v>0.1180950850248337</v>
       </c>
       <c r="N134" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="1">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
         <v>146</v>
       </c>
       <c r="C135" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D135">
         <v>6</v>
@@ -6554,24 +6590,24 @@
         <v>0.2878729701042175</v>
       </c>
       <c r="L135">
-        <v>0.1839323937892914</v>
+        <v>0.1839323937892913</v>
       </c>
       <c r="M135">
         <v>0.1848417073488235</v>
       </c>
       <c r="N135" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
         <v>147</v>
       </c>
       <c r="C136" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D136">
         <v>6</v>
@@ -6601,18 +6637,18 @@
         <v>0.1909065693616867</v>
       </c>
       <c r="N136" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="1">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
         <v>148</v>
       </c>
       <c r="C137" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D137">
         <v>6</v>
@@ -6642,18 +6678,18 @@
         <v>0.1902729719877243</v>
       </c>
       <c r="N137" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
         <v>149</v>
       </c>
       <c r="C138" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D138">
         <v>6</v>
@@ -6683,18 +6719,18 @@
         <v>0.190864771604538</v>
       </c>
       <c r="N138" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="1">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
         <v>150</v>
       </c>
       <c r="C139" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D139">
         <v>7</v>
@@ -6724,18 +6760,18 @@
         <v>0.6471161842346191</v>
       </c>
       <c r="N139" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
         <v>151</v>
       </c>
       <c r="C140" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D140">
         <v>7</v>
@@ -6765,18 +6801,18 @@
         <v>0.6225002408027649</v>
       </c>
       <c r="N140" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="1">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
         <v>152</v>
       </c>
       <c r="C141" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D141">
         <v>7</v>
@@ -6806,18 +6842,18 @@
         <v>0.5971564054489136</v>
       </c>
       <c r="N141" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="1">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
         <v>153</v>
       </c>
       <c r="C142" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D142">
         <v>7</v>
@@ -6847,18 +6883,18 @@
         <v>0.5784268975257874</v>
       </c>
       <c r="N142" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="1">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
         <v>154</v>
       </c>
       <c r="C143" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D143">
         <v>8</v>
@@ -6888,18 +6924,18 @@
         <v>0.5715242624282837</v>
       </c>
       <c r="N143" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="1">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
         <v>155</v>
       </c>
       <c r="C144" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D144">
         <v>8</v>
@@ -6929,18 +6965,18 @@
         <v>0.5808306336402893</v>
       </c>
       <c r="N144" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
         <v>156</v>
       </c>
       <c r="C145" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D145">
         <v>8</v>
@@ -6970,18 +7006,18 @@
         <v>0.5889738798141479</v>
       </c>
       <c r="N145" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="1">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
         <v>157</v>
       </c>
       <c r="C146" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D146">
         <v>8</v>
@@ -7011,18 +7047,18 @@
         <v>0.5742737054824829</v>
       </c>
       <c r="N146" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="1">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
         <v>158</v>
       </c>
       <c r="C147" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D147">
         <v>9</v>
@@ -7052,18 +7088,18 @@
         <v>0.1792676001787185</v>
       </c>
       <c r="N147" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="1">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
         <v>159</v>
       </c>
       <c r="C148" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D148">
         <v>9</v>
@@ -7093,18 +7129,18 @@
         <v>0.1590951681137085</v>
       </c>
       <c r="N148" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="1">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
         <v>160</v>
       </c>
       <c r="C149" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D149">
         <v>9</v>
@@ -7134,18 +7170,18 @@
         <v>0.1552767753601074</v>
       </c>
       <c r="N149" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="1">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
         <v>161</v>
       </c>
       <c r="C150" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D150">
         <v>9</v>
@@ -7175,18 +7211,18 @@
         <v>0.1350011229515075</v>
       </c>
       <c r="N150" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
         <v>162</v>
       </c>
       <c r="C151" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D151">
         <v>10</v>
@@ -7216,18 +7252,18 @@
         <v>0.9101401567459106</v>
       </c>
       <c r="N151" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="1">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
         <v>163</v>
       </c>
       <c r="C152" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D152">
         <v>10</v>
@@ -7257,18 +7293,18 @@
         <v>1.008879899978638</v>
       </c>
       <c r="N152" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="1">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
         <v>164</v>
       </c>
       <c r="C153" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D153">
         <v>10</v>
@@ -7295,21 +7331,21 @@
         <v>0.9447653889656068</v>
       </c>
       <c r="M153">
-        <v>0.946832835674286</v>
+        <v>0.9468328356742859</v>
       </c>
       <c r="N153" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="1">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
         <v>165</v>
       </c>
       <c r="C154" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D154">
         <v>10</v>
@@ -7330,7 +7366,7 @@
         <v>1.984005928039551</v>
       </c>
       <c r="K154">
-        <v>1.987738370895386</v>
+        <v>1.987738370895385</v>
       </c>
       <c r="L154">
         <v>0.9705012440681458</v>
@@ -7339,18 +7375,18 @@
         <v>0.9749662280082704</v>
       </c>
       <c r="N154" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
         <v>166</v>
       </c>
       <c r="C155" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -7368,18 +7404,18 @@
         <v>0.8625358425384447</v>
       </c>
       <c r="N155" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="1">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
         <v>167</v>
       </c>
       <c r="C156" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D156">
         <v>2</v>
@@ -7397,18 +7433,18 @@
         <v>3.174425371108237</v>
       </c>
       <c r="N156" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
         <v>168</v>
       </c>
       <c r="C157" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -7423,18 +7459,18 @@
         <v>0.5081766289410362</v>
       </c>
       <c r="N157" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="1">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
         <v>169</v>
       </c>
       <c r="C158" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="K158">
         <v>0.6688095868566116</v>
@@ -7443,7 +7479,1604 @@
         <v>0.4229790817339437</v>
       </c>
       <c r="N158" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159" s="1">
+        <v>0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>170</v>
+      </c>
+      <c r="C159" t="s">
+        <v>180</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>6</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>1000</v>
+      </c>
+      <c r="J159">
+        <v>0.3727575838565825</v>
+      </c>
+      <c r="K159">
+        <v>1.01145076751709</v>
+      </c>
+      <c r="L159">
+        <v>0.7037715911865234</v>
+      </c>
+      <c r="M159">
+        <v>0.7037715911865234</v>
+      </c>
+      <c r="N159" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160" s="1">
+        <v>1</v>
+      </c>
+      <c r="B160" t="s">
+        <v>171</v>
+      </c>
+      <c r="C160" t="s">
+        <v>180</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>6</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>1000</v>
+      </c>
+      <c r="J160">
+        <v>0.4361619055271149</v>
+      </c>
+      <c r="K160">
+        <v>0.8570613861083984</v>
+      </c>
+      <c r="L160">
+        <v>0.5586641430854797</v>
+      </c>
+      <c r="M160">
+        <v>0.5586641430854797</v>
+      </c>
+      <c r="N160" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="A161" s="1">
+        <v>2</v>
+      </c>
+      <c r="B161" t="s">
+        <v>172</v>
+      </c>
+      <c r="C161" t="s">
+        <v>180</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>6</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>1000</v>
+      </c>
+      <c r="J161">
+        <v>0.6613718867301941</v>
+      </c>
+      <c r="K161">
+        <v>0.802151083946228</v>
+      </c>
+      <c r="L161">
+        <v>0.5043001174926758</v>
+      </c>
+      <c r="M161">
+        <v>0.5043001174926758</v>
+      </c>
+      <c r="N161" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="A162" s="1">
+        <v>3</v>
+      </c>
+      <c r="B162" t="s">
+        <v>173</v>
+      </c>
+      <c r="C162" t="s">
+        <v>180</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>6</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>1000</v>
+      </c>
+      <c r="J162">
+        <v>0.6428340673446655</v>
+      </c>
+      <c r="K162">
+        <v>0.7361506223678589</v>
+      </c>
+      <c r="L162">
+        <v>0.480904757976532</v>
+      </c>
+      <c r="M162">
+        <v>0.480904757976532</v>
+      </c>
+      <c r="N162" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
+      <c r="A163" s="1">
+        <v>4</v>
+      </c>
+      <c r="B163" t="s">
+        <v>174</v>
+      </c>
+      <c r="C163" t="s">
+        <v>180</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>6</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>1000</v>
+      </c>
+      <c r="J163">
+        <v>0.690621018409729</v>
+      </c>
+      <c r="K163">
+        <v>0.7728224396705627</v>
+      </c>
+      <c r="L163">
+        <v>0.4850177764892578</v>
+      </c>
+      <c r="M163">
+        <v>0.4850177764892578</v>
+      </c>
+      <c r="N163" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="A164" s="1">
+        <v>5</v>
+      </c>
+      <c r="B164" t="s">
+        <v>175</v>
+      </c>
+      <c r="C164" t="s">
+        <v>180</v>
+      </c>
+      <c r="D164">
+        <v>6</v>
+      </c>
+      <c r="E164">
+        <v>6</v>
+      </c>
+      <c r="F164">
+        <v>30</v>
+      </c>
+      <c r="G164" t="s">
+        <v>189</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>5000</v>
+      </c>
+      <c r="J164">
+        <v>0.3924028277397156</v>
+      </c>
+      <c r="K164">
+        <v>1.076289176940918</v>
+      </c>
+      <c r="L164">
+        <v>0.2385181188583374</v>
+      </c>
+      <c r="M164">
+        <v>0.709267795085907</v>
+      </c>
+      <c r="N164" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
+      <c r="A165" s="1">
+        <v>6</v>
+      </c>
+      <c r="B165" t="s">
+        <v>176</v>
+      </c>
+      <c r="C165" t="s">
+        <v>180</v>
+      </c>
+      <c r="D165">
+        <v>6</v>
+      </c>
+      <c r="E165">
+        <v>6</v>
+      </c>
+      <c r="F165">
+        <v>30</v>
+      </c>
+      <c r="G165" t="s">
+        <v>189</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>5000</v>
+      </c>
+      <c r="J165">
+        <v>0.3924028277397156</v>
+      </c>
+      <c r="K165">
+        <v>1.076289176940918</v>
+      </c>
+      <c r="L165">
+        <v>0.2385181188583374</v>
+      </c>
+      <c r="M165">
+        <v>0.709267795085907</v>
+      </c>
+      <c r="N165" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="A166" s="1">
+        <v>7</v>
+      </c>
+      <c r="B166" t="s">
+        <v>177</v>
+      </c>
+      <c r="C166" t="s">
+        <v>180</v>
+      </c>
+      <c r="D166">
+        <v>6</v>
+      </c>
+      <c r="E166">
+        <v>6</v>
+      </c>
+      <c r="F166">
+        <v>30</v>
+      </c>
+      <c r="G166" t="s">
+        <v>189</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>5000</v>
+      </c>
+      <c r="J166">
+        <v>0.3924028277397156</v>
+      </c>
+      <c r="K166">
+        <v>1.076289176940918</v>
+      </c>
+      <c r="L166">
+        <v>0.2385181188583374</v>
+      </c>
+      <c r="M166">
+        <v>0.709267795085907</v>
+      </c>
+      <c r="N166" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167" s="1">
+        <v>8</v>
+      </c>
+      <c r="B167" t="s">
+        <v>175</v>
+      </c>
+      <c r="C167" t="s">
+        <v>180</v>
+      </c>
+      <c r="D167">
+        <v>7</v>
+      </c>
+      <c r="E167">
+        <v>6</v>
+      </c>
+      <c r="F167">
+        <v>30</v>
+      </c>
+      <c r="G167" t="s">
+        <v>189</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>5000</v>
+      </c>
+      <c r="J167">
+        <v>0.4125842154026032</v>
+      </c>
+      <c r="K167">
+        <v>1.166727900505066</v>
+      </c>
+      <c r="L167">
+        <v>0.2671242654323578</v>
+      </c>
+      <c r="M167">
+        <v>0.6583932638168335</v>
+      </c>
+      <c r="N167" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168" s="1">
+        <v>9</v>
+      </c>
+      <c r="B168" t="s">
+        <v>176</v>
+      </c>
+      <c r="C168" t="s">
+        <v>180</v>
+      </c>
+      <c r="D168">
+        <v>7</v>
+      </c>
+      <c r="E168">
+        <v>6</v>
+      </c>
+      <c r="F168">
+        <v>30</v>
+      </c>
+      <c r="G168" t="s">
+        <v>189</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>5000</v>
+      </c>
+      <c r="J168">
+        <v>0.4125842154026032</v>
+      </c>
+      <c r="K168">
+        <v>1.166727900505066</v>
+      </c>
+      <c r="L168">
+        <v>0.2671242654323578</v>
+      </c>
+      <c r="M168">
+        <v>0.6583932638168335</v>
+      </c>
+      <c r="N168" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="A169" s="1">
+        <v>10</v>
+      </c>
+      <c r="B169" t="s">
+        <v>177</v>
+      </c>
+      <c r="C169" t="s">
+        <v>180</v>
+      </c>
+      <c r="D169">
+        <v>7</v>
+      </c>
+      <c r="E169">
+        <v>6</v>
+      </c>
+      <c r="F169">
+        <v>30</v>
+      </c>
+      <c r="G169" t="s">
+        <v>189</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>5000</v>
+      </c>
+      <c r="J169">
+        <v>0.4125842154026032</v>
+      </c>
+      <c r="K169">
+        <v>1.166727900505066</v>
+      </c>
+      <c r="L169">
+        <v>0.2671242654323578</v>
+      </c>
+      <c r="M169">
+        <v>0.6583932638168335</v>
+      </c>
+      <c r="N169" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170" s="1">
+        <v>11</v>
+      </c>
+      <c r="B170" t="s">
+        <v>175</v>
+      </c>
+      <c r="C170" t="s">
+        <v>180</v>
+      </c>
+      <c r="D170">
+        <v>8</v>
+      </c>
+      <c r="E170">
+        <v>6</v>
+      </c>
+      <c r="F170">
+        <v>30</v>
+      </c>
+      <c r="G170" t="s">
+        <v>189</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>5000</v>
+      </c>
+      <c r="J170">
+        <v>0.3669474422931671</v>
+      </c>
+      <c r="K170">
+        <v>0.9341925382614136</v>
+      </c>
+      <c r="L170">
+        <v>0.2255705595016479</v>
+      </c>
+      <c r="M170">
+        <v>0.6224765777587891</v>
+      </c>
+      <c r="N170" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="A171" s="1">
+        <v>12</v>
+      </c>
+      <c r="B171" t="s">
+        <v>176</v>
+      </c>
+      <c r="C171" t="s">
+        <v>180</v>
+      </c>
+      <c r="D171">
+        <v>8</v>
+      </c>
+      <c r="E171">
+        <v>6</v>
+      </c>
+      <c r="F171">
+        <v>30</v>
+      </c>
+      <c r="G171" t="s">
+        <v>189</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>5000</v>
+      </c>
+      <c r="J171">
+        <v>0.3669474422931671</v>
+      </c>
+      <c r="K171">
+        <v>0.9341925382614136</v>
+      </c>
+      <c r="L171">
+        <v>0.2255705595016479</v>
+      </c>
+      <c r="M171">
+        <v>0.6224765777587891</v>
+      </c>
+      <c r="N171" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
+      <c r="A172" s="1">
+        <v>13</v>
+      </c>
+      <c r="B172" t="s">
+        <v>177</v>
+      </c>
+      <c r="C172" t="s">
+        <v>180</v>
+      </c>
+      <c r="D172">
+        <v>8</v>
+      </c>
+      <c r="E172">
+        <v>6</v>
+      </c>
+      <c r="F172">
+        <v>30</v>
+      </c>
+      <c r="G172" t="s">
+        <v>189</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>5000</v>
+      </c>
+      <c r="J172">
+        <v>0.3669474422931671</v>
+      </c>
+      <c r="K172">
+        <v>0.9341925382614136</v>
+      </c>
+      <c r="L172">
+        <v>0.2255705595016479</v>
+      </c>
+      <c r="M172">
+        <v>0.6224765777587891</v>
+      </c>
+      <c r="N172" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
+      <c r="A173" s="1">
+        <v>14</v>
+      </c>
+      <c r="B173" t="s">
+        <v>175</v>
+      </c>
+      <c r="C173" t="s">
+        <v>180</v>
+      </c>
+      <c r="D173">
+        <v>6</v>
+      </c>
+      <c r="E173">
+        <v>6</v>
+      </c>
+      <c r="F173">
+        <v>30</v>
+      </c>
+      <c r="G173" t="s">
+        <v>190</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>40000</v>
+      </c>
+      <c r="J173">
+        <v>0.9848682284355164</v>
+      </c>
+      <c r="K173">
+        <v>1.43108344078064</v>
+      </c>
+      <c r="L173">
+        <v>0.580645740032196</v>
+      </c>
+      <c r="M173">
+        <v>0.9451223611831664</v>
+      </c>
+      <c r="N173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
+      <c r="A174" s="1">
+        <v>15</v>
+      </c>
+      <c r="B174" t="s">
+        <v>176</v>
+      </c>
+      <c r="C174" t="s">
+        <v>180</v>
+      </c>
+      <c r="D174">
+        <v>6</v>
+      </c>
+      <c r="E174">
+        <v>6</v>
+      </c>
+      <c r="F174">
+        <v>30</v>
+      </c>
+      <c r="G174" t="s">
+        <v>190</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>40000</v>
+      </c>
+      <c r="J174">
+        <v>0.9848682284355164</v>
+      </c>
+      <c r="K174">
+        <v>1.43108344078064</v>
+      </c>
+      <c r="L174">
+        <v>0.580645740032196</v>
+      </c>
+      <c r="M174">
+        <v>0.9451223611831664</v>
+      </c>
+      <c r="N174" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
+      <c r="A175" s="1">
+        <v>16</v>
+      </c>
+      <c r="B175" t="s">
+        <v>177</v>
+      </c>
+      <c r="C175" t="s">
+        <v>180</v>
+      </c>
+      <c r="D175">
+        <v>6</v>
+      </c>
+      <c r="E175">
+        <v>6</v>
+      </c>
+      <c r="F175">
+        <v>30</v>
+      </c>
+      <c r="G175" t="s">
+        <v>190</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>40000</v>
+      </c>
+      <c r="J175">
+        <v>0.9848682284355164</v>
+      </c>
+      <c r="K175">
+        <v>1.43108344078064</v>
+      </c>
+      <c r="L175">
+        <v>0.580645740032196</v>
+      </c>
+      <c r="M175">
+        <v>0.9451223611831664</v>
+      </c>
+      <c r="N175" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
+      <c r="A176" s="1">
+        <v>17</v>
+      </c>
+      <c r="B176" t="s">
+        <v>175</v>
+      </c>
+      <c r="C176" t="s">
+        <v>180</v>
+      </c>
+      <c r="D176">
+        <v>7</v>
+      </c>
+      <c r="E176">
+        <v>6</v>
+      </c>
+      <c r="F176">
+        <v>30</v>
+      </c>
+      <c r="G176" t="s">
+        <v>190</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>40000</v>
+      </c>
+      <c r="J176">
+        <v>1.138569831848144</v>
+      </c>
+      <c r="K176">
+        <v>1.461150050163269</v>
+      </c>
+      <c r="L176">
+        <v>0.8117827177047729</v>
+      </c>
+      <c r="M176">
+        <v>1.033011794090271</v>
+      </c>
+      <c r="N176" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
+      <c r="A177" s="1">
+        <v>18</v>
+      </c>
+      <c r="B177" t="s">
+        <v>176</v>
+      </c>
+      <c r="C177" t="s">
+        <v>180</v>
+      </c>
+      <c r="D177">
+        <v>7</v>
+      </c>
+      <c r="E177">
+        <v>6</v>
+      </c>
+      <c r="F177">
+        <v>30</v>
+      </c>
+      <c r="G177" t="s">
+        <v>190</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>40000</v>
+      </c>
+      <c r="J177">
+        <v>1.138569831848144</v>
+      </c>
+      <c r="K177">
+        <v>1.461150050163269</v>
+      </c>
+      <c r="L177">
+        <v>0.8117827177047729</v>
+      </c>
+      <c r="M177">
+        <v>1.033011794090271</v>
+      </c>
+      <c r="N177" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
+      <c r="A178" s="1">
+        <v>19</v>
+      </c>
+      <c r="B178" t="s">
+        <v>177</v>
+      </c>
+      <c r="C178" t="s">
+        <v>180</v>
+      </c>
+      <c r="D178">
+        <v>7</v>
+      </c>
+      <c r="E178">
+        <v>6</v>
+      </c>
+      <c r="F178">
+        <v>30</v>
+      </c>
+      <c r="G178" t="s">
+        <v>190</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>40000</v>
+      </c>
+      <c r="J178">
+        <v>1.138569831848144</v>
+      </c>
+      <c r="K178">
+        <v>1.461150050163269</v>
+      </c>
+      <c r="L178">
+        <v>0.8117827177047729</v>
+      </c>
+      <c r="M178">
+        <v>1.033011794090271</v>
+      </c>
+      <c r="N178" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
+      <c r="A179" s="1">
+        <v>20</v>
+      </c>
+      <c r="B179" t="s">
+        <v>175</v>
+      </c>
+      <c r="C179" t="s">
+        <v>180</v>
+      </c>
+      <c r="D179">
+        <v>8</v>
+      </c>
+      <c r="E179">
+        <v>6</v>
+      </c>
+      <c r="F179">
+        <v>30</v>
+      </c>
+      <c r="G179" t="s">
+        <v>190</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>40000</v>
+      </c>
+      <c r="J179">
+        <v>1.004699349403381</v>
+      </c>
+      <c r="K179">
+        <v>1.333872079849243</v>
+      </c>
+      <c r="L179">
+        <v>0.691228449344635</v>
+      </c>
+      <c r="M179">
+        <v>0.8980620503425598</v>
+      </c>
+      <c r="N179" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
+      <c r="A180" s="1">
+        <v>21</v>
+      </c>
+      <c r="B180" t="s">
+        <v>176</v>
+      </c>
+      <c r="C180" t="s">
+        <v>180</v>
+      </c>
+      <c r="D180">
+        <v>8</v>
+      </c>
+      <c r="E180">
+        <v>6</v>
+      </c>
+      <c r="F180">
+        <v>30</v>
+      </c>
+      <c r="G180" t="s">
+        <v>190</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>40000</v>
+      </c>
+      <c r="J180">
+        <v>1.004699349403381</v>
+      </c>
+      <c r="K180">
+        <v>1.333872079849243</v>
+      </c>
+      <c r="L180">
+        <v>0.691228449344635</v>
+      </c>
+      <c r="M180">
+        <v>0.8980620503425598</v>
+      </c>
+      <c r="N180" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
+      <c r="A181" s="1">
+        <v>22</v>
+      </c>
+      <c r="B181" t="s">
+        <v>177</v>
+      </c>
+      <c r="C181" t="s">
+        <v>180</v>
+      </c>
+      <c r="D181">
+        <v>8</v>
+      </c>
+      <c r="E181">
+        <v>6</v>
+      </c>
+      <c r="F181">
+        <v>30</v>
+      </c>
+      <c r="G181" t="s">
+        <v>190</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>40000</v>
+      </c>
+      <c r="J181">
+        <v>1.004699349403381</v>
+      </c>
+      <c r="K181">
+        <v>1.333872079849243</v>
+      </c>
+      <c r="L181">
+        <v>0.691228449344635</v>
+      </c>
+      <c r="M181">
+        <v>0.8980620503425598</v>
+      </c>
+      <c r="N181" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
+      <c r="A182" s="1">
+        <v>23</v>
+      </c>
+      <c r="B182" t="s">
+        <v>175</v>
+      </c>
+      <c r="C182" t="s">
+        <v>180</v>
+      </c>
+      <c r="D182">
+        <v>6</v>
+      </c>
+      <c r="E182">
+        <v>6</v>
+      </c>
+      <c r="F182">
+        <v>30</v>
+      </c>
+      <c r="G182" t="s">
         <v>186</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0.8831143425603806</v>
+      </c>
+      <c r="K182">
+        <v>1.611512616804605</v>
+      </c>
+      <c r="L182">
+        <v>0.6404101497355129</v>
+      </c>
+      <c r="M182">
+        <v>0.965070312814292</v>
+      </c>
+      <c r="N182" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
+      <c r="A183" s="1">
+        <v>24</v>
+      </c>
+      <c r="B183" t="s">
+        <v>176</v>
+      </c>
+      <c r="C183" t="s">
+        <v>180</v>
+      </c>
+      <c r="D183">
+        <v>6</v>
+      </c>
+      <c r="E183">
+        <v>6</v>
+      </c>
+      <c r="F183">
+        <v>30</v>
+      </c>
+      <c r="G183" t="s">
+        <v>186</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0.9674966408221136</v>
+      </c>
+      <c r="K183">
+        <v>3.032502576296209</v>
+      </c>
+      <c r="L183">
+        <v>0.6843040395698139</v>
+      </c>
+      <c r="M183">
+        <v>0.9801048385177517</v>
+      </c>
+      <c r="N183" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
+      <c r="A184" s="1">
+        <v>25</v>
+      </c>
+      <c r="B184" t="s">
+        <v>177</v>
+      </c>
+      <c r="C184" t="s">
+        <v>180</v>
+      </c>
+      <c r="D184">
+        <v>6</v>
+      </c>
+      <c r="E184">
+        <v>6</v>
+      </c>
+      <c r="F184">
+        <v>30</v>
+      </c>
+      <c r="G184" t="s">
+        <v>186</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>1.035705021277176</v>
+      </c>
+      <c r="K184">
+        <v>1.15224509765043</v>
+      </c>
+      <c r="L184">
+        <v>0.7354985254578084</v>
+      </c>
+      <c r="M184">
+        <v>0.8076877784421226</v>
+      </c>
+      <c r="N184" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
+      <c r="A185" s="1">
+        <v>26</v>
+      </c>
+      <c r="B185" t="s">
+        <v>178</v>
+      </c>
+      <c r="C185" t="s">
+        <v>180</v>
+      </c>
+      <c r="D185">
+        <v>6</v>
+      </c>
+      <c r="E185">
+        <v>6</v>
+      </c>
+      <c r="F185">
+        <v>30</v>
+      </c>
+      <c r="G185" t="s">
+        <v>186</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>1.052921193690529</v>
+      </c>
+      <c r="K185">
+        <v>1.102772452091765</v>
+      </c>
+      <c r="L185">
+        <v>0.7523254284445342</v>
+      </c>
+      <c r="M185">
+        <v>0.7840963316763028</v>
+      </c>
+      <c r="N185" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
+      <c r="A186" s="1">
+        <v>27</v>
+      </c>
+      <c r="B186" t="s">
+        <v>179</v>
+      </c>
+      <c r="C186" t="s">
+        <v>180</v>
+      </c>
+      <c r="D186">
+        <v>6</v>
+      </c>
+      <c r="E186">
+        <v>6</v>
+      </c>
+      <c r="F186">
+        <v>30</v>
+      </c>
+      <c r="G186" t="s">
+        <v>186</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>1.024213017200579</v>
+      </c>
+      <c r="K186">
+        <v>1.088744493830769</v>
+      </c>
+      <c r="L186">
+        <v>0.7320699560549179</v>
+      </c>
+      <c r="M186">
+        <v>0.7690979236193421</v>
+      </c>
+      <c r="N186" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
+      <c r="A187" s="1">
+        <v>28</v>
+      </c>
+      <c r="B187" t="s">
+        <v>175</v>
+      </c>
+      <c r="C187" t="s">
+        <v>180</v>
+      </c>
+      <c r="D187">
+        <v>7</v>
+      </c>
+      <c r="E187">
+        <v>6</v>
+      </c>
+      <c r="F187">
+        <v>30</v>
+      </c>
+      <c r="G187" t="s">
+        <v>186</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0.8831143425603806</v>
+      </c>
+      <c r="K187">
+        <v>1.611512616804605</v>
+      </c>
+      <c r="L187">
+        <v>0.6404101497355129</v>
+      </c>
+      <c r="M187">
+        <v>0.965070312814292</v>
+      </c>
+      <c r="N187" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
+      <c r="A188" s="1">
+        <v>29</v>
+      </c>
+      <c r="B188" t="s">
+        <v>176</v>
+      </c>
+      <c r="C188" t="s">
+        <v>180</v>
+      </c>
+      <c r="D188">
+        <v>7</v>
+      </c>
+      <c r="E188">
+        <v>6</v>
+      </c>
+      <c r="F188">
+        <v>30</v>
+      </c>
+      <c r="G188" t="s">
+        <v>186</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0.9674966408221136</v>
+      </c>
+      <c r="K188">
+        <v>3.032502576296209</v>
+      </c>
+      <c r="L188">
+        <v>0.6843040395698139</v>
+      </c>
+      <c r="M188">
+        <v>0.9801048385177517</v>
+      </c>
+      <c r="N188" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
+      <c r="A189" s="1">
+        <v>30</v>
+      </c>
+      <c r="B189" t="s">
+        <v>177</v>
+      </c>
+      <c r="C189" t="s">
+        <v>180</v>
+      </c>
+      <c r="D189">
+        <v>7</v>
+      </c>
+      <c r="E189">
+        <v>6</v>
+      </c>
+      <c r="F189">
+        <v>30</v>
+      </c>
+      <c r="G189" t="s">
+        <v>186</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>1.035705021277176</v>
+      </c>
+      <c r="K189">
+        <v>1.15224509765043</v>
+      </c>
+      <c r="L189">
+        <v>0.7354985254578084</v>
+      </c>
+      <c r="M189">
+        <v>0.8076877784421226</v>
+      </c>
+      <c r="N189" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
+      <c r="A190" s="1">
+        <v>31</v>
+      </c>
+      <c r="B190" t="s">
+        <v>178</v>
+      </c>
+      <c r="C190" t="s">
+        <v>180</v>
+      </c>
+      <c r="D190">
+        <v>7</v>
+      </c>
+      <c r="E190">
+        <v>6</v>
+      </c>
+      <c r="F190">
+        <v>30</v>
+      </c>
+      <c r="G190" t="s">
+        <v>186</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>1.052921193690529</v>
+      </c>
+      <c r="K190">
+        <v>1.102772452091765</v>
+      </c>
+      <c r="L190">
+        <v>0.7523254284445342</v>
+      </c>
+      <c r="M190">
+        <v>0.7840963316763028</v>
+      </c>
+      <c r="N190" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
+      <c r="A191" s="1">
+        <v>32</v>
+      </c>
+      <c r="B191" t="s">
+        <v>179</v>
+      </c>
+      <c r="C191" t="s">
+        <v>180</v>
+      </c>
+      <c r="D191">
+        <v>7</v>
+      </c>
+      <c r="E191">
+        <v>6</v>
+      </c>
+      <c r="F191">
+        <v>30</v>
+      </c>
+      <c r="G191" t="s">
+        <v>186</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>1.024213017200579</v>
+      </c>
+      <c r="K191">
+        <v>1.088744493830769</v>
+      </c>
+      <c r="L191">
+        <v>0.7320699560549179</v>
+      </c>
+      <c r="M191">
+        <v>0.7690979236193421</v>
+      </c>
+      <c r="N191" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
+      <c r="A192" s="1">
+        <v>33</v>
+      </c>
+      <c r="B192" t="s">
+        <v>175</v>
+      </c>
+      <c r="C192" t="s">
+        <v>180</v>
+      </c>
+      <c r="D192">
+        <v>8</v>
+      </c>
+      <c r="E192">
+        <v>6</v>
+      </c>
+      <c r="F192">
+        <v>30</v>
+      </c>
+      <c r="G192" t="s">
+        <v>186</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0.8831143425603806</v>
+      </c>
+      <c r="K192">
+        <v>1.611512616804605</v>
+      </c>
+      <c r="L192">
+        <v>0.6404101497355129</v>
+      </c>
+      <c r="M192">
+        <v>0.965070312814292</v>
+      </c>
+      <c r="N192" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14">
+      <c r="A193" s="1">
+        <v>34</v>
+      </c>
+      <c r="B193" t="s">
+        <v>176</v>
+      </c>
+      <c r="C193" t="s">
+        <v>180</v>
+      </c>
+      <c r="D193">
+        <v>8</v>
+      </c>
+      <c r="E193">
+        <v>6</v>
+      </c>
+      <c r="F193">
+        <v>30</v>
+      </c>
+      <c r="G193" t="s">
+        <v>186</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0.9674966408221136</v>
+      </c>
+      <c r="K193">
+        <v>3.032502576296209</v>
+      </c>
+      <c r="L193">
+        <v>0.6843040395698139</v>
+      </c>
+      <c r="M193">
+        <v>0.9801048385177517</v>
+      </c>
+      <c r="N193" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
+      <c r="A194" s="1">
+        <v>35</v>
+      </c>
+      <c r="B194" t="s">
+        <v>177</v>
+      </c>
+      <c r="C194" t="s">
+        <v>180</v>
+      </c>
+      <c r="D194">
+        <v>8</v>
+      </c>
+      <c r="E194">
+        <v>6</v>
+      </c>
+      <c r="F194">
+        <v>30</v>
+      </c>
+      <c r="G194" t="s">
+        <v>186</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>1.035705021277176</v>
+      </c>
+      <c r="K194">
+        <v>1.15224509765043</v>
+      </c>
+      <c r="L194">
+        <v>0.7354985254578084</v>
+      </c>
+      <c r="M194">
+        <v>0.8076877784421226</v>
+      </c>
+      <c r="N194" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
+      <c r="A195" s="1">
+        <v>36</v>
+      </c>
+      <c r="B195" t="s">
+        <v>178</v>
+      </c>
+      <c r="C195" t="s">
+        <v>180</v>
+      </c>
+      <c r="D195">
+        <v>8</v>
+      </c>
+      <c r="E195">
+        <v>6</v>
+      </c>
+      <c r="F195">
+        <v>30</v>
+      </c>
+      <c r="G195" t="s">
+        <v>186</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>1.052921193690529</v>
+      </c>
+      <c r="K195">
+        <v>1.102772452091765</v>
+      </c>
+      <c r="L195">
+        <v>0.7523254284445342</v>
+      </c>
+      <c r="M195">
+        <v>0.7840963316763028</v>
+      </c>
+      <c r="N195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
+      <c r="A196" s="1">
+        <v>37</v>
+      </c>
+      <c r="B196" t="s">
+        <v>179</v>
+      </c>
+      <c r="C196" t="s">
+        <v>180</v>
+      </c>
+      <c r="D196">
+        <v>8</v>
+      </c>
+      <c r="E196">
+        <v>6</v>
+      </c>
+      <c r="F196">
+        <v>30</v>
+      </c>
+      <c r="G196" t="s">
+        <v>186</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>1.024213017200579</v>
+      </c>
+      <c r="K196">
+        <v>1.088744493830769</v>
+      </c>
+      <c r="L196">
+        <v>0.7320699560549179</v>
+      </c>
+      <c r="M196">
+        <v>0.7690979236193421</v>
+      </c>
+      <c r="N196" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
